--- a/ideas/creatureFeatures.xlsx
+++ b/ideas/creatureFeatures.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25440" windowHeight="14620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,377 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
+  <si>
+    <t>Vision not affected by night one spot away from creature; energyLoss += 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision not affected by night; energyLoss += 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCDBB, BCCBB, BCBBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCDCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blushy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates very low light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Looses very little energy to sustain the light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyLoss += 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCDB, BCCB, BCBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeExpectancy = 15*length of gene; when age &gt; lifeExpectancy: for each turn: health -= ageDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ageDamage = 2 at birth; when age &gt; lifeExpectancy: for each turn: ageDamage += ceil(ageDamage / 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age does not have any impact on health but sickly creature who cannot reproduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low maximum health. Cannot reproduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth &lt; 25; maxBabies = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates own light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates own super powerful light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify environment -&gt; Turn dark into light one spot around. Looses energy faster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify environment -&gt; Turn dark into light in the full vision field. Looses energy very fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glowy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slower creature but old age has very little impact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loses health very slowly once life expectancy is over. Reduced movement abilities from birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ageDamage = 2; movementCap -= 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A pair of moustaches to sense the air, cumulative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A pair of long moustaches to sense the air far away. Cumulative but too many are an hindrance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some aesthetic characteristic with no impact on fitness, cumulative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some aesthetic characteristic with no impact on fitness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sporadic aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old has a very random impact on creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ageDamage in [5, 50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix the age damage randomly at birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progressive aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creature becomes sicker as it ages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loses more and more health each turn once life expectancy is over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB, BC, BD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pretty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No impact on fitness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCBCBB</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The longer the gene, the longer the life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length of gene determines life expectancy, after which health decreases at each turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D, DD, DDD, DDDD, DDDDD, DDDDDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loses health very quickly once life expectancy is over</t>
+  </si>
+  <si>
+    <t>Sick when old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ageDamage = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LETHAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very slow aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lethal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBCD, BBBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moustaches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long moustaches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can sense moving things one spot around. Can have multiple of them for improve sensitivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can sense moving things a few spots around. Can have multiple of them for improve sensitivity. Too many cause diminished vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movesenseCap = 1; movesenseProb += 0.1 per pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movesenseCap = 3; movesenseProb += 0.1 per pair; visionCap -= 2 if more than 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Regular vision in all lights, protection from attacks</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +564,22 @@
   </si>
   <si>
     <t>EY4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +653,62 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -591,19 +1033,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
@@ -611,153 +1053,429 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="14" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="14" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F32" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -767,4 +1485,6025 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:P730"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)))</f>
+        <v>BB</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)) )</f>
+        <v>BBB</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)), IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)) )</f>
+        <v>BBBB</v>
+      </c>
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)) )</f>
+        <v>BBBBB</v>
+      </c>
+      <c r="L2" t="str">
+        <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>BBBBBB</v>
+      </c>
+      <c r="N2">
+        <f>COUNTIF($C$2:$C$4,"VOID")+COUNTIF($E$2:$E$10,"VOID")+COUNTIF($G$2:$G$28,"VOID")+COUNTIF($I$2:$I$82,"VOID")+COUNTIF($K$2:$K$244,"VOID")+COUNTIF($M$2:$M$730,"VOID")</f>
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIF($C$2:$C$4,"LETHAL")+COUNTIF($E$2:$E$10,"LETHAL")+COUNTIF($G$2:$G$28,"LETHAL")+COUNTIF($I$2:$I$82,"LETHAL")+COUNTIF($K$2:$K$244,"LETHAL")+COUNTIF($M$2:$M$730,"LETHAL")</f>
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <f>COUNTIF($C$2:$C$4,"*")+O2+COUNTIF($E$2:$E$10,"*")+COUNTIF($G$2:$G$28,"*")+COUNTIF($I$2:$I$82,"*")+COUNTIF($K$2:$K$244,"*")+COUNTIF($M$2:$M$730,"*") - N2 - O2</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D9" si="0">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)))</f>
+        <v>CB</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F36" si="1">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)) )</f>
+        <v>CBB</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="2">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)), IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)) )</f>
+        <v>CBBB</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="3">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)) )</f>
+        <v>CBBBB</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L66" si="4">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>CBBBBB</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>DB</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>DBB</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>DBBB</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="3"/>
+        <v>DBBBB</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="4"/>
+        <v>DBBBBB</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>BC</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>BCB</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>BCBB</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="3"/>
+        <v>BCBBB</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="4"/>
+        <v>BCBBBB</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>CC</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>CCB</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>CCBB</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v>CCBBB</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="4"/>
+        <v>CCBBBB</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>DC</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>DCB</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>DCBB</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>DCBBB</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="4"/>
+        <v>DCBBBB</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>BD</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>BDB</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>BDBB</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>BDBBB</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="4"/>
+        <v>BDBBBB</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>CD</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>CDB</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>CDBB</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v>CDBBB</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="4"/>
+        <v>CDBBBB</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="D10" t="str">
+        <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)))</f>
+        <v>DD</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>DDB</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>DDBB</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v>DDBBB</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="4"/>
+        <v>DDBBBB</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>BBC</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>BBCB</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v>BBCBB</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="4"/>
+        <v>BBCBBB</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>CBC</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>CBCB</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>CBCBB</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="4"/>
+        <v>CBCBBB</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>DBC</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>DBCB</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v>DBCBB</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="4"/>
+        <v>DBCBBB</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>BCC</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>BCCB</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>BCCBB</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="4"/>
+        <v>BCCBBB</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>CCC</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>CCCB</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>CCCBB</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCBBB</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>DCC</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>DCCB</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>DCCBB</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="4"/>
+        <v>DCCBBB</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13">
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>BDC</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>BDCB</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>BDCBB</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="4"/>
+        <v>BDCBBB</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13">
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>CDC</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>CDCB</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>CDCBB</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="4"/>
+        <v>CDCBBB</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13">
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>DDC</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>DDCB</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>DDCBB</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="4"/>
+        <v>DDCBBB</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13">
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>BBD</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>BBDB</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>BBDBB</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="4"/>
+        <v>BBDBBB</v>
+      </c>
+    </row>
+    <row r="21" spans="6:13">
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>CBD</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>CBDB</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>CBDBB</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="4"/>
+        <v>CBDBBB</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13">
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>DBD</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>DBDB</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="3"/>
+        <v>DBDBB</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="4"/>
+        <v>DBDBBB</v>
+      </c>
+    </row>
+    <row r="23" spans="6:13">
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>BCD</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>BCDB</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="3"/>
+        <v>BCDBB</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="4"/>
+        <v>BCDBBB</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13">
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>CCD</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>CCDB</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="3"/>
+        <v>CCDBB</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="4"/>
+        <v>CCDBBB</v>
+      </c>
+    </row>
+    <row r="25" spans="6:13">
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>DCD</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>DCDB</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>DCDBB</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="4"/>
+        <v>DCDBBB</v>
+      </c>
+    </row>
+    <row r="26" spans="6:13">
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>BDD</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>BDDB</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="3"/>
+        <v>BDDBB</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="4"/>
+        <v>BDDBBB</v>
+      </c>
+    </row>
+    <row r="27" spans="6:13">
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>CDD</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>CDDB</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
+        <v>CDDBB</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="4"/>
+        <v>CDDBBB</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13">
+      <c r="F28" t="str">
+        <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)) )</f>
+        <v>DDD</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>DDDB</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
+        <v>DDDBB</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="4"/>
+        <v>DDDBBB</v>
+      </c>
+    </row>
+    <row r="29" spans="6:13">
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>BBBC</v>
+      </c>
+      <c r="I29" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>BBBCB</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="4"/>
+        <v>BBBCBB</v>
+      </c>
+    </row>
+    <row r="30" spans="6:13">
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>CBBC</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>CBBCB</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="4"/>
+        <v>CBBCBB</v>
+      </c>
+    </row>
+    <row r="31" spans="6:13">
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>DBBC</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>DBBCB</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="4"/>
+        <v>DBBCBB</v>
+      </c>
+    </row>
+    <row r="32" spans="6:13">
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>BCBC</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v>BCBCB</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="4"/>
+        <v>BCBCBB</v>
+      </c>
+      <c r="M32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12">
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>CCBC</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="3"/>
+        <v>CCBCB</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="4"/>
+        <v>CCBCBB</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12">
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>DCBC</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="3"/>
+        <v>DCBCB</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="4"/>
+        <v>DCBCBB</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12">
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>BDBC</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="3"/>
+        <v>BDBCB</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="4"/>
+        <v>BDBCBB</v>
+      </c>
+    </row>
+    <row r="36" spans="8:12">
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>CDBC</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="3"/>
+        <v>CDBCB</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="4"/>
+        <v>CDBCBB</v>
+      </c>
+    </row>
+    <row r="37" spans="8:12">
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>DDBC</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="3"/>
+        <v>DDBCB</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="4"/>
+        <v>DDBCBB</v>
+      </c>
+    </row>
+    <row r="38" spans="8:12">
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>BBCC</v>
+      </c>
+      <c r="I38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="3"/>
+        <v>BBCCB</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="4"/>
+        <v>BBCCBB</v>
+      </c>
+    </row>
+    <row r="39" spans="8:12">
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>CBCC</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="3"/>
+        <v>CBCCB</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="4"/>
+        <v>CBCCBB</v>
+      </c>
+    </row>
+    <row r="40" spans="8:12">
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>DBCC</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="3"/>
+        <v>DBCCB</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="4"/>
+        <v>DBCCBB</v>
+      </c>
+    </row>
+    <row r="41" spans="8:12">
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>BCCC</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="3"/>
+        <v>BCCCB</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="4"/>
+        <v>BCCCBB</v>
+      </c>
+    </row>
+    <row r="42" spans="8:12">
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>CCCC</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="3"/>
+        <v>CCCCB</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="4"/>
+        <v>CCCCBB</v>
+      </c>
+    </row>
+    <row r="43" spans="8:12">
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>DCCC</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="3"/>
+        <v>DCCCB</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="4"/>
+        <v>DCCCBB</v>
+      </c>
+    </row>
+    <row r="44" spans="8:12">
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>BDCC</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="3"/>
+        <v>BDCCB</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="4"/>
+        <v>BDCCBB</v>
+      </c>
+    </row>
+    <row r="45" spans="8:12">
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>CDCC</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="3"/>
+        <v>CDCCB</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="4"/>
+        <v>CDCCBB</v>
+      </c>
+    </row>
+    <row r="46" spans="8:12">
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>DDCC</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="3"/>
+        <v>DDCCB</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="4"/>
+        <v>DDCCBB</v>
+      </c>
+    </row>
+    <row r="47" spans="8:12">
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>BBDC</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="3"/>
+        <v>BBDCB</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="4"/>
+        <v>BBDCBB</v>
+      </c>
+    </row>
+    <row r="48" spans="8:12">
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>CBDC</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="3"/>
+        <v>CBDCB</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="4"/>
+        <v>CBDCBB</v>
+      </c>
+    </row>
+    <row r="49" spans="8:12">
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>DBDC</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="3"/>
+        <v>DBDCB</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="4"/>
+        <v>DBDCBB</v>
+      </c>
+    </row>
+    <row r="50" spans="8:12">
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>BCDC</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="3"/>
+        <v>BCDCB</v>
+      </c>
+      <c r="K50" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="4"/>
+        <v>BCDCBB</v>
+      </c>
+    </row>
+    <row r="51" spans="8:12">
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>CCDC</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="3"/>
+        <v>CCDCB</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="4"/>
+        <v>CCDCBB</v>
+      </c>
+    </row>
+    <row r="52" spans="8:12">
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>DCDC</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="3"/>
+        <v>DCDCB</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="4"/>
+        <v>DCDCBB</v>
+      </c>
+    </row>
+    <row r="53" spans="8:12">
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>BDDC</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="3"/>
+        <v>BDDCB</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="4"/>
+        <v>BDDCBB</v>
+      </c>
+    </row>
+    <row r="54" spans="8:12">
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>CDDC</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="3"/>
+        <v>CDDCB</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="4"/>
+        <v>CDDCBB</v>
+      </c>
+    </row>
+    <row r="55" spans="8:12">
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>DDDC</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="3"/>
+        <v>DDDCB</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="4"/>
+        <v>DDDCBB</v>
+      </c>
+    </row>
+    <row r="56" spans="8:12">
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>BBBD</v>
+      </c>
+      <c r="I56" t="s">
+        <v>128</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="3"/>
+        <v>BBBDB</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="4"/>
+        <v>BBBDBB</v>
+      </c>
+    </row>
+    <row r="57" spans="8:12">
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v>CBBD</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="3"/>
+        <v>CBBDB</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="4"/>
+        <v>CBBDBB</v>
+      </c>
+    </row>
+    <row r="58" spans="8:12">
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>DBBD</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="3"/>
+        <v>DBBDB</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="4"/>
+        <v>DBBDBB</v>
+      </c>
+    </row>
+    <row r="59" spans="8:12">
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>BCBD</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="3"/>
+        <v>BCBDB</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="4"/>
+        <v>BCBDBB</v>
+      </c>
+    </row>
+    <row r="60" spans="8:12">
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v>CCBD</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="3"/>
+        <v>CCBDB</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="4"/>
+        <v>CCBDBB</v>
+      </c>
+    </row>
+    <row r="61" spans="8:12">
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
+        <v>DCBD</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="3"/>
+        <v>DCBDB</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="4"/>
+        <v>DCBDBB</v>
+      </c>
+    </row>
+    <row r="62" spans="8:12">
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
+        <v>BDBD</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="3"/>
+        <v>BDBDB</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="4"/>
+        <v>BDBDBB</v>
+      </c>
+    </row>
+    <row r="63" spans="8:12">
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
+        <v>CDBD</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="3"/>
+        <v>CDBDB</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="4"/>
+        <v>CDBDBB</v>
+      </c>
+    </row>
+    <row r="64" spans="8:12">
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
+        <v>DDBD</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="3"/>
+        <v>DDBDB</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="4"/>
+        <v>DDBDBB</v>
+      </c>
+    </row>
+    <row r="65" spans="8:12">
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
+        <v>BBCD</v>
+      </c>
+      <c r="I65" t="s">
+        <v>84</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="3"/>
+        <v>BBCDB</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="4"/>
+        <v>BBCDBB</v>
+      </c>
+    </row>
+    <row r="66" spans="8:12">
+      <c r="H66" t="str">
+        <f t="shared" si="2"/>
+        <v>CBCD</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="3"/>
+        <v>CBCDB</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="4"/>
+        <v>CBCDBB</v>
+      </c>
+    </row>
+    <row r="67" spans="8:12">
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H82" si="5">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)), IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)) )</f>
+        <v>DBCD</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J130" si="6">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)) )</f>
+        <v>DBCDB</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L130" si="7">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>DBCDBB</v>
+      </c>
+    </row>
+    <row r="68" spans="8:12">
+      <c r="H68" t="str">
+        <f t="shared" si="5"/>
+        <v>BCCD</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="6"/>
+        <v>BCCDB</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="7"/>
+        <v>BCCDBB</v>
+      </c>
+    </row>
+    <row r="69" spans="8:12">
+      <c r="H69" t="str">
+        <f t="shared" si="5"/>
+        <v>CCCD</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="6"/>
+        <v>CCCDB</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="7"/>
+        <v>CCCDBB</v>
+      </c>
+    </row>
+    <row r="70" spans="8:12">
+      <c r="H70" t="str">
+        <f t="shared" si="5"/>
+        <v>DCCD</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="6"/>
+        <v>DCCDB</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="7"/>
+        <v>DCCDBB</v>
+      </c>
+    </row>
+    <row r="71" spans="8:12">
+      <c r="H71" t="str">
+        <f t="shared" si="5"/>
+        <v>BDCD</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="6"/>
+        <v>BDCDB</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="7"/>
+        <v>BDCDBB</v>
+      </c>
+    </row>
+    <row r="72" spans="8:12">
+      <c r="H72" t="str">
+        <f t="shared" si="5"/>
+        <v>CDCD</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="6"/>
+        <v>CDCDB</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="7"/>
+        <v>CDCDBB</v>
+      </c>
+    </row>
+    <row r="73" spans="8:12">
+      <c r="H73" t="str">
+        <f t="shared" si="5"/>
+        <v>DDCD</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="6"/>
+        <v>DDCDB</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="7"/>
+        <v>DDCDBB</v>
+      </c>
+    </row>
+    <row r="74" spans="8:12">
+      <c r="H74" t="str">
+        <f t="shared" si="5"/>
+        <v>BBDD</v>
+      </c>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="6"/>
+        <v>BBDDB</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="7"/>
+        <v>BBDDBB</v>
+      </c>
+    </row>
+    <row r="75" spans="8:12">
+      <c r="H75" t="str">
+        <f t="shared" si="5"/>
+        <v>CBDD</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="6"/>
+        <v>CBDDB</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="7"/>
+        <v>CBDDBB</v>
+      </c>
+    </row>
+    <row r="76" spans="8:12">
+      <c r="H76" t="str">
+        <f t="shared" si="5"/>
+        <v>DBDD</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="6"/>
+        <v>DBDDB</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="7"/>
+        <v>DBDDBB</v>
+      </c>
+    </row>
+    <row r="77" spans="8:12">
+      <c r="H77" t="str">
+        <f t="shared" si="5"/>
+        <v>BCDD</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="6"/>
+        <v>BCDDB</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="7"/>
+        <v>BCDDBB</v>
+      </c>
+    </row>
+    <row r="78" spans="8:12">
+      <c r="H78" t="str">
+        <f t="shared" si="5"/>
+        <v>CCDD</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="6"/>
+        <v>CCDDB</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="7"/>
+        <v>CCDDBB</v>
+      </c>
+    </row>
+    <row r="79" spans="8:12">
+      <c r="H79" t="str">
+        <f t="shared" si="5"/>
+        <v>DCDD</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="6"/>
+        <v>DCDDB</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="7"/>
+        <v>DCDDBB</v>
+      </c>
+    </row>
+    <row r="80" spans="8:12">
+      <c r="H80" t="str">
+        <f t="shared" si="5"/>
+        <v>BDDD</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="6"/>
+        <v>BDDDB</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="7"/>
+        <v>BDDDBB</v>
+      </c>
+    </row>
+    <row r="81" spans="8:12">
+      <c r="H81" t="str">
+        <f t="shared" si="5"/>
+        <v>CDDD</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="6"/>
+        <v>CDDDB</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="7"/>
+        <v>CDDDBB</v>
+      </c>
+    </row>
+    <row r="82" spans="8:12">
+      <c r="H82" t="str">
+        <f t="shared" si="5"/>
+        <v>DDDD</v>
+      </c>
+      <c r="I82" t="s">
+        <v>62</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="6"/>
+        <v>DDDDB</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="7"/>
+        <v>DDDDBB</v>
+      </c>
+    </row>
+    <row r="83" spans="8:12">
+      <c r="J83" t="str">
+        <f t="shared" si="6"/>
+        <v>BBBBC</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="7"/>
+        <v>BBBBCB</v>
+      </c>
+    </row>
+    <row r="84" spans="8:12">
+      <c r="J84" t="str">
+        <f t="shared" si="6"/>
+        <v>CBBBC</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="7"/>
+        <v>CBBBCB</v>
+      </c>
+    </row>
+    <row r="85" spans="8:12">
+      <c r="J85" t="str">
+        <f t="shared" si="6"/>
+        <v>DBBBC</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="7"/>
+        <v>DBBBCB</v>
+      </c>
+    </row>
+    <row r="86" spans="8:12">
+      <c r="J86" t="str">
+        <f t="shared" si="6"/>
+        <v>BCBBC</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="7"/>
+        <v>BCBBCB</v>
+      </c>
+    </row>
+    <row r="87" spans="8:12">
+      <c r="J87" t="str">
+        <f t="shared" si="6"/>
+        <v>CCBBC</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="7"/>
+        <v>CCBBCB</v>
+      </c>
+    </row>
+    <row r="88" spans="8:12">
+      <c r="J88" t="str">
+        <f t="shared" si="6"/>
+        <v>DCBBC</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="7"/>
+        <v>DCBBCB</v>
+      </c>
+    </row>
+    <row r="89" spans="8:12">
+      <c r="J89" t="str">
+        <f t="shared" si="6"/>
+        <v>BDBBC</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="7"/>
+        <v>BDBBCB</v>
+      </c>
+    </row>
+    <row r="90" spans="8:12">
+      <c r="J90" t="str">
+        <f t="shared" si="6"/>
+        <v>CDBBC</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="7"/>
+        <v>CDBBCB</v>
+      </c>
+    </row>
+    <row r="91" spans="8:12">
+      <c r="J91" t="str">
+        <f t="shared" si="6"/>
+        <v>DDBBC</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="7"/>
+        <v>DDBBCB</v>
+      </c>
+    </row>
+    <row r="92" spans="8:12">
+      <c r="J92" t="str">
+        <f t="shared" si="6"/>
+        <v>BBCBC</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="7"/>
+        <v>BBCBCB</v>
+      </c>
+    </row>
+    <row r="93" spans="8:12">
+      <c r="J93" t="str">
+        <f t="shared" si="6"/>
+        <v>CBCBC</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="7"/>
+        <v>CBCBCB</v>
+      </c>
+    </row>
+    <row r="94" spans="8:12">
+      <c r="J94" t="str">
+        <f t="shared" si="6"/>
+        <v>DBCBC</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="7"/>
+        <v>DBCBCB</v>
+      </c>
+    </row>
+    <row r="95" spans="8:12">
+      <c r="J95" t="str">
+        <f t="shared" si="6"/>
+        <v>BCCBC</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="7"/>
+        <v>BCCBCB</v>
+      </c>
+    </row>
+    <row r="96" spans="8:12">
+      <c r="J96" t="str">
+        <f t="shared" si="6"/>
+        <v>CCCBC</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="7"/>
+        <v>CCCBCB</v>
+      </c>
+    </row>
+    <row r="97" spans="10:12">
+      <c r="J97" t="str">
+        <f t="shared" si="6"/>
+        <v>DCCBC</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="7"/>
+        <v>DCCBCB</v>
+      </c>
+    </row>
+    <row r="98" spans="10:12">
+      <c r="J98" t="str">
+        <f t="shared" si="6"/>
+        <v>BDCBC</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="7"/>
+        <v>BDCBCB</v>
+      </c>
+    </row>
+    <row r="99" spans="10:12">
+      <c r="J99" t="str">
+        <f t="shared" si="6"/>
+        <v>CDCBC</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="7"/>
+        <v>CDCBCB</v>
+      </c>
+    </row>
+    <row r="100" spans="10:12">
+      <c r="J100" t="str">
+        <f t="shared" si="6"/>
+        <v>DDCBC</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="7"/>
+        <v>DDCBCB</v>
+      </c>
+    </row>
+    <row r="101" spans="10:12">
+      <c r="J101" t="str">
+        <f t="shared" si="6"/>
+        <v>BBDBC</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="7"/>
+        <v>BBDBCB</v>
+      </c>
+    </row>
+    <row r="102" spans="10:12">
+      <c r="J102" t="str">
+        <f t="shared" si="6"/>
+        <v>CBDBC</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="7"/>
+        <v>CBDBCB</v>
+      </c>
+    </row>
+    <row r="103" spans="10:12">
+      <c r="J103" t="str">
+        <f t="shared" si="6"/>
+        <v>DBDBC</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="7"/>
+        <v>DBDBCB</v>
+      </c>
+    </row>
+    <row r="104" spans="10:12">
+      <c r="J104" t="str">
+        <f t="shared" si="6"/>
+        <v>BCDBC</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="7"/>
+        <v>BCDBCB</v>
+      </c>
+    </row>
+    <row r="105" spans="10:12">
+      <c r="J105" t="str">
+        <f t="shared" si="6"/>
+        <v>CCDBC</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="7"/>
+        <v>CCDBCB</v>
+      </c>
+    </row>
+    <row r="106" spans="10:12">
+      <c r="J106" t="str">
+        <f t="shared" si="6"/>
+        <v>DCDBC</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="7"/>
+        <v>DCDBCB</v>
+      </c>
+    </row>
+    <row r="107" spans="10:12">
+      <c r="J107" t="str">
+        <f t="shared" si="6"/>
+        <v>BDDBC</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="7"/>
+        <v>BDDBCB</v>
+      </c>
+    </row>
+    <row r="108" spans="10:12">
+      <c r="J108" t="str">
+        <f t="shared" si="6"/>
+        <v>CDDBC</v>
+      </c>
+      <c r="L108" t="str">
+        <f t="shared" si="7"/>
+        <v>CDDBCB</v>
+      </c>
+    </row>
+    <row r="109" spans="10:12">
+      <c r="J109" t="str">
+        <f t="shared" si="6"/>
+        <v>DDDBC</v>
+      </c>
+      <c r="L109" t="str">
+        <f t="shared" si="7"/>
+        <v>DDDBCB</v>
+      </c>
+    </row>
+    <row r="110" spans="10:12">
+      <c r="J110" t="str">
+        <f t="shared" si="6"/>
+        <v>BBBCC</v>
+      </c>
+      <c r="L110" t="str">
+        <f t="shared" si="7"/>
+        <v>BBBCCB</v>
+      </c>
+    </row>
+    <row r="111" spans="10:12">
+      <c r="J111" t="str">
+        <f t="shared" si="6"/>
+        <v>CBBCC</v>
+      </c>
+      <c r="L111" t="str">
+        <f t="shared" si="7"/>
+        <v>CBBCCB</v>
+      </c>
+    </row>
+    <row r="112" spans="10:12">
+      <c r="J112" t="str">
+        <f t="shared" si="6"/>
+        <v>DBBCC</v>
+      </c>
+      <c r="L112" t="str">
+        <f t="shared" si="7"/>
+        <v>DBBCCB</v>
+      </c>
+    </row>
+    <row r="113" spans="10:12">
+      <c r="J113" t="str">
+        <f t="shared" si="6"/>
+        <v>BCBCC</v>
+      </c>
+      <c r="L113" t="str">
+        <f t="shared" si="7"/>
+        <v>BCBCCB</v>
+      </c>
+    </row>
+    <row r="114" spans="10:12">
+      <c r="J114" t="str">
+        <f t="shared" si="6"/>
+        <v>CCBCC</v>
+      </c>
+      <c r="L114" t="str">
+        <f t="shared" si="7"/>
+        <v>CCBCCB</v>
+      </c>
+    </row>
+    <row r="115" spans="10:12">
+      <c r="J115" t="str">
+        <f t="shared" si="6"/>
+        <v>DCBCC</v>
+      </c>
+      <c r="L115" t="str">
+        <f t="shared" si="7"/>
+        <v>DCBCCB</v>
+      </c>
+    </row>
+    <row r="116" spans="10:12">
+      <c r="J116" t="str">
+        <f t="shared" si="6"/>
+        <v>BDBCC</v>
+      </c>
+      <c r="L116" t="str">
+        <f t="shared" si="7"/>
+        <v>BDBCCB</v>
+      </c>
+    </row>
+    <row r="117" spans="10:12">
+      <c r="J117" t="str">
+        <f t="shared" si="6"/>
+        <v>CDBCC</v>
+      </c>
+      <c r="L117" t="str">
+        <f t="shared" si="7"/>
+        <v>CDBCCB</v>
+      </c>
+    </row>
+    <row r="118" spans="10:12">
+      <c r="J118" t="str">
+        <f t="shared" si="6"/>
+        <v>DDBCC</v>
+      </c>
+      <c r="L118" t="str">
+        <f t="shared" si="7"/>
+        <v>DDBCCB</v>
+      </c>
+    </row>
+    <row r="119" spans="10:12">
+      <c r="J119" t="str">
+        <f t="shared" si="6"/>
+        <v>BBCCC</v>
+      </c>
+      <c r="L119" t="str">
+        <f t="shared" si="7"/>
+        <v>BBCCCB</v>
+      </c>
+    </row>
+    <row r="120" spans="10:12">
+      <c r="J120" t="str">
+        <f t="shared" si="6"/>
+        <v>CBCCC</v>
+      </c>
+      <c r="L120" t="str">
+        <f t="shared" si="7"/>
+        <v>CBCCCB</v>
+      </c>
+    </row>
+    <row r="121" spans="10:12">
+      <c r="J121" t="str">
+        <f t="shared" si="6"/>
+        <v>DBCCC</v>
+      </c>
+      <c r="L121" t="str">
+        <f t="shared" si="7"/>
+        <v>DBCCCB</v>
+      </c>
+    </row>
+    <row r="122" spans="10:12">
+      <c r="J122" t="str">
+        <f t="shared" si="6"/>
+        <v>BCCCC</v>
+      </c>
+      <c r="L122" t="str">
+        <f t="shared" si="7"/>
+        <v>BCCCCB</v>
+      </c>
+    </row>
+    <row r="123" spans="10:12">
+      <c r="J123" t="str">
+        <f t="shared" si="6"/>
+        <v>CCCCC</v>
+      </c>
+      <c r="L123" t="str">
+        <f t="shared" si="7"/>
+        <v>CCCCCB</v>
+      </c>
+    </row>
+    <row r="124" spans="10:12">
+      <c r="J124" t="str">
+        <f t="shared" si="6"/>
+        <v>DCCCC</v>
+      </c>
+      <c r="L124" t="str">
+        <f t="shared" si="7"/>
+        <v>DCCCCB</v>
+      </c>
+    </row>
+    <row r="125" spans="10:12">
+      <c r="J125" t="str">
+        <f t="shared" si="6"/>
+        <v>BDCCC</v>
+      </c>
+      <c r="L125" t="str">
+        <f t="shared" si="7"/>
+        <v>BDCCCB</v>
+      </c>
+    </row>
+    <row r="126" spans="10:12">
+      <c r="J126" t="str">
+        <f t="shared" si="6"/>
+        <v>CDCCC</v>
+      </c>
+      <c r="L126" t="str">
+        <f t="shared" si="7"/>
+        <v>CDCCCB</v>
+      </c>
+    </row>
+    <row r="127" spans="10:12">
+      <c r="J127" t="str">
+        <f t="shared" si="6"/>
+        <v>DDCCC</v>
+      </c>
+      <c r="L127" t="str">
+        <f t="shared" si="7"/>
+        <v>DDCCCB</v>
+      </c>
+    </row>
+    <row r="128" spans="10:12">
+      <c r="J128" t="str">
+        <f t="shared" si="6"/>
+        <v>BBDCC</v>
+      </c>
+      <c r="L128" t="str">
+        <f t="shared" si="7"/>
+        <v>BBDCCB</v>
+      </c>
+    </row>
+    <row r="129" spans="10:12">
+      <c r="J129" t="str">
+        <f t="shared" si="6"/>
+        <v>CBDCC</v>
+      </c>
+      <c r="L129" t="str">
+        <f t="shared" si="7"/>
+        <v>CBDCCB</v>
+      </c>
+    </row>
+    <row r="130" spans="10:12">
+      <c r="J130" t="str">
+        <f t="shared" si="6"/>
+        <v>DBDCC</v>
+      </c>
+      <c r="L130" t="str">
+        <f t="shared" si="7"/>
+        <v>DBDCCB</v>
+      </c>
+    </row>
+    <row r="131" spans="10:12">
+      <c r="J131" t="str">
+        <f t="shared" ref="J131:J194" si="8">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)) )</f>
+        <v>BCDCC</v>
+      </c>
+      <c r="L131" t="str">
+        <f t="shared" ref="L131:L194" si="9">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>BCDCCB</v>
+      </c>
+    </row>
+    <row r="132" spans="10:12">
+      <c r="J132" t="str">
+        <f t="shared" si="8"/>
+        <v>CCDCC</v>
+      </c>
+      <c r="L132" t="str">
+        <f t="shared" si="9"/>
+        <v>CCDCCB</v>
+      </c>
+    </row>
+    <row r="133" spans="10:12">
+      <c r="J133" t="str">
+        <f t="shared" si="8"/>
+        <v>DCDCC</v>
+      </c>
+      <c r="L133" t="str">
+        <f t="shared" si="9"/>
+        <v>DCDCCB</v>
+      </c>
+    </row>
+    <row r="134" spans="10:12">
+      <c r="J134" t="str">
+        <f t="shared" si="8"/>
+        <v>BDDCC</v>
+      </c>
+      <c r="L134" t="str">
+        <f t="shared" si="9"/>
+        <v>BDDCCB</v>
+      </c>
+    </row>
+    <row r="135" spans="10:12">
+      <c r="J135" t="str">
+        <f t="shared" si="8"/>
+        <v>CDDCC</v>
+      </c>
+      <c r="L135" t="str">
+        <f t="shared" si="9"/>
+        <v>CDDCCB</v>
+      </c>
+    </row>
+    <row r="136" spans="10:12">
+      <c r="J136" t="str">
+        <f t="shared" si="8"/>
+        <v>DDDCC</v>
+      </c>
+      <c r="L136" t="str">
+        <f t="shared" si="9"/>
+        <v>DDDCCB</v>
+      </c>
+    </row>
+    <row r="137" spans="10:12">
+      <c r="J137" t="str">
+        <f t="shared" si="8"/>
+        <v>BBBDC</v>
+      </c>
+      <c r="L137" t="str">
+        <f t="shared" si="9"/>
+        <v>BBBDCB</v>
+      </c>
+    </row>
+    <row r="138" spans="10:12">
+      <c r="J138" t="str">
+        <f t="shared" si="8"/>
+        <v>CBBDC</v>
+      </c>
+      <c r="L138" t="str">
+        <f t="shared" si="9"/>
+        <v>CBBDCB</v>
+      </c>
+    </row>
+    <row r="139" spans="10:12">
+      <c r="J139" t="str">
+        <f t="shared" si="8"/>
+        <v>DBBDC</v>
+      </c>
+      <c r="L139" t="str">
+        <f t="shared" si="9"/>
+        <v>DBBDCB</v>
+      </c>
+    </row>
+    <row r="140" spans="10:12">
+      <c r="J140" t="str">
+        <f t="shared" si="8"/>
+        <v>BCBDC</v>
+      </c>
+      <c r="L140" t="str">
+        <f t="shared" si="9"/>
+        <v>BCBDCB</v>
+      </c>
+    </row>
+    <row r="141" spans="10:12">
+      <c r="J141" t="str">
+        <f t="shared" si="8"/>
+        <v>CCBDC</v>
+      </c>
+      <c r="L141" t="str">
+        <f t="shared" si="9"/>
+        <v>CCBDCB</v>
+      </c>
+    </row>
+    <row r="142" spans="10:12">
+      <c r="J142" t="str">
+        <f t="shared" si="8"/>
+        <v>DCBDC</v>
+      </c>
+      <c r="L142" t="str">
+        <f t="shared" si="9"/>
+        <v>DCBDCB</v>
+      </c>
+    </row>
+    <row r="143" spans="10:12">
+      <c r="J143" t="str">
+        <f t="shared" si="8"/>
+        <v>BDBDC</v>
+      </c>
+      <c r="L143" t="str">
+        <f t="shared" si="9"/>
+        <v>BDBDCB</v>
+      </c>
+    </row>
+    <row r="144" spans="10:12">
+      <c r="J144" t="str">
+        <f t="shared" si="8"/>
+        <v>CDBDC</v>
+      </c>
+      <c r="L144" t="str">
+        <f t="shared" si="9"/>
+        <v>CDBDCB</v>
+      </c>
+    </row>
+    <row r="145" spans="10:12">
+      <c r="J145" t="str">
+        <f t="shared" si="8"/>
+        <v>DDBDC</v>
+      </c>
+      <c r="L145" t="str">
+        <f t="shared" si="9"/>
+        <v>DDBDCB</v>
+      </c>
+    </row>
+    <row r="146" spans="10:12">
+      <c r="J146" t="str">
+        <f t="shared" si="8"/>
+        <v>BBCDC</v>
+      </c>
+      <c r="L146" t="str">
+        <f t="shared" si="9"/>
+        <v>BBCDCB</v>
+      </c>
+    </row>
+    <row r="147" spans="10:12">
+      <c r="J147" t="str">
+        <f t="shared" si="8"/>
+        <v>CBCDC</v>
+      </c>
+      <c r="L147" t="str">
+        <f t="shared" si="9"/>
+        <v>CBCDCB</v>
+      </c>
+    </row>
+    <row r="148" spans="10:12">
+      <c r="J148" t="str">
+        <f t="shared" si="8"/>
+        <v>DBCDC</v>
+      </c>
+      <c r="L148" t="str">
+        <f t="shared" si="9"/>
+        <v>DBCDCB</v>
+      </c>
+    </row>
+    <row r="149" spans="10:12">
+      <c r="J149" t="str">
+        <f t="shared" si="8"/>
+        <v>BCCDC</v>
+      </c>
+      <c r="L149" t="str">
+        <f t="shared" si="9"/>
+        <v>BCCDCB</v>
+      </c>
+    </row>
+    <row r="150" spans="10:12">
+      <c r="J150" t="str">
+        <f t="shared" si="8"/>
+        <v>CCCDC</v>
+      </c>
+      <c r="L150" t="str">
+        <f t="shared" si="9"/>
+        <v>CCCDCB</v>
+      </c>
+    </row>
+    <row r="151" spans="10:12">
+      <c r="J151" t="str">
+        <f t="shared" si="8"/>
+        <v>DCCDC</v>
+      </c>
+      <c r="L151" t="str">
+        <f t="shared" si="9"/>
+        <v>DCCDCB</v>
+      </c>
+    </row>
+    <row r="152" spans="10:12">
+      <c r="J152" t="str">
+        <f t="shared" si="8"/>
+        <v>BDCDC</v>
+      </c>
+      <c r="L152" t="str">
+        <f t="shared" si="9"/>
+        <v>BDCDCB</v>
+      </c>
+    </row>
+    <row r="153" spans="10:12">
+      <c r="J153" t="str">
+        <f t="shared" si="8"/>
+        <v>CDCDC</v>
+      </c>
+      <c r="L153" t="str">
+        <f t="shared" si="9"/>
+        <v>CDCDCB</v>
+      </c>
+    </row>
+    <row r="154" spans="10:12">
+      <c r="J154" t="str">
+        <f t="shared" si="8"/>
+        <v>DDCDC</v>
+      </c>
+      <c r="L154" t="str">
+        <f t="shared" si="9"/>
+        <v>DDCDCB</v>
+      </c>
+    </row>
+    <row r="155" spans="10:12">
+      <c r="J155" t="str">
+        <f t="shared" si="8"/>
+        <v>BBDDC</v>
+      </c>
+      <c r="L155" t="str">
+        <f t="shared" si="9"/>
+        <v>BBDDCB</v>
+      </c>
+    </row>
+    <row r="156" spans="10:12">
+      <c r="J156" t="str">
+        <f t="shared" si="8"/>
+        <v>CBDDC</v>
+      </c>
+      <c r="L156" t="str">
+        <f t="shared" si="9"/>
+        <v>CBDDCB</v>
+      </c>
+    </row>
+    <row r="157" spans="10:12">
+      <c r="J157" t="str">
+        <f t="shared" si="8"/>
+        <v>DBDDC</v>
+      </c>
+      <c r="L157" t="str">
+        <f t="shared" si="9"/>
+        <v>DBDDCB</v>
+      </c>
+    </row>
+    <row r="158" spans="10:12">
+      <c r="J158" t="str">
+        <f t="shared" si="8"/>
+        <v>BCDDC</v>
+      </c>
+      <c r="L158" t="str">
+        <f t="shared" si="9"/>
+        <v>BCDDCB</v>
+      </c>
+    </row>
+    <row r="159" spans="10:12">
+      <c r="J159" t="str">
+        <f t="shared" si="8"/>
+        <v>CCDDC</v>
+      </c>
+      <c r="L159" t="str">
+        <f t="shared" si="9"/>
+        <v>CCDDCB</v>
+      </c>
+    </row>
+    <row r="160" spans="10:12">
+      <c r="J160" t="str">
+        <f t="shared" si="8"/>
+        <v>DCDDC</v>
+      </c>
+      <c r="L160" t="str">
+        <f t="shared" si="9"/>
+        <v>DCDDCB</v>
+      </c>
+    </row>
+    <row r="161" spans="10:12">
+      <c r="J161" t="str">
+        <f t="shared" si="8"/>
+        <v>BDDDC</v>
+      </c>
+      <c r="L161" t="str">
+        <f t="shared" si="9"/>
+        <v>BDDDCB</v>
+      </c>
+    </row>
+    <row r="162" spans="10:12">
+      <c r="J162" t="str">
+        <f t="shared" si="8"/>
+        <v>CDDDC</v>
+      </c>
+      <c r="L162" t="str">
+        <f t="shared" si="9"/>
+        <v>CDDDCB</v>
+      </c>
+    </row>
+    <row r="163" spans="10:12">
+      <c r="J163" t="str">
+        <f t="shared" si="8"/>
+        <v>DDDDC</v>
+      </c>
+      <c r="L163" t="str">
+        <f t="shared" si="9"/>
+        <v>DDDDCB</v>
+      </c>
+    </row>
+    <row r="164" spans="10:12">
+      <c r="J164" t="str">
+        <f t="shared" si="8"/>
+        <v>BBBBD</v>
+      </c>
+      <c r="L164" t="str">
+        <f t="shared" si="9"/>
+        <v>BBBBDB</v>
+      </c>
+    </row>
+    <row r="165" spans="10:12">
+      <c r="J165" t="str">
+        <f t="shared" si="8"/>
+        <v>CBBBD</v>
+      </c>
+      <c r="L165" t="str">
+        <f t="shared" si="9"/>
+        <v>CBBBDB</v>
+      </c>
+    </row>
+    <row r="166" spans="10:12">
+      <c r="J166" t="str">
+        <f t="shared" si="8"/>
+        <v>DBBBD</v>
+      </c>
+      <c r="L166" t="str">
+        <f t="shared" si="9"/>
+        <v>DBBBDB</v>
+      </c>
+    </row>
+    <row r="167" spans="10:12">
+      <c r="J167" t="str">
+        <f t="shared" si="8"/>
+        <v>BCBBD</v>
+      </c>
+      <c r="L167" t="str">
+        <f t="shared" si="9"/>
+        <v>BCBBDB</v>
+      </c>
+    </row>
+    <row r="168" spans="10:12">
+      <c r="J168" t="str">
+        <f t="shared" si="8"/>
+        <v>CCBBD</v>
+      </c>
+      <c r="L168" t="str">
+        <f t="shared" si="9"/>
+        <v>CCBBDB</v>
+      </c>
+    </row>
+    <row r="169" spans="10:12">
+      <c r="J169" t="str">
+        <f t="shared" si="8"/>
+        <v>DCBBD</v>
+      </c>
+      <c r="L169" t="str">
+        <f t="shared" si="9"/>
+        <v>DCBBDB</v>
+      </c>
+    </row>
+    <row r="170" spans="10:12">
+      <c r="J170" t="str">
+        <f t="shared" si="8"/>
+        <v>BDBBD</v>
+      </c>
+      <c r="L170" t="str">
+        <f t="shared" si="9"/>
+        <v>BDBBDB</v>
+      </c>
+    </row>
+    <row r="171" spans="10:12">
+      <c r="J171" t="str">
+        <f t="shared" si="8"/>
+        <v>CDBBD</v>
+      </c>
+      <c r="L171" t="str">
+        <f t="shared" si="9"/>
+        <v>CDBBDB</v>
+      </c>
+    </row>
+    <row r="172" spans="10:12">
+      <c r="J172" t="str">
+        <f t="shared" si="8"/>
+        <v>DDBBD</v>
+      </c>
+      <c r="L172" t="str">
+        <f t="shared" si="9"/>
+        <v>DDBBDB</v>
+      </c>
+    </row>
+    <row r="173" spans="10:12">
+      <c r="J173" t="str">
+        <f t="shared" si="8"/>
+        <v>BBCBD</v>
+      </c>
+      <c r="L173" t="str">
+        <f t="shared" si="9"/>
+        <v>BBCBDB</v>
+      </c>
+    </row>
+    <row r="174" spans="10:12">
+      <c r="J174" t="str">
+        <f t="shared" si="8"/>
+        <v>CBCBD</v>
+      </c>
+      <c r="L174" t="str">
+        <f t="shared" si="9"/>
+        <v>CBCBDB</v>
+      </c>
+    </row>
+    <row r="175" spans="10:12">
+      <c r="J175" t="str">
+        <f t="shared" si="8"/>
+        <v>DBCBD</v>
+      </c>
+      <c r="L175" t="str">
+        <f t="shared" si="9"/>
+        <v>DBCBDB</v>
+      </c>
+    </row>
+    <row r="176" spans="10:12">
+      <c r="J176" t="str">
+        <f t="shared" si="8"/>
+        <v>BCCBD</v>
+      </c>
+      <c r="L176" t="str">
+        <f t="shared" si="9"/>
+        <v>BCCBDB</v>
+      </c>
+    </row>
+    <row r="177" spans="10:12">
+      <c r="J177" t="str">
+        <f t="shared" si="8"/>
+        <v>CCCBD</v>
+      </c>
+      <c r="L177" t="str">
+        <f t="shared" si="9"/>
+        <v>CCCBDB</v>
+      </c>
+    </row>
+    <row r="178" spans="10:12">
+      <c r="J178" t="str">
+        <f t="shared" si="8"/>
+        <v>DCCBD</v>
+      </c>
+      <c r="L178" t="str">
+        <f t="shared" si="9"/>
+        <v>DCCBDB</v>
+      </c>
+    </row>
+    <row r="179" spans="10:12">
+      <c r="J179" t="str">
+        <f t="shared" si="8"/>
+        <v>BDCBD</v>
+      </c>
+      <c r="L179" t="str">
+        <f t="shared" si="9"/>
+        <v>BDCBDB</v>
+      </c>
+    </row>
+    <row r="180" spans="10:12">
+      <c r="J180" t="str">
+        <f t="shared" si="8"/>
+        <v>CDCBD</v>
+      </c>
+      <c r="L180" t="str">
+        <f t="shared" si="9"/>
+        <v>CDCBDB</v>
+      </c>
+    </row>
+    <row r="181" spans="10:12">
+      <c r="J181" t="str">
+        <f t="shared" si="8"/>
+        <v>DDCBD</v>
+      </c>
+      <c r="L181" t="str">
+        <f t="shared" si="9"/>
+        <v>DDCBDB</v>
+      </c>
+    </row>
+    <row r="182" spans="10:12">
+      <c r="J182" t="str">
+        <f t="shared" si="8"/>
+        <v>BBDBD</v>
+      </c>
+      <c r="L182" t="str">
+        <f t="shared" si="9"/>
+        <v>BBDBDB</v>
+      </c>
+    </row>
+    <row r="183" spans="10:12">
+      <c r="J183" t="str">
+        <f t="shared" si="8"/>
+        <v>CBDBD</v>
+      </c>
+      <c r="L183" t="str">
+        <f t="shared" si="9"/>
+        <v>CBDBDB</v>
+      </c>
+    </row>
+    <row r="184" spans="10:12">
+      <c r="J184" t="str">
+        <f t="shared" si="8"/>
+        <v>DBDBD</v>
+      </c>
+      <c r="L184" t="str">
+        <f t="shared" si="9"/>
+        <v>DBDBDB</v>
+      </c>
+    </row>
+    <row r="185" spans="10:12">
+      <c r="J185" t="str">
+        <f t="shared" si="8"/>
+        <v>BCDBD</v>
+      </c>
+      <c r="L185" t="str">
+        <f t="shared" si="9"/>
+        <v>BCDBDB</v>
+      </c>
+    </row>
+    <row r="186" spans="10:12">
+      <c r="J186" t="str">
+        <f t="shared" si="8"/>
+        <v>CCDBD</v>
+      </c>
+      <c r="L186" t="str">
+        <f t="shared" si="9"/>
+        <v>CCDBDB</v>
+      </c>
+    </row>
+    <row r="187" spans="10:12">
+      <c r="J187" t="str">
+        <f t="shared" si="8"/>
+        <v>DCDBD</v>
+      </c>
+      <c r="L187" t="str">
+        <f t="shared" si="9"/>
+        <v>DCDBDB</v>
+      </c>
+    </row>
+    <row r="188" spans="10:12">
+      <c r="J188" t="str">
+        <f t="shared" si="8"/>
+        <v>BDDBD</v>
+      </c>
+      <c r="L188" t="str">
+        <f t="shared" si="9"/>
+        <v>BDDBDB</v>
+      </c>
+    </row>
+    <row r="189" spans="10:12">
+      <c r="J189" t="str">
+        <f t="shared" si="8"/>
+        <v>CDDBD</v>
+      </c>
+      <c r="L189" t="str">
+        <f t="shared" si="9"/>
+        <v>CDDBDB</v>
+      </c>
+    </row>
+    <row r="190" spans="10:12">
+      <c r="J190" t="str">
+        <f t="shared" si="8"/>
+        <v>DDDBD</v>
+      </c>
+      <c r="L190" t="str">
+        <f t="shared" si="9"/>
+        <v>DDDBDB</v>
+      </c>
+    </row>
+    <row r="191" spans="10:12">
+      <c r="J191" t="str">
+        <f t="shared" si="8"/>
+        <v>BBBCD</v>
+      </c>
+      <c r="L191" t="str">
+        <f t="shared" si="9"/>
+        <v>BBBCDB</v>
+      </c>
+    </row>
+    <row r="192" spans="10:12">
+      <c r="J192" t="str">
+        <f t="shared" si="8"/>
+        <v>CBBCD</v>
+      </c>
+      <c r="L192" t="str">
+        <f t="shared" si="9"/>
+        <v>CBBCDB</v>
+      </c>
+    </row>
+    <row r="193" spans="10:12">
+      <c r="J193" t="str">
+        <f t="shared" si="8"/>
+        <v>DBBCD</v>
+      </c>
+      <c r="L193" t="str">
+        <f t="shared" si="9"/>
+        <v>DBBCDB</v>
+      </c>
+    </row>
+    <row r="194" spans="10:12">
+      <c r="J194" t="str">
+        <f t="shared" si="8"/>
+        <v>BCBCD</v>
+      </c>
+      <c r="L194" t="str">
+        <f t="shared" si="9"/>
+        <v>BCBCDB</v>
+      </c>
+    </row>
+    <row r="195" spans="10:12">
+      <c r="J195" t="str">
+        <f t="shared" ref="J195:J244" si="10">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)) )</f>
+        <v>CCBCD</v>
+      </c>
+      <c r="L195" t="str">
+        <f t="shared" ref="L195:L244" si="11">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>CCBCDB</v>
+      </c>
+    </row>
+    <row r="196" spans="10:12">
+      <c r="J196" t="str">
+        <f t="shared" si="10"/>
+        <v>DCBCD</v>
+      </c>
+      <c r="L196" t="str">
+        <f t="shared" si="11"/>
+        <v>DCBCDB</v>
+      </c>
+    </row>
+    <row r="197" spans="10:12">
+      <c r="J197" t="str">
+        <f t="shared" si="10"/>
+        <v>BDBCD</v>
+      </c>
+      <c r="L197" t="str">
+        <f t="shared" si="11"/>
+        <v>BDBCDB</v>
+      </c>
+    </row>
+    <row r="198" spans="10:12">
+      <c r="J198" t="str">
+        <f t="shared" si="10"/>
+        <v>CDBCD</v>
+      </c>
+      <c r="L198" t="str">
+        <f t="shared" si="11"/>
+        <v>CDBCDB</v>
+      </c>
+    </row>
+    <row r="199" spans="10:12">
+      <c r="J199" t="str">
+        <f t="shared" si="10"/>
+        <v>DDBCD</v>
+      </c>
+      <c r="L199" t="str">
+        <f t="shared" si="11"/>
+        <v>DDBCDB</v>
+      </c>
+    </row>
+    <row r="200" spans="10:12">
+      <c r="J200" t="str">
+        <f t="shared" si="10"/>
+        <v>BBCCD</v>
+      </c>
+      <c r="L200" t="str">
+        <f t="shared" si="11"/>
+        <v>BBCCDB</v>
+      </c>
+    </row>
+    <row r="201" spans="10:12">
+      <c r="J201" t="str">
+        <f t="shared" si="10"/>
+        <v>CBCCD</v>
+      </c>
+      <c r="L201" t="str">
+        <f t="shared" si="11"/>
+        <v>CBCCDB</v>
+      </c>
+    </row>
+    <row r="202" spans="10:12">
+      <c r="J202" t="str">
+        <f t="shared" si="10"/>
+        <v>DBCCD</v>
+      </c>
+      <c r="L202" t="str">
+        <f t="shared" si="11"/>
+        <v>DBCCDB</v>
+      </c>
+    </row>
+    <row r="203" spans="10:12">
+      <c r="J203" t="str">
+        <f t="shared" si="10"/>
+        <v>BCCCD</v>
+      </c>
+      <c r="L203" t="str">
+        <f t="shared" si="11"/>
+        <v>BCCCDB</v>
+      </c>
+    </row>
+    <row r="204" spans="10:12">
+      <c r="J204" t="str">
+        <f t="shared" si="10"/>
+        <v>CCCCD</v>
+      </c>
+      <c r="L204" t="str">
+        <f t="shared" si="11"/>
+        <v>CCCCDB</v>
+      </c>
+    </row>
+    <row r="205" spans="10:12">
+      <c r="J205" t="str">
+        <f t="shared" si="10"/>
+        <v>DCCCD</v>
+      </c>
+      <c r="L205" t="str">
+        <f t="shared" si="11"/>
+        <v>DCCCDB</v>
+      </c>
+    </row>
+    <row r="206" spans="10:12">
+      <c r="J206" t="str">
+        <f t="shared" si="10"/>
+        <v>BDCCD</v>
+      </c>
+      <c r="L206" t="str">
+        <f t="shared" si="11"/>
+        <v>BDCCDB</v>
+      </c>
+    </row>
+    <row r="207" spans="10:12">
+      <c r="J207" t="str">
+        <f t="shared" si="10"/>
+        <v>CDCCD</v>
+      </c>
+      <c r="L207" t="str">
+        <f t="shared" si="11"/>
+        <v>CDCCDB</v>
+      </c>
+    </row>
+    <row r="208" spans="10:12">
+      <c r="J208" t="str">
+        <f t="shared" si="10"/>
+        <v>DDCCD</v>
+      </c>
+      <c r="L208" t="str">
+        <f t="shared" si="11"/>
+        <v>DDCCDB</v>
+      </c>
+    </row>
+    <row r="209" spans="10:12">
+      <c r="J209" t="str">
+        <f t="shared" si="10"/>
+        <v>BBDCD</v>
+      </c>
+      <c r="L209" t="str">
+        <f t="shared" si="11"/>
+        <v>BBDCDB</v>
+      </c>
+    </row>
+    <row r="210" spans="10:12">
+      <c r="J210" t="str">
+        <f t="shared" si="10"/>
+        <v>CBDCD</v>
+      </c>
+      <c r="L210" t="str">
+        <f t="shared" si="11"/>
+        <v>CBDCDB</v>
+      </c>
+    </row>
+    <row r="211" spans="10:12">
+      <c r="J211" t="str">
+        <f t="shared" si="10"/>
+        <v>DBDCD</v>
+      </c>
+      <c r="L211" t="str">
+        <f t="shared" si="11"/>
+        <v>DBDCDB</v>
+      </c>
+    </row>
+    <row r="212" spans="10:12">
+      <c r="J212" t="str">
+        <f t="shared" si="10"/>
+        <v>BCDCD</v>
+      </c>
+      <c r="L212" t="str">
+        <f t="shared" si="11"/>
+        <v>BCDCDB</v>
+      </c>
+    </row>
+    <row r="213" spans="10:12">
+      <c r="J213" t="str">
+        <f t="shared" si="10"/>
+        <v>CCDCD</v>
+      </c>
+      <c r="L213" t="str">
+        <f t="shared" si="11"/>
+        <v>CCDCDB</v>
+      </c>
+    </row>
+    <row r="214" spans="10:12">
+      <c r="J214" t="str">
+        <f t="shared" si="10"/>
+        <v>DCDCD</v>
+      </c>
+      <c r="L214" t="str">
+        <f t="shared" si="11"/>
+        <v>DCDCDB</v>
+      </c>
+    </row>
+    <row r="215" spans="10:12">
+      <c r="J215" t="str">
+        <f t="shared" si="10"/>
+        <v>BDDCD</v>
+      </c>
+      <c r="L215" t="str">
+        <f t="shared" si="11"/>
+        <v>BDDCDB</v>
+      </c>
+    </row>
+    <row r="216" spans="10:12">
+      <c r="J216" t="str">
+        <f t="shared" si="10"/>
+        <v>CDDCD</v>
+      </c>
+      <c r="L216" t="str">
+        <f t="shared" si="11"/>
+        <v>CDDCDB</v>
+      </c>
+    </row>
+    <row r="217" spans="10:12">
+      <c r="J217" t="str">
+        <f t="shared" si="10"/>
+        <v>DDDCD</v>
+      </c>
+      <c r="L217" t="str">
+        <f t="shared" si="11"/>
+        <v>DDDCDB</v>
+      </c>
+    </row>
+    <row r="218" spans="10:12">
+      <c r="J218" t="str">
+        <f t="shared" si="10"/>
+        <v>BBBDD</v>
+      </c>
+      <c r="L218" t="str">
+        <f t="shared" si="11"/>
+        <v>BBBDDB</v>
+      </c>
+    </row>
+    <row r="219" spans="10:12">
+      <c r="J219" t="str">
+        <f t="shared" si="10"/>
+        <v>CBBDD</v>
+      </c>
+      <c r="L219" t="str">
+        <f t="shared" si="11"/>
+        <v>CBBDDB</v>
+      </c>
+    </row>
+    <row r="220" spans="10:12">
+      <c r="J220" t="str">
+        <f t="shared" si="10"/>
+        <v>DBBDD</v>
+      </c>
+      <c r="L220" t="str">
+        <f t="shared" si="11"/>
+        <v>DBBDDB</v>
+      </c>
+    </row>
+    <row r="221" spans="10:12">
+      <c r="J221" t="str">
+        <f t="shared" si="10"/>
+        <v>BCBDD</v>
+      </c>
+      <c r="L221" t="str">
+        <f t="shared" si="11"/>
+        <v>BCBDDB</v>
+      </c>
+    </row>
+    <row r="222" spans="10:12">
+      <c r="J222" t="str">
+        <f t="shared" si="10"/>
+        <v>CCBDD</v>
+      </c>
+      <c r="L222" t="str">
+        <f t="shared" si="11"/>
+        <v>CCBDDB</v>
+      </c>
+    </row>
+    <row r="223" spans="10:12">
+      <c r="J223" t="str">
+        <f t="shared" si="10"/>
+        <v>DCBDD</v>
+      </c>
+      <c r="L223" t="str">
+        <f t="shared" si="11"/>
+        <v>DCBDDB</v>
+      </c>
+    </row>
+    <row r="224" spans="10:12">
+      <c r="J224" t="str">
+        <f t="shared" si="10"/>
+        <v>BDBDD</v>
+      </c>
+      <c r="L224" t="str">
+        <f t="shared" si="11"/>
+        <v>BDBDDB</v>
+      </c>
+    </row>
+    <row r="225" spans="10:13">
+      <c r="J225" t="str">
+        <f t="shared" si="10"/>
+        <v>CDBDD</v>
+      </c>
+      <c r="L225" t="str">
+        <f t="shared" si="11"/>
+        <v>CDBDDB</v>
+      </c>
+    </row>
+    <row r="226" spans="10:13">
+      <c r="J226" t="str">
+        <f t="shared" si="10"/>
+        <v>DDBDD</v>
+      </c>
+      <c r="L226" t="str">
+        <f t="shared" si="11"/>
+        <v>DDBDDB</v>
+      </c>
+    </row>
+    <row r="227" spans="10:13">
+      <c r="J227" t="str">
+        <f t="shared" si="10"/>
+        <v>BBCDD</v>
+      </c>
+      <c r="L227" t="str">
+        <f t="shared" si="11"/>
+        <v>BBCDDB</v>
+      </c>
+    </row>
+    <row r="228" spans="10:13">
+      <c r="J228" t="str">
+        <f t="shared" si="10"/>
+        <v>CBCDD</v>
+      </c>
+      <c r="L228" t="str">
+        <f t="shared" si="11"/>
+        <v>CBCDDB</v>
+      </c>
+    </row>
+    <row r="229" spans="10:13">
+      <c r="J229" t="str">
+        <f t="shared" si="10"/>
+        <v>DBCDD</v>
+      </c>
+      <c r="L229" t="str">
+        <f t="shared" si="11"/>
+        <v>DBCDDB</v>
+      </c>
+    </row>
+    <row r="230" spans="10:13">
+      <c r="J230" t="str">
+        <f t="shared" si="10"/>
+        <v>BCCDD</v>
+      </c>
+      <c r="L230" t="str">
+        <f t="shared" si="11"/>
+        <v>BCCDDB</v>
+      </c>
+    </row>
+    <row r="231" spans="10:13">
+      <c r="J231" t="str">
+        <f t="shared" si="10"/>
+        <v>CCCDD</v>
+      </c>
+      <c r="L231" t="str">
+        <f t="shared" si="11"/>
+        <v>CCCDDB</v>
+      </c>
+    </row>
+    <row r="232" spans="10:13">
+      <c r="J232" t="str">
+        <f t="shared" si="10"/>
+        <v>DCCDD</v>
+      </c>
+      <c r="L232" t="str">
+        <f t="shared" si="11"/>
+        <v>DCCDDB</v>
+      </c>
+    </row>
+    <row r="233" spans="10:13">
+      <c r="J233" t="str">
+        <f t="shared" si="10"/>
+        <v>BDCDD</v>
+      </c>
+      <c r="L233" t="str">
+        <f t="shared" si="11"/>
+        <v>BDCDDB</v>
+      </c>
+    </row>
+    <row r="234" spans="10:13">
+      <c r="J234" t="str">
+        <f t="shared" si="10"/>
+        <v>CDCDD</v>
+      </c>
+      <c r="L234" t="str">
+        <f t="shared" si="11"/>
+        <v>CDCDDB</v>
+      </c>
+    </row>
+    <row r="235" spans="10:13">
+      <c r="J235" t="str">
+        <f t="shared" si="10"/>
+        <v>DDCDD</v>
+      </c>
+      <c r="L235" t="str">
+        <f t="shared" si="11"/>
+        <v>DDCDDB</v>
+      </c>
+    </row>
+    <row r="236" spans="10:13">
+      <c r="J236" t="str">
+        <f t="shared" si="10"/>
+        <v>BBDDD</v>
+      </c>
+      <c r="L236" t="str">
+        <f t="shared" si="11"/>
+        <v>BBDDDB</v>
+      </c>
+      <c r="M236" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="10:13">
+      <c r="J237" t="str">
+        <f t="shared" si="10"/>
+        <v>CBDDD</v>
+      </c>
+      <c r="L237" t="str">
+        <f t="shared" si="11"/>
+        <v>CBDDDB</v>
+      </c>
+    </row>
+    <row r="238" spans="10:13">
+      <c r="J238" t="str">
+        <f t="shared" si="10"/>
+        <v>DBDDD</v>
+      </c>
+      <c r="L238" t="str">
+        <f t="shared" si="11"/>
+        <v>DBDDDB</v>
+      </c>
+    </row>
+    <row r="239" spans="10:13">
+      <c r="J239" t="str">
+        <f t="shared" si="10"/>
+        <v>BCDDD</v>
+      </c>
+      <c r="L239" t="str">
+        <f t="shared" si="11"/>
+        <v>BCDDDB</v>
+      </c>
+    </row>
+    <row r="240" spans="10:13">
+      <c r="J240" t="str">
+        <f t="shared" si="10"/>
+        <v>CCDDD</v>
+      </c>
+      <c r="L240" t="str">
+        <f t="shared" si="11"/>
+        <v>CCDDDB</v>
+      </c>
+    </row>
+    <row r="241" spans="10:12">
+      <c r="J241" t="str">
+        <f t="shared" si="10"/>
+        <v>DCDDD</v>
+      </c>
+      <c r="L241" t="str">
+        <f t="shared" si="11"/>
+        <v>DCDDDB</v>
+      </c>
+    </row>
+    <row r="242" spans="10:12">
+      <c r="J242" t="str">
+        <f t="shared" si="10"/>
+        <v>BDDDD</v>
+      </c>
+      <c r="L242" t="str">
+        <f t="shared" si="11"/>
+        <v>BDDDDB</v>
+      </c>
+    </row>
+    <row r="243" spans="10:12">
+      <c r="J243" t="str">
+        <f t="shared" si="10"/>
+        <v>CDDDD</v>
+      </c>
+      <c r="L243" t="str">
+        <f t="shared" si="11"/>
+        <v>CDDDDB</v>
+      </c>
+    </row>
+    <row r="244" spans="10:12">
+      <c r="J244" t="str">
+        <f t="shared" si="10"/>
+        <v>DDDDD</v>
+      </c>
+      <c r="K244" t="s">
+        <v>62</v>
+      </c>
+      <c r="L244" t="str">
+        <f t="shared" si="11"/>
+        <v>DDDDDB</v>
+      </c>
+    </row>
+    <row r="245" spans="10:12">
+      <c r="L245" t="str">
+        <f t="shared" ref="L195:L258" si="12">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>BBBBBC</v>
+      </c>
+    </row>
+    <row r="246" spans="10:12">
+      <c r="L246" t="str">
+        <f t="shared" si="12"/>
+        <v>CBBBBC</v>
+      </c>
+    </row>
+    <row r="247" spans="10:12">
+      <c r="L247" t="str">
+        <f t="shared" si="12"/>
+        <v>DBBBBC</v>
+      </c>
+    </row>
+    <row r="248" spans="10:12">
+      <c r="L248" t="str">
+        <f t="shared" si="12"/>
+        <v>BCBBBC</v>
+      </c>
+    </row>
+    <row r="249" spans="10:12">
+      <c r="L249" t="str">
+        <f t="shared" si="12"/>
+        <v>CCBBBC</v>
+      </c>
+    </row>
+    <row r="250" spans="10:12">
+      <c r="L250" t="str">
+        <f t="shared" si="12"/>
+        <v>DCBBBC</v>
+      </c>
+    </row>
+    <row r="251" spans="10:12">
+      <c r="L251" t="str">
+        <f t="shared" si="12"/>
+        <v>BDBBBC</v>
+      </c>
+    </row>
+    <row r="252" spans="10:12">
+      <c r="L252" t="str">
+        <f t="shared" si="12"/>
+        <v>CDBBBC</v>
+      </c>
+    </row>
+    <row r="253" spans="10:12">
+      <c r="L253" t="str">
+        <f t="shared" si="12"/>
+        <v>DDBBBC</v>
+      </c>
+    </row>
+    <row r="254" spans="10:12">
+      <c r="L254" t="str">
+        <f t="shared" si="12"/>
+        <v>BBCBBC</v>
+      </c>
+    </row>
+    <row r="255" spans="10:12">
+      <c r="L255" t="str">
+        <f t="shared" si="12"/>
+        <v>CBCBBC</v>
+      </c>
+    </row>
+    <row r="256" spans="10:12">
+      <c r="L256" t="str">
+        <f t="shared" si="12"/>
+        <v>DBCBBC</v>
+      </c>
+    </row>
+    <row r="257" spans="12:12">
+      <c r="L257" t="str">
+        <f t="shared" si="12"/>
+        <v>BCCBBC</v>
+      </c>
+    </row>
+    <row r="258" spans="12:12">
+      <c r="L258" t="str">
+        <f t="shared" si="12"/>
+        <v>CCCBBC</v>
+      </c>
+    </row>
+    <row r="259" spans="12:12">
+      <c r="L259" t="str">
+        <f t="shared" ref="L259:L322" si="13">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>DCCBBC</v>
+      </c>
+    </row>
+    <row r="260" spans="12:12">
+      <c r="L260" t="str">
+        <f t="shared" si="13"/>
+        <v>BDCBBC</v>
+      </c>
+    </row>
+    <row r="261" spans="12:12">
+      <c r="L261" t="str">
+        <f t="shared" si="13"/>
+        <v>CDCBBC</v>
+      </c>
+    </row>
+    <row r="262" spans="12:12">
+      <c r="L262" t="str">
+        <f t="shared" si="13"/>
+        <v>DDCBBC</v>
+      </c>
+    </row>
+    <row r="263" spans="12:12">
+      <c r="L263" t="str">
+        <f t="shared" si="13"/>
+        <v>BBDBBC</v>
+      </c>
+    </row>
+    <row r="264" spans="12:12">
+      <c r="L264" t="str">
+        <f t="shared" si="13"/>
+        <v>CBDBBC</v>
+      </c>
+    </row>
+    <row r="265" spans="12:12">
+      <c r="L265" t="str">
+        <f t="shared" si="13"/>
+        <v>DBDBBC</v>
+      </c>
+    </row>
+    <row r="266" spans="12:12">
+      <c r="L266" t="str">
+        <f t="shared" si="13"/>
+        <v>BCDBBC</v>
+      </c>
+    </row>
+    <row r="267" spans="12:12">
+      <c r="L267" t="str">
+        <f t="shared" si="13"/>
+        <v>CCDBBC</v>
+      </c>
+    </row>
+    <row r="268" spans="12:12">
+      <c r="L268" t="str">
+        <f t="shared" si="13"/>
+        <v>DCDBBC</v>
+      </c>
+    </row>
+    <row r="269" spans="12:12">
+      <c r="L269" t="str">
+        <f t="shared" si="13"/>
+        <v>BDDBBC</v>
+      </c>
+    </row>
+    <row r="270" spans="12:12">
+      <c r="L270" t="str">
+        <f t="shared" si="13"/>
+        <v>CDDBBC</v>
+      </c>
+    </row>
+    <row r="271" spans="12:12">
+      <c r="L271" t="str">
+        <f t="shared" si="13"/>
+        <v>DDDBBC</v>
+      </c>
+    </row>
+    <row r="272" spans="12:12">
+      <c r="L272" t="str">
+        <f t="shared" si="13"/>
+        <v>BBBCBC</v>
+      </c>
+    </row>
+    <row r="273" spans="12:12">
+      <c r="L273" t="str">
+        <f t="shared" si="13"/>
+        <v>CBBCBC</v>
+      </c>
+    </row>
+    <row r="274" spans="12:12">
+      <c r="L274" t="str">
+        <f t="shared" si="13"/>
+        <v>DBBCBC</v>
+      </c>
+    </row>
+    <row r="275" spans="12:12">
+      <c r="L275" t="str">
+        <f t="shared" si="13"/>
+        <v>BCBCBC</v>
+      </c>
+    </row>
+    <row r="276" spans="12:12">
+      <c r="L276" t="str">
+        <f t="shared" si="13"/>
+        <v>CCBCBC</v>
+      </c>
+    </row>
+    <row r="277" spans="12:12">
+      <c r="L277" t="str">
+        <f t="shared" si="13"/>
+        <v>DCBCBC</v>
+      </c>
+    </row>
+    <row r="278" spans="12:12">
+      <c r="L278" t="str">
+        <f t="shared" si="13"/>
+        <v>BDBCBC</v>
+      </c>
+    </row>
+    <row r="279" spans="12:12">
+      <c r="L279" t="str">
+        <f t="shared" si="13"/>
+        <v>CDBCBC</v>
+      </c>
+    </row>
+    <row r="280" spans="12:12">
+      <c r="L280" t="str">
+        <f t="shared" si="13"/>
+        <v>DDBCBC</v>
+      </c>
+    </row>
+    <row r="281" spans="12:12">
+      <c r="L281" t="str">
+        <f t="shared" si="13"/>
+        <v>BBCCBC</v>
+      </c>
+    </row>
+    <row r="282" spans="12:12">
+      <c r="L282" t="str">
+        <f t="shared" si="13"/>
+        <v>CBCCBC</v>
+      </c>
+    </row>
+    <row r="283" spans="12:12">
+      <c r="L283" t="str">
+        <f t="shared" si="13"/>
+        <v>DBCCBC</v>
+      </c>
+    </row>
+    <row r="284" spans="12:12">
+      <c r="L284" t="str">
+        <f t="shared" si="13"/>
+        <v>BCCCBC</v>
+      </c>
+    </row>
+    <row r="285" spans="12:12">
+      <c r="L285" t="str">
+        <f t="shared" si="13"/>
+        <v>CCCCBC</v>
+      </c>
+    </row>
+    <row r="286" spans="12:12">
+      <c r="L286" t="str">
+        <f t="shared" si="13"/>
+        <v>DCCCBC</v>
+      </c>
+    </row>
+    <row r="287" spans="12:12">
+      <c r="L287" t="str">
+        <f t="shared" si="13"/>
+        <v>BDCCBC</v>
+      </c>
+    </row>
+    <row r="288" spans="12:12">
+      <c r="L288" t="str">
+        <f t="shared" si="13"/>
+        <v>CDCCBC</v>
+      </c>
+    </row>
+    <row r="289" spans="12:12">
+      <c r="L289" t="str">
+        <f t="shared" si="13"/>
+        <v>DDCCBC</v>
+      </c>
+    </row>
+    <row r="290" spans="12:12">
+      <c r="L290" t="str">
+        <f t="shared" si="13"/>
+        <v>BBDCBC</v>
+      </c>
+    </row>
+    <row r="291" spans="12:12">
+      <c r="L291" t="str">
+        <f t="shared" si="13"/>
+        <v>CBDCBC</v>
+      </c>
+    </row>
+    <row r="292" spans="12:12">
+      <c r="L292" t="str">
+        <f t="shared" si="13"/>
+        <v>DBDCBC</v>
+      </c>
+    </row>
+    <row r="293" spans="12:12">
+      <c r="L293" t="str">
+        <f t="shared" si="13"/>
+        <v>BCDCBC</v>
+      </c>
+    </row>
+    <row r="294" spans="12:12">
+      <c r="L294" t="str">
+        <f t="shared" si="13"/>
+        <v>CCDCBC</v>
+      </c>
+    </row>
+    <row r="295" spans="12:12">
+      <c r="L295" t="str">
+        <f t="shared" si="13"/>
+        <v>DCDCBC</v>
+      </c>
+    </row>
+    <row r="296" spans="12:12">
+      <c r="L296" t="str">
+        <f t="shared" si="13"/>
+        <v>BDDCBC</v>
+      </c>
+    </row>
+    <row r="297" spans="12:12">
+      <c r="L297" t="str">
+        <f t="shared" si="13"/>
+        <v>CDDCBC</v>
+      </c>
+    </row>
+    <row r="298" spans="12:12">
+      <c r="L298" t="str">
+        <f t="shared" si="13"/>
+        <v>DDDCBC</v>
+      </c>
+    </row>
+    <row r="299" spans="12:12">
+      <c r="L299" t="str">
+        <f t="shared" si="13"/>
+        <v>BBBDBC</v>
+      </c>
+    </row>
+    <row r="300" spans="12:12">
+      <c r="L300" t="str">
+        <f t="shared" si="13"/>
+        <v>CBBDBC</v>
+      </c>
+    </row>
+    <row r="301" spans="12:12">
+      <c r="L301" t="str">
+        <f t="shared" si="13"/>
+        <v>DBBDBC</v>
+      </c>
+    </row>
+    <row r="302" spans="12:12">
+      <c r="L302" t="str">
+        <f t="shared" si="13"/>
+        <v>BCBDBC</v>
+      </c>
+    </row>
+    <row r="303" spans="12:12">
+      <c r="L303" t="str">
+        <f t="shared" si="13"/>
+        <v>CCBDBC</v>
+      </c>
+    </row>
+    <row r="304" spans="12:12">
+      <c r="L304" t="str">
+        <f t="shared" si="13"/>
+        <v>DCBDBC</v>
+      </c>
+    </row>
+    <row r="305" spans="12:13">
+      <c r="L305" t="str">
+        <f t="shared" si="13"/>
+        <v>BDBDBC</v>
+      </c>
+    </row>
+    <row r="306" spans="12:13">
+      <c r="L306" t="str">
+        <f t="shared" si="13"/>
+        <v>CDBDBC</v>
+      </c>
+    </row>
+    <row r="307" spans="12:13">
+      <c r="L307" t="str">
+        <f t="shared" si="13"/>
+        <v>DDBDBC</v>
+      </c>
+    </row>
+    <row r="308" spans="12:13">
+      <c r="L308" t="str">
+        <f t="shared" si="13"/>
+        <v>BBCDBC</v>
+      </c>
+    </row>
+    <row r="309" spans="12:13">
+      <c r="L309" t="str">
+        <f t="shared" si="13"/>
+        <v>CBCDBC</v>
+      </c>
+    </row>
+    <row r="310" spans="12:13">
+      <c r="L310" t="str">
+        <f t="shared" si="13"/>
+        <v>DBCDBC</v>
+      </c>
+    </row>
+    <row r="311" spans="12:13">
+      <c r="L311" t="str">
+        <f t="shared" si="13"/>
+        <v>BCCDBC</v>
+      </c>
+    </row>
+    <row r="312" spans="12:13">
+      <c r="L312" t="str">
+        <f t="shared" si="13"/>
+        <v>CCCDBC</v>
+      </c>
+    </row>
+    <row r="313" spans="12:13">
+      <c r="L313" t="str">
+        <f t="shared" si="13"/>
+        <v>DCCDBC</v>
+      </c>
+    </row>
+    <row r="314" spans="12:13">
+      <c r="L314" t="str">
+        <f t="shared" si="13"/>
+        <v>BDCDBC</v>
+      </c>
+    </row>
+    <row r="315" spans="12:13">
+      <c r="L315" t="str">
+        <f t="shared" si="13"/>
+        <v>CDCDBC</v>
+      </c>
+    </row>
+    <row r="316" spans="12:13">
+      <c r="L316" t="str">
+        <f t="shared" si="13"/>
+        <v>DDCDBC</v>
+      </c>
+    </row>
+    <row r="317" spans="12:13">
+      <c r="L317" t="str">
+        <f t="shared" si="13"/>
+        <v>BBDDBC</v>
+      </c>
+      <c r="M317" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="318" spans="12:13">
+      <c r="L318" t="str">
+        <f t="shared" si="13"/>
+        <v>CBDDBC</v>
+      </c>
+    </row>
+    <row r="319" spans="12:13">
+      <c r="L319" t="str">
+        <f t="shared" si="13"/>
+        <v>DBDDBC</v>
+      </c>
+    </row>
+    <row r="320" spans="12:13">
+      <c r="L320" t="str">
+        <f t="shared" si="13"/>
+        <v>BCDDBC</v>
+      </c>
+    </row>
+    <row r="321" spans="12:12">
+      <c r="L321" t="str">
+        <f t="shared" si="13"/>
+        <v>CCDDBC</v>
+      </c>
+    </row>
+    <row r="322" spans="12:12">
+      <c r="L322" t="str">
+        <f t="shared" si="13"/>
+        <v>DCDDBC</v>
+      </c>
+    </row>
+    <row r="323" spans="12:12">
+      <c r="L323" t="str">
+        <f t="shared" ref="L323:L386" si="14">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>BDDDBC</v>
+      </c>
+    </row>
+    <row r="324" spans="12:12">
+      <c r="L324" t="str">
+        <f t="shared" si="14"/>
+        <v>CDDDBC</v>
+      </c>
+    </row>
+    <row r="325" spans="12:12">
+      <c r="L325" t="str">
+        <f t="shared" si="14"/>
+        <v>DDDDBC</v>
+      </c>
+    </row>
+    <row r="326" spans="12:12">
+      <c r="L326" t="str">
+        <f t="shared" si="14"/>
+        <v>BBBBCC</v>
+      </c>
+    </row>
+    <row r="327" spans="12:12">
+      <c r="L327" t="str">
+        <f t="shared" si="14"/>
+        <v>CBBBCC</v>
+      </c>
+    </row>
+    <row r="328" spans="12:12">
+      <c r="L328" t="str">
+        <f t="shared" si="14"/>
+        <v>DBBBCC</v>
+      </c>
+    </row>
+    <row r="329" spans="12:12">
+      <c r="L329" t="str">
+        <f t="shared" si="14"/>
+        <v>BCBBCC</v>
+      </c>
+    </row>
+    <row r="330" spans="12:12">
+      <c r="L330" t="str">
+        <f t="shared" si="14"/>
+        <v>CCBBCC</v>
+      </c>
+    </row>
+    <row r="331" spans="12:12">
+      <c r="L331" t="str">
+        <f t="shared" si="14"/>
+        <v>DCBBCC</v>
+      </c>
+    </row>
+    <row r="332" spans="12:12">
+      <c r="L332" t="str">
+        <f t="shared" si="14"/>
+        <v>BDBBCC</v>
+      </c>
+    </row>
+    <row r="333" spans="12:12">
+      <c r="L333" t="str">
+        <f t="shared" si="14"/>
+        <v>CDBBCC</v>
+      </c>
+    </row>
+    <row r="334" spans="12:12">
+      <c r="L334" t="str">
+        <f t="shared" si="14"/>
+        <v>DDBBCC</v>
+      </c>
+    </row>
+    <row r="335" spans="12:12">
+      <c r="L335" t="str">
+        <f t="shared" si="14"/>
+        <v>BBCBCC</v>
+      </c>
+    </row>
+    <row r="336" spans="12:12">
+      <c r="L336" t="str">
+        <f t="shared" si="14"/>
+        <v>CBCBCC</v>
+      </c>
+    </row>
+    <row r="337" spans="12:12">
+      <c r="L337" t="str">
+        <f t="shared" si="14"/>
+        <v>DBCBCC</v>
+      </c>
+    </row>
+    <row r="338" spans="12:12">
+      <c r="L338" t="str">
+        <f t="shared" si="14"/>
+        <v>BCCBCC</v>
+      </c>
+    </row>
+    <row r="339" spans="12:12">
+      <c r="L339" t="str">
+        <f t="shared" si="14"/>
+        <v>CCCBCC</v>
+      </c>
+    </row>
+    <row r="340" spans="12:12">
+      <c r="L340" t="str">
+        <f t="shared" si="14"/>
+        <v>DCCBCC</v>
+      </c>
+    </row>
+    <row r="341" spans="12:12">
+      <c r="L341" t="str">
+        <f t="shared" si="14"/>
+        <v>BDCBCC</v>
+      </c>
+    </row>
+    <row r="342" spans="12:12">
+      <c r="L342" t="str">
+        <f t="shared" si="14"/>
+        <v>CDCBCC</v>
+      </c>
+    </row>
+    <row r="343" spans="12:12">
+      <c r="L343" t="str">
+        <f t="shared" si="14"/>
+        <v>DDCBCC</v>
+      </c>
+    </row>
+    <row r="344" spans="12:12">
+      <c r="L344" t="str">
+        <f t="shared" si="14"/>
+        <v>BBDBCC</v>
+      </c>
+    </row>
+    <row r="345" spans="12:12">
+      <c r="L345" t="str">
+        <f t="shared" si="14"/>
+        <v>CBDBCC</v>
+      </c>
+    </row>
+    <row r="346" spans="12:12">
+      <c r="L346" t="str">
+        <f t="shared" si="14"/>
+        <v>DBDBCC</v>
+      </c>
+    </row>
+    <row r="347" spans="12:12">
+      <c r="L347" t="str">
+        <f t="shared" si="14"/>
+        <v>BCDBCC</v>
+      </c>
+    </row>
+    <row r="348" spans="12:12">
+      <c r="L348" t="str">
+        <f t="shared" si="14"/>
+        <v>CCDBCC</v>
+      </c>
+    </row>
+    <row r="349" spans="12:12">
+      <c r="L349" t="str">
+        <f t="shared" si="14"/>
+        <v>DCDBCC</v>
+      </c>
+    </row>
+    <row r="350" spans="12:12">
+      <c r="L350" t="str">
+        <f t="shared" si="14"/>
+        <v>BDDBCC</v>
+      </c>
+    </row>
+    <row r="351" spans="12:12">
+      <c r="L351" t="str">
+        <f t="shared" si="14"/>
+        <v>CDDBCC</v>
+      </c>
+    </row>
+    <row r="352" spans="12:12">
+      <c r="L352" t="str">
+        <f t="shared" si="14"/>
+        <v>DDDBCC</v>
+      </c>
+    </row>
+    <row r="353" spans="12:12">
+      <c r="L353" t="str">
+        <f t="shared" si="14"/>
+        <v>BBBCCC</v>
+      </c>
+    </row>
+    <row r="354" spans="12:12">
+      <c r="L354" t="str">
+        <f t="shared" si="14"/>
+        <v>CBBCCC</v>
+      </c>
+    </row>
+    <row r="355" spans="12:12">
+      <c r="L355" t="str">
+        <f t="shared" si="14"/>
+        <v>DBBCCC</v>
+      </c>
+    </row>
+    <row r="356" spans="12:12">
+      <c r="L356" t="str">
+        <f t="shared" si="14"/>
+        <v>BCBCCC</v>
+      </c>
+    </row>
+    <row r="357" spans="12:12">
+      <c r="L357" t="str">
+        <f t="shared" si="14"/>
+        <v>CCBCCC</v>
+      </c>
+    </row>
+    <row r="358" spans="12:12">
+      <c r="L358" t="str">
+        <f t="shared" si="14"/>
+        <v>DCBCCC</v>
+      </c>
+    </row>
+    <row r="359" spans="12:12">
+      <c r="L359" t="str">
+        <f t="shared" si="14"/>
+        <v>BDBCCC</v>
+      </c>
+    </row>
+    <row r="360" spans="12:12">
+      <c r="L360" t="str">
+        <f t="shared" si="14"/>
+        <v>CDBCCC</v>
+      </c>
+    </row>
+    <row r="361" spans="12:12">
+      <c r="L361" t="str">
+        <f t="shared" si="14"/>
+        <v>DDBCCC</v>
+      </c>
+    </row>
+    <row r="362" spans="12:12">
+      <c r="L362" t="str">
+        <f t="shared" si="14"/>
+        <v>BBCCCC</v>
+      </c>
+    </row>
+    <row r="363" spans="12:12">
+      <c r="L363" t="str">
+        <f t="shared" si="14"/>
+        <v>CBCCCC</v>
+      </c>
+    </row>
+    <row r="364" spans="12:12">
+      <c r="L364" t="str">
+        <f t="shared" si="14"/>
+        <v>DBCCCC</v>
+      </c>
+    </row>
+    <row r="365" spans="12:12">
+      <c r="L365" t="str">
+        <f t="shared" si="14"/>
+        <v>BCCCCC</v>
+      </c>
+    </row>
+    <row r="366" spans="12:12">
+      <c r="L366" t="str">
+        <f t="shared" si="14"/>
+        <v>CCCCCC</v>
+      </c>
+    </row>
+    <row r="367" spans="12:12">
+      <c r="L367" t="str">
+        <f t="shared" si="14"/>
+        <v>DCCCCC</v>
+      </c>
+    </row>
+    <row r="368" spans="12:12">
+      <c r="L368" t="str">
+        <f t="shared" si="14"/>
+        <v>BDCCCC</v>
+      </c>
+    </row>
+    <row r="369" spans="12:12">
+      <c r="L369" t="str">
+        <f t="shared" si="14"/>
+        <v>CDCCCC</v>
+      </c>
+    </row>
+    <row r="370" spans="12:12">
+      <c r="L370" t="str">
+        <f t="shared" si="14"/>
+        <v>DDCCCC</v>
+      </c>
+    </row>
+    <row r="371" spans="12:12">
+      <c r="L371" t="str">
+        <f t="shared" si="14"/>
+        <v>BBDCCC</v>
+      </c>
+    </row>
+    <row r="372" spans="12:12">
+      <c r="L372" t="str">
+        <f t="shared" si="14"/>
+        <v>CBDCCC</v>
+      </c>
+    </row>
+    <row r="373" spans="12:12">
+      <c r="L373" t="str">
+        <f t="shared" si="14"/>
+        <v>DBDCCC</v>
+      </c>
+    </row>
+    <row r="374" spans="12:12">
+      <c r="L374" t="str">
+        <f t="shared" si="14"/>
+        <v>BCDCCC</v>
+      </c>
+    </row>
+    <row r="375" spans="12:12">
+      <c r="L375" t="str">
+        <f t="shared" si="14"/>
+        <v>CCDCCC</v>
+      </c>
+    </row>
+    <row r="376" spans="12:12">
+      <c r="L376" t="str">
+        <f t="shared" si="14"/>
+        <v>DCDCCC</v>
+      </c>
+    </row>
+    <row r="377" spans="12:12">
+      <c r="L377" t="str">
+        <f t="shared" si="14"/>
+        <v>BDDCCC</v>
+      </c>
+    </row>
+    <row r="378" spans="12:12">
+      <c r="L378" t="str">
+        <f t="shared" si="14"/>
+        <v>CDDCCC</v>
+      </c>
+    </row>
+    <row r="379" spans="12:12">
+      <c r="L379" t="str">
+        <f t="shared" si="14"/>
+        <v>DDDCCC</v>
+      </c>
+    </row>
+    <row r="380" spans="12:12">
+      <c r="L380" t="str">
+        <f t="shared" si="14"/>
+        <v>BBBDCC</v>
+      </c>
+    </row>
+    <row r="381" spans="12:12">
+      <c r="L381" t="str">
+        <f t="shared" si="14"/>
+        <v>CBBDCC</v>
+      </c>
+    </row>
+    <row r="382" spans="12:12">
+      <c r="L382" t="str">
+        <f t="shared" si="14"/>
+        <v>DBBDCC</v>
+      </c>
+    </row>
+    <row r="383" spans="12:12">
+      <c r="L383" t="str">
+        <f t="shared" si="14"/>
+        <v>BCBDCC</v>
+      </c>
+    </row>
+    <row r="384" spans="12:12">
+      <c r="L384" t="str">
+        <f t="shared" si="14"/>
+        <v>CCBDCC</v>
+      </c>
+    </row>
+    <row r="385" spans="12:13">
+      <c r="L385" t="str">
+        <f t="shared" si="14"/>
+        <v>DCBDCC</v>
+      </c>
+    </row>
+    <row r="386" spans="12:13">
+      <c r="L386" t="str">
+        <f t="shared" si="14"/>
+        <v>BDBDCC</v>
+      </c>
+    </row>
+    <row r="387" spans="12:13">
+      <c r="L387" t="str">
+        <f t="shared" ref="L387:L450" si="15">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>CDBDCC</v>
+      </c>
+    </row>
+    <row r="388" spans="12:13">
+      <c r="L388" t="str">
+        <f t="shared" si="15"/>
+        <v>DDBDCC</v>
+      </c>
+    </row>
+    <row r="389" spans="12:13">
+      <c r="L389" t="str">
+        <f t="shared" si="15"/>
+        <v>BBCDCC</v>
+      </c>
+    </row>
+    <row r="390" spans="12:13">
+      <c r="L390" t="str">
+        <f t="shared" si="15"/>
+        <v>CBCDCC</v>
+      </c>
+    </row>
+    <row r="391" spans="12:13">
+      <c r="L391" t="str">
+        <f t="shared" si="15"/>
+        <v>DBCDCC</v>
+      </c>
+    </row>
+    <row r="392" spans="12:13">
+      <c r="L392" t="str">
+        <f t="shared" si="15"/>
+        <v>BCCDCC</v>
+      </c>
+    </row>
+    <row r="393" spans="12:13">
+      <c r="L393" t="str">
+        <f t="shared" si="15"/>
+        <v>CCCDCC</v>
+      </c>
+    </row>
+    <row r="394" spans="12:13">
+      <c r="L394" t="str">
+        <f t="shared" si="15"/>
+        <v>DCCDCC</v>
+      </c>
+    </row>
+    <row r="395" spans="12:13">
+      <c r="L395" t="str">
+        <f t="shared" si="15"/>
+        <v>BDCDCC</v>
+      </c>
+    </row>
+    <row r="396" spans="12:13">
+      <c r="L396" t="str">
+        <f t="shared" si="15"/>
+        <v>CDCDCC</v>
+      </c>
+    </row>
+    <row r="397" spans="12:13">
+      <c r="L397" t="str">
+        <f t="shared" si="15"/>
+        <v>DDCDCC</v>
+      </c>
+    </row>
+    <row r="398" spans="12:13">
+      <c r="L398" t="str">
+        <f t="shared" si="15"/>
+        <v>BBDDCC</v>
+      </c>
+      <c r="M398" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="399" spans="12:13">
+      <c r="L399" t="str">
+        <f t="shared" si="15"/>
+        <v>CBDDCC</v>
+      </c>
+    </row>
+    <row r="400" spans="12:13">
+      <c r="L400" t="str">
+        <f t="shared" si="15"/>
+        <v>DBDDCC</v>
+      </c>
+    </row>
+    <row r="401" spans="12:12">
+      <c r="L401" t="str">
+        <f t="shared" si="15"/>
+        <v>BCDDCC</v>
+      </c>
+    </row>
+    <row r="402" spans="12:12">
+      <c r="L402" t="str">
+        <f t="shared" si="15"/>
+        <v>CCDDCC</v>
+      </c>
+    </row>
+    <row r="403" spans="12:12">
+      <c r="L403" t="str">
+        <f t="shared" si="15"/>
+        <v>DCDDCC</v>
+      </c>
+    </row>
+    <row r="404" spans="12:12">
+      <c r="L404" t="str">
+        <f t="shared" si="15"/>
+        <v>BDDDCC</v>
+      </c>
+    </row>
+    <row r="405" spans="12:12">
+      <c r="L405" t="str">
+        <f t="shared" si="15"/>
+        <v>CDDDCC</v>
+      </c>
+    </row>
+    <row r="406" spans="12:12">
+      <c r="L406" t="str">
+        <f t="shared" si="15"/>
+        <v>DDDDCC</v>
+      </c>
+    </row>
+    <row r="407" spans="12:12">
+      <c r="L407" t="str">
+        <f t="shared" si="15"/>
+        <v>BBBBDC</v>
+      </c>
+    </row>
+    <row r="408" spans="12:12">
+      <c r="L408" t="str">
+        <f t="shared" si="15"/>
+        <v>CBBBDC</v>
+      </c>
+    </row>
+    <row r="409" spans="12:12">
+      <c r="L409" t="str">
+        <f t="shared" si="15"/>
+        <v>DBBBDC</v>
+      </c>
+    </row>
+    <row r="410" spans="12:12">
+      <c r="L410" t="str">
+        <f t="shared" si="15"/>
+        <v>BCBBDC</v>
+      </c>
+    </row>
+    <row r="411" spans="12:12">
+      <c r="L411" t="str">
+        <f t="shared" si="15"/>
+        <v>CCBBDC</v>
+      </c>
+    </row>
+    <row r="412" spans="12:12">
+      <c r="L412" t="str">
+        <f t="shared" si="15"/>
+        <v>DCBBDC</v>
+      </c>
+    </row>
+    <row r="413" spans="12:12">
+      <c r="L413" t="str">
+        <f t="shared" si="15"/>
+        <v>BDBBDC</v>
+      </c>
+    </row>
+    <row r="414" spans="12:12">
+      <c r="L414" t="str">
+        <f t="shared" si="15"/>
+        <v>CDBBDC</v>
+      </c>
+    </row>
+    <row r="415" spans="12:12">
+      <c r="L415" t="str">
+        <f t="shared" si="15"/>
+        <v>DDBBDC</v>
+      </c>
+    </row>
+    <row r="416" spans="12:12">
+      <c r="L416" t="str">
+        <f t="shared" si="15"/>
+        <v>BBCBDC</v>
+      </c>
+    </row>
+    <row r="417" spans="12:12">
+      <c r="L417" t="str">
+        <f t="shared" si="15"/>
+        <v>CBCBDC</v>
+      </c>
+    </row>
+    <row r="418" spans="12:12">
+      <c r="L418" t="str">
+        <f t="shared" si="15"/>
+        <v>DBCBDC</v>
+      </c>
+    </row>
+    <row r="419" spans="12:12">
+      <c r="L419" t="str">
+        <f t="shared" si="15"/>
+        <v>BCCBDC</v>
+      </c>
+    </row>
+    <row r="420" spans="12:12">
+      <c r="L420" t="str">
+        <f t="shared" si="15"/>
+        <v>CCCBDC</v>
+      </c>
+    </row>
+    <row r="421" spans="12:12">
+      <c r="L421" t="str">
+        <f t="shared" si="15"/>
+        <v>DCCBDC</v>
+      </c>
+    </row>
+    <row r="422" spans="12:12">
+      <c r="L422" t="str">
+        <f t="shared" si="15"/>
+        <v>BDCBDC</v>
+      </c>
+    </row>
+    <row r="423" spans="12:12">
+      <c r="L423" t="str">
+        <f t="shared" si="15"/>
+        <v>CDCBDC</v>
+      </c>
+    </row>
+    <row r="424" spans="12:12">
+      <c r="L424" t="str">
+        <f t="shared" si="15"/>
+        <v>DDCBDC</v>
+      </c>
+    </row>
+    <row r="425" spans="12:12">
+      <c r="L425" t="str">
+        <f t="shared" si="15"/>
+        <v>BBDBDC</v>
+      </c>
+    </row>
+    <row r="426" spans="12:12">
+      <c r="L426" t="str">
+        <f t="shared" si="15"/>
+        <v>CBDBDC</v>
+      </c>
+    </row>
+    <row r="427" spans="12:12">
+      <c r="L427" t="str">
+        <f t="shared" si="15"/>
+        <v>DBDBDC</v>
+      </c>
+    </row>
+    <row r="428" spans="12:12">
+      <c r="L428" t="str">
+        <f t="shared" si="15"/>
+        <v>BCDBDC</v>
+      </c>
+    </row>
+    <row r="429" spans="12:12">
+      <c r="L429" t="str">
+        <f t="shared" si="15"/>
+        <v>CCDBDC</v>
+      </c>
+    </row>
+    <row r="430" spans="12:12">
+      <c r="L430" t="str">
+        <f t="shared" si="15"/>
+        <v>DCDBDC</v>
+      </c>
+    </row>
+    <row r="431" spans="12:12">
+      <c r="L431" t="str">
+        <f t="shared" si="15"/>
+        <v>BDDBDC</v>
+      </c>
+    </row>
+    <row r="432" spans="12:12">
+      <c r="L432" t="str">
+        <f t="shared" si="15"/>
+        <v>CDDBDC</v>
+      </c>
+    </row>
+    <row r="433" spans="12:12">
+      <c r="L433" t="str">
+        <f t="shared" si="15"/>
+        <v>DDDBDC</v>
+      </c>
+    </row>
+    <row r="434" spans="12:12">
+      <c r="L434" t="str">
+        <f t="shared" si="15"/>
+        <v>BBBCDC</v>
+      </c>
+    </row>
+    <row r="435" spans="12:12">
+      <c r="L435" t="str">
+        <f t="shared" si="15"/>
+        <v>CBBCDC</v>
+      </c>
+    </row>
+    <row r="436" spans="12:12">
+      <c r="L436" t="str">
+        <f t="shared" si="15"/>
+        <v>DBBCDC</v>
+      </c>
+    </row>
+    <row r="437" spans="12:12">
+      <c r="L437" t="str">
+        <f t="shared" si="15"/>
+        <v>BCBCDC</v>
+      </c>
+    </row>
+    <row r="438" spans="12:12">
+      <c r="L438" t="str">
+        <f t="shared" si="15"/>
+        <v>CCBCDC</v>
+      </c>
+    </row>
+    <row r="439" spans="12:12">
+      <c r="L439" t="str">
+        <f t="shared" si="15"/>
+        <v>DCBCDC</v>
+      </c>
+    </row>
+    <row r="440" spans="12:12">
+      <c r="L440" t="str">
+        <f t="shared" si="15"/>
+        <v>BDBCDC</v>
+      </c>
+    </row>
+    <row r="441" spans="12:12">
+      <c r="L441" t="str">
+        <f t="shared" si="15"/>
+        <v>CDBCDC</v>
+      </c>
+    </row>
+    <row r="442" spans="12:12">
+      <c r="L442" t="str">
+        <f t="shared" si="15"/>
+        <v>DDBCDC</v>
+      </c>
+    </row>
+    <row r="443" spans="12:12">
+      <c r="L443" t="str">
+        <f t="shared" si="15"/>
+        <v>BBCCDC</v>
+      </c>
+    </row>
+    <row r="444" spans="12:12">
+      <c r="L444" t="str">
+        <f t="shared" si="15"/>
+        <v>CBCCDC</v>
+      </c>
+    </row>
+    <row r="445" spans="12:12">
+      <c r="L445" t="str">
+        <f t="shared" si="15"/>
+        <v>DBCCDC</v>
+      </c>
+    </row>
+    <row r="446" spans="12:12">
+      <c r="L446" t="str">
+        <f t="shared" si="15"/>
+        <v>BCCCDC</v>
+      </c>
+    </row>
+    <row r="447" spans="12:12">
+      <c r="L447" t="str">
+        <f t="shared" si="15"/>
+        <v>CCCCDC</v>
+      </c>
+    </row>
+    <row r="448" spans="12:12">
+      <c r="L448" t="str">
+        <f t="shared" si="15"/>
+        <v>DCCCDC</v>
+      </c>
+    </row>
+    <row r="449" spans="12:12">
+      <c r="L449" t="str">
+        <f t="shared" si="15"/>
+        <v>BDCCDC</v>
+      </c>
+    </row>
+    <row r="450" spans="12:12">
+      <c r="L450" t="str">
+        <f t="shared" si="15"/>
+        <v>CDCCDC</v>
+      </c>
+    </row>
+    <row r="451" spans="12:12">
+      <c r="L451" t="str">
+        <f t="shared" ref="L451:L514" si="16">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>DDCCDC</v>
+      </c>
+    </row>
+    <row r="452" spans="12:12">
+      <c r="L452" t="str">
+        <f t="shared" si="16"/>
+        <v>BBDCDC</v>
+      </c>
+    </row>
+    <row r="453" spans="12:12">
+      <c r="L453" t="str">
+        <f t="shared" si="16"/>
+        <v>CBDCDC</v>
+      </c>
+    </row>
+    <row r="454" spans="12:12">
+      <c r="L454" t="str">
+        <f t="shared" si="16"/>
+        <v>DBDCDC</v>
+      </c>
+    </row>
+    <row r="455" spans="12:12">
+      <c r="L455" t="str">
+        <f t="shared" si="16"/>
+        <v>BCDCDC</v>
+      </c>
+    </row>
+    <row r="456" spans="12:12">
+      <c r="L456" t="str">
+        <f t="shared" si="16"/>
+        <v>CCDCDC</v>
+      </c>
+    </row>
+    <row r="457" spans="12:12">
+      <c r="L457" t="str">
+        <f t="shared" si="16"/>
+        <v>DCDCDC</v>
+      </c>
+    </row>
+    <row r="458" spans="12:12">
+      <c r="L458" t="str">
+        <f t="shared" si="16"/>
+        <v>BDDCDC</v>
+      </c>
+    </row>
+    <row r="459" spans="12:12">
+      <c r="L459" t="str">
+        <f t="shared" si="16"/>
+        <v>CDDCDC</v>
+      </c>
+    </row>
+    <row r="460" spans="12:12">
+      <c r="L460" t="str">
+        <f t="shared" si="16"/>
+        <v>DDDCDC</v>
+      </c>
+    </row>
+    <row r="461" spans="12:12">
+      <c r="L461" t="str">
+        <f t="shared" si="16"/>
+        <v>BBBDDC</v>
+      </c>
+    </row>
+    <row r="462" spans="12:12">
+      <c r="L462" t="str">
+        <f t="shared" si="16"/>
+        <v>CBBDDC</v>
+      </c>
+    </row>
+    <row r="463" spans="12:12">
+      <c r="L463" t="str">
+        <f t="shared" si="16"/>
+        <v>DBBDDC</v>
+      </c>
+    </row>
+    <row r="464" spans="12:12">
+      <c r="L464" t="str">
+        <f t="shared" si="16"/>
+        <v>BCBDDC</v>
+      </c>
+    </row>
+    <row r="465" spans="12:12">
+      <c r="L465" t="str">
+        <f t="shared" si="16"/>
+        <v>CCBDDC</v>
+      </c>
+    </row>
+    <row r="466" spans="12:12">
+      <c r="L466" t="str">
+        <f t="shared" si="16"/>
+        <v>DCBDDC</v>
+      </c>
+    </row>
+    <row r="467" spans="12:12">
+      <c r="L467" t="str">
+        <f t="shared" si="16"/>
+        <v>BDBDDC</v>
+      </c>
+    </row>
+    <row r="468" spans="12:12">
+      <c r="L468" t="str">
+        <f t="shared" si="16"/>
+        <v>CDBDDC</v>
+      </c>
+    </row>
+    <row r="469" spans="12:12">
+      <c r="L469" t="str">
+        <f t="shared" si="16"/>
+        <v>DDBDDC</v>
+      </c>
+    </row>
+    <row r="470" spans="12:12">
+      <c r="L470" t="str">
+        <f t="shared" si="16"/>
+        <v>BBCDDC</v>
+      </c>
+    </row>
+    <row r="471" spans="12:12">
+      <c r="L471" t="str">
+        <f t="shared" si="16"/>
+        <v>CBCDDC</v>
+      </c>
+    </row>
+    <row r="472" spans="12:12">
+      <c r="L472" t="str">
+        <f t="shared" si="16"/>
+        <v>DBCDDC</v>
+      </c>
+    </row>
+    <row r="473" spans="12:12">
+      <c r="L473" t="str">
+        <f t="shared" si="16"/>
+        <v>BCCDDC</v>
+      </c>
+    </row>
+    <row r="474" spans="12:12">
+      <c r="L474" t="str">
+        <f t="shared" si="16"/>
+        <v>CCCDDC</v>
+      </c>
+    </row>
+    <row r="475" spans="12:12">
+      <c r="L475" t="str">
+        <f t="shared" si="16"/>
+        <v>DCCDDC</v>
+      </c>
+    </row>
+    <row r="476" spans="12:12">
+      <c r="L476" t="str">
+        <f t="shared" si="16"/>
+        <v>BDCDDC</v>
+      </c>
+    </row>
+    <row r="477" spans="12:12">
+      <c r="L477" t="str">
+        <f t="shared" si="16"/>
+        <v>CDCDDC</v>
+      </c>
+    </row>
+    <row r="478" spans="12:12">
+      <c r="L478" t="str">
+        <f t="shared" si="16"/>
+        <v>DDCDDC</v>
+      </c>
+    </row>
+    <row r="479" spans="12:12">
+      <c r="L479" t="str">
+        <f t="shared" si="16"/>
+        <v>BBDDDC</v>
+      </c>
+    </row>
+    <row r="480" spans="12:12">
+      <c r="L480" t="str">
+        <f t="shared" si="16"/>
+        <v>CBDDDC</v>
+      </c>
+    </row>
+    <row r="481" spans="12:12">
+      <c r="L481" t="str">
+        <f t="shared" si="16"/>
+        <v>DBDDDC</v>
+      </c>
+    </row>
+    <row r="482" spans="12:12">
+      <c r="L482" t="str">
+        <f t="shared" si="16"/>
+        <v>BCDDDC</v>
+      </c>
+    </row>
+    <row r="483" spans="12:12">
+      <c r="L483" t="str">
+        <f t="shared" si="16"/>
+        <v>CCDDDC</v>
+      </c>
+    </row>
+    <row r="484" spans="12:12">
+      <c r="L484" t="str">
+        <f t="shared" si="16"/>
+        <v>DCDDDC</v>
+      </c>
+    </row>
+    <row r="485" spans="12:12">
+      <c r="L485" t="str">
+        <f t="shared" si="16"/>
+        <v>BDDDDC</v>
+      </c>
+    </row>
+    <row r="486" spans="12:12">
+      <c r="L486" t="str">
+        <f t="shared" si="16"/>
+        <v>CDDDDC</v>
+      </c>
+    </row>
+    <row r="487" spans="12:12">
+      <c r="L487" t="str">
+        <f t="shared" si="16"/>
+        <v>DDDDDC</v>
+      </c>
+    </row>
+    <row r="488" spans="12:12">
+      <c r="L488" t="str">
+        <f t="shared" si="16"/>
+        <v>BBBBBD</v>
+      </c>
+    </row>
+    <row r="489" spans="12:12">
+      <c r="L489" t="str">
+        <f t="shared" si="16"/>
+        <v>CBBBBD</v>
+      </c>
+    </row>
+    <row r="490" spans="12:12">
+      <c r="L490" t="str">
+        <f t="shared" si="16"/>
+        <v>DBBBBD</v>
+      </c>
+    </row>
+    <row r="491" spans="12:12">
+      <c r="L491" t="str">
+        <f t="shared" si="16"/>
+        <v>BCBBBD</v>
+      </c>
+    </row>
+    <row r="492" spans="12:12">
+      <c r="L492" t="str">
+        <f t="shared" si="16"/>
+        <v>CCBBBD</v>
+      </c>
+    </row>
+    <row r="493" spans="12:12">
+      <c r="L493" t="str">
+        <f t="shared" si="16"/>
+        <v>DCBBBD</v>
+      </c>
+    </row>
+    <row r="494" spans="12:12">
+      <c r="L494" t="str">
+        <f t="shared" si="16"/>
+        <v>BDBBBD</v>
+      </c>
+    </row>
+    <row r="495" spans="12:12">
+      <c r="L495" t="str">
+        <f t="shared" si="16"/>
+        <v>CDBBBD</v>
+      </c>
+    </row>
+    <row r="496" spans="12:12">
+      <c r="L496" t="str">
+        <f t="shared" si="16"/>
+        <v>DDBBBD</v>
+      </c>
+    </row>
+    <row r="497" spans="12:12">
+      <c r="L497" t="str">
+        <f t="shared" si="16"/>
+        <v>BBCBBD</v>
+      </c>
+    </row>
+    <row r="498" spans="12:12">
+      <c r="L498" t="str">
+        <f t="shared" si="16"/>
+        <v>CBCBBD</v>
+      </c>
+    </row>
+    <row r="499" spans="12:12">
+      <c r="L499" t="str">
+        <f t="shared" si="16"/>
+        <v>DBCBBD</v>
+      </c>
+    </row>
+    <row r="500" spans="12:12">
+      <c r="L500" t="str">
+        <f t="shared" si="16"/>
+        <v>BCCBBD</v>
+      </c>
+    </row>
+    <row r="501" spans="12:12">
+      <c r="L501" t="str">
+        <f t="shared" si="16"/>
+        <v>CCCBBD</v>
+      </c>
+    </row>
+    <row r="502" spans="12:12">
+      <c r="L502" t="str">
+        <f t="shared" si="16"/>
+        <v>DCCBBD</v>
+      </c>
+    </row>
+    <row r="503" spans="12:12">
+      <c r="L503" t="str">
+        <f t="shared" si="16"/>
+        <v>BDCBBD</v>
+      </c>
+    </row>
+    <row r="504" spans="12:12">
+      <c r="L504" t="str">
+        <f t="shared" si="16"/>
+        <v>CDCBBD</v>
+      </c>
+    </row>
+    <row r="505" spans="12:12">
+      <c r="L505" t="str">
+        <f t="shared" si="16"/>
+        <v>DDCBBD</v>
+      </c>
+    </row>
+    <row r="506" spans="12:12">
+      <c r="L506" t="str">
+        <f t="shared" si="16"/>
+        <v>BBDBBD</v>
+      </c>
+    </row>
+    <row r="507" spans="12:12">
+      <c r="L507" t="str">
+        <f t="shared" si="16"/>
+        <v>CBDBBD</v>
+      </c>
+    </row>
+    <row r="508" spans="12:12">
+      <c r="L508" t="str">
+        <f t="shared" si="16"/>
+        <v>DBDBBD</v>
+      </c>
+    </row>
+    <row r="509" spans="12:12">
+      <c r="L509" t="str">
+        <f t="shared" si="16"/>
+        <v>BCDBBD</v>
+      </c>
+    </row>
+    <row r="510" spans="12:12">
+      <c r="L510" t="str">
+        <f t="shared" si="16"/>
+        <v>CCDBBD</v>
+      </c>
+    </row>
+    <row r="511" spans="12:12">
+      <c r="L511" t="str">
+        <f t="shared" si="16"/>
+        <v>DCDBBD</v>
+      </c>
+    </row>
+    <row r="512" spans="12:12">
+      <c r="L512" t="str">
+        <f t="shared" si="16"/>
+        <v>BDDBBD</v>
+      </c>
+    </row>
+    <row r="513" spans="12:12">
+      <c r="L513" t="str">
+        <f t="shared" si="16"/>
+        <v>CDDBBD</v>
+      </c>
+    </row>
+    <row r="514" spans="12:12">
+      <c r="L514" t="str">
+        <f t="shared" si="16"/>
+        <v>DDDBBD</v>
+      </c>
+    </row>
+    <row r="515" spans="12:12">
+      <c r="L515" t="str">
+        <f t="shared" ref="L515:L578" si="17">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>BBBCBD</v>
+      </c>
+    </row>
+    <row r="516" spans="12:12">
+      <c r="L516" t="str">
+        <f t="shared" si="17"/>
+        <v>CBBCBD</v>
+      </c>
+    </row>
+    <row r="517" spans="12:12">
+      <c r="L517" t="str">
+        <f t="shared" si="17"/>
+        <v>DBBCBD</v>
+      </c>
+    </row>
+    <row r="518" spans="12:12">
+      <c r="L518" t="str">
+        <f t="shared" si="17"/>
+        <v>BCBCBD</v>
+      </c>
+    </row>
+    <row r="519" spans="12:12">
+      <c r="L519" t="str">
+        <f t="shared" si="17"/>
+        <v>CCBCBD</v>
+      </c>
+    </row>
+    <row r="520" spans="12:12">
+      <c r="L520" t="str">
+        <f t="shared" si="17"/>
+        <v>DCBCBD</v>
+      </c>
+    </row>
+    <row r="521" spans="12:12">
+      <c r="L521" t="str">
+        <f t="shared" si="17"/>
+        <v>BDBCBD</v>
+      </c>
+    </row>
+    <row r="522" spans="12:12">
+      <c r="L522" t="str">
+        <f t="shared" si="17"/>
+        <v>CDBCBD</v>
+      </c>
+    </row>
+    <row r="523" spans="12:12">
+      <c r="L523" t="str">
+        <f t="shared" si="17"/>
+        <v>DDBCBD</v>
+      </c>
+    </row>
+    <row r="524" spans="12:12">
+      <c r="L524" t="str">
+        <f t="shared" si="17"/>
+        <v>BBCCBD</v>
+      </c>
+    </row>
+    <row r="525" spans="12:12">
+      <c r="L525" t="str">
+        <f t="shared" si="17"/>
+        <v>CBCCBD</v>
+      </c>
+    </row>
+    <row r="526" spans="12:12">
+      <c r="L526" t="str">
+        <f t="shared" si="17"/>
+        <v>DBCCBD</v>
+      </c>
+    </row>
+    <row r="527" spans="12:12">
+      <c r="L527" t="str">
+        <f t="shared" si="17"/>
+        <v>BCCCBD</v>
+      </c>
+    </row>
+    <row r="528" spans="12:12">
+      <c r="L528" t="str">
+        <f t="shared" si="17"/>
+        <v>CCCCBD</v>
+      </c>
+    </row>
+    <row r="529" spans="12:12">
+      <c r="L529" t="str">
+        <f t="shared" si="17"/>
+        <v>DCCCBD</v>
+      </c>
+    </row>
+    <row r="530" spans="12:12">
+      <c r="L530" t="str">
+        <f t="shared" si="17"/>
+        <v>BDCCBD</v>
+      </c>
+    </row>
+    <row r="531" spans="12:12">
+      <c r="L531" t="str">
+        <f t="shared" si="17"/>
+        <v>CDCCBD</v>
+      </c>
+    </row>
+    <row r="532" spans="12:12">
+      <c r="L532" t="str">
+        <f t="shared" si="17"/>
+        <v>DDCCBD</v>
+      </c>
+    </row>
+    <row r="533" spans="12:12">
+      <c r="L533" t="str">
+        <f t="shared" si="17"/>
+        <v>BBDCBD</v>
+      </c>
+    </row>
+    <row r="534" spans="12:12">
+      <c r="L534" t="str">
+        <f t="shared" si="17"/>
+        <v>CBDCBD</v>
+      </c>
+    </row>
+    <row r="535" spans="12:12">
+      <c r="L535" t="str">
+        <f t="shared" si="17"/>
+        <v>DBDCBD</v>
+      </c>
+    </row>
+    <row r="536" spans="12:12">
+      <c r="L536" t="str">
+        <f t="shared" si="17"/>
+        <v>BCDCBD</v>
+      </c>
+    </row>
+    <row r="537" spans="12:12">
+      <c r="L537" t="str">
+        <f t="shared" si="17"/>
+        <v>CCDCBD</v>
+      </c>
+    </row>
+    <row r="538" spans="12:12">
+      <c r="L538" t="str">
+        <f t="shared" si="17"/>
+        <v>DCDCBD</v>
+      </c>
+    </row>
+    <row r="539" spans="12:12">
+      <c r="L539" t="str">
+        <f t="shared" si="17"/>
+        <v>BDDCBD</v>
+      </c>
+    </row>
+    <row r="540" spans="12:12">
+      <c r="L540" t="str">
+        <f t="shared" si="17"/>
+        <v>CDDCBD</v>
+      </c>
+    </row>
+    <row r="541" spans="12:12">
+      <c r="L541" t="str">
+        <f t="shared" si="17"/>
+        <v>DDDCBD</v>
+      </c>
+    </row>
+    <row r="542" spans="12:12">
+      <c r="L542" t="str">
+        <f t="shared" si="17"/>
+        <v>BBBDBD</v>
+      </c>
+    </row>
+    <row r="543" spans="12:12">
+      <c r="L543" t="str">
+        <f t="shared" si="17"/>
+        <v>CBBDBD</v>
+      </c>
+    </row>
+    <row r="544" spans="12:12">
+      <c r="L544" t="str">
+        <f t="shared" si="17"/>
+        <v>DBBDBD</v>
+      </c>
+    </row>
+    <row r="545" spans="12:13">
+      <c r="L545" t="str">
+        <f t="shared" si="17"/>
+        <v>BCBDBD</v>
+      </c>
+    </row>
+    <row r="546" spans="12:13">
+      <c r="L546" t="str">
+        <f t="shared" si="17"/>
+        <v>CCBDBD</v>
+      </c>
+    </row>
+    <row r="547" spans="12:13">
+      <c r="L547" t="str">
+        <f t="shared" si="17"/>
+        <v>DCBDBD</v>
+      </c>
+    </row>
+    <row r="548" spans="12:13">
+      <c r="L548" t="str">
+        <f t="shared" si="17"/>
+        <v>BDBDBD</v>
+      </c>
+    </row>
+    <row r="549" spans="12:13">
+      <c r="L549" t="str">
+        <f t="shared" si="17"/>
+        <v>CDBDBD</v>
+      </c>
+    </row>
+    <row r="550" spans="12:13">
+      <c r="L550" t="str">
+        <f t="shared" si="17"/>
+        <v>DDBDBD</v>
+      </c>
+    </row>
+    <row r="551" spans="12:13">
+      <c r="L551" t="str">
+        <f t="shared" si="17"/>
+        <v>BBCDBD</v>
+      </c>
+    </row>
+    <row r="552" spans="12:13">
+      <c r="L552" t="str">
+        <f t="shared" si="17"/>
+        <v>CBCDBD</v>
+      </c>
+    </row>
+    <row r="553" spans="12:13">
+      <c r="L553" t="str">
+        <f t="shared" si="17"/>
+        <v>DBCDBD</v>
+      </c>
+    </row>
+    <row r="554" spans="12:13">
+      <c r="L554" t="str">
+        <f t="shared" si="17"/>
+        <v>BCCDBD</v>
+      </c>
+    </row>
+    <row r="555" spans="12:13">
+      <c r="L555" t="str">
+        <f t="shared" si="17"/>
+        <v>CCCDBD</v>
+      </c>
+    </row>
+    <row r="556" spans="12:13">
+      <c r="L556" t="str">
+        <f t="shared" si="17"/>
+        <v>DCCDBD</v>
+      </c>
+    </row>
+    <row r="557" spans="12:13">
+      <c r="L557" t="str">
+        <f t="shared" si="17"/>
+        <v>BDCDBD</v>
+      </c>
+    </row>
+    <row r="558" spans="12:13">
+      <c r="L558" t="str">
+        <f t="shared" si="17"/>
+        <v>CDCDBD</v>
+      </c>
+    </row>
+    <row r="559" spans="12:13">
+      <c r="L559" t="str">
+        <f t="shared" si="17"/>
+        <v>DDCDBD</v>
+      </c>
+    </row>
+    <row r="560" spans="12:13">
+      <c r="L560" t="str">
+        <f t="shared" si="17"/>
+        <v>BBDDBD</v>
+      </c>
+      <c r="M560" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="561" spans="12:12">
+      <c r="L561" t="str">
+        <f t="shared" si="17"/>
+        <v>CBDDBD</v>
+      </c>
+    </row>
+    <row r="562" spans="12:12">
+      <c r="L562" t="str">
+        <f t="shared" si="17"/>
+        <v>DBDDBD</v>
+      </c>
+    </row>
+    <row r="563" spans="12:12">
+      <c r="L563" t="str">
+        <f t="shared" si="17"/>
+        <v>BCDDBD</v>
+      </c>
+    </row>
+    <row r="564" spans="12:12">
+      <c r="L564" t="str">
+        <f t="shared" si="17"/>
+        <v>CCDDBD</v>
+      </c>
+    </row>
+    <row r="565" spans="12:12">
+      <c r="L565" t="str">
+        <f t="shared" si="17"/>
+        <v>DCDDBD</v>
+      </c>
+    </row>
+    <row r="566" spans="12:12">
+      <c r="L566" t="str">
+        <f t="shared" si="17"/>
+        <v>BDDDBD</v>
+      </c>
+    </row>
+    <row r="567" spans="12:12">
+      <c r="L567" t="str">
+        <f t="shared" si="17"/>
+        <v>CDDDBD</v>
+      </c>
+    </row>
+    <row r="568" spans="12:12">
+      <c r="L568" t="str">
+        <f t="shared" si="17"/>
+        <v>DDDDBD</v>
+      </c>
+    </row>
+    <row r="569" spans="12:12">
+      <c r="L569" t="str">
+        <f t="shared" si="17"/>
+        <v>BBBBCD</v>
+      </c>
+    </row>
+    <row r="570" spans="12:12">
+      <c r="L570" t="str">
+        <f t="shared" si="17"/>
+        <v>CBBBCD</v>
+      </c>
+    </row>
+    <row r="571" spans="12:12">
+      <c r="L571" t="str">
+        <f t="shared" si="17"/>
+        <v>DBBBCD</v>
+      </c>
+    </row>
+    <row r="572" spans="12:12">
+      <c r="L572" t="str">
+        <f t="shared" si="17"/>
+        <v>BCBBCD</v>
+      </c>
+    </row>
+    <row r="573" spans="12:12">
+      <c r="L573" t="str">
+        <f t="shared" si="17"/>
+        <v>CCBBCD</v>
+      </c>
+    </row>
+    <row r="574" spans="12:12">
+      <c r="L574" t="str">
+        <f t="shared" si="17"/>
+        <v>DCBBCD</v>
+      </c>
+    </row>
+    <row r="575" spans="12:12">
+      <c r="L575" t="str">
+        <f t="shared" si="17"/>
+        <v>BDBBCD</v>
+      </c>
+    </row>
+    <row r="576" spans="12:12">
+      <c r="L576" t="str">
+        <f t="shared" si="17"/>
+        <v>CDBBCD</v>
+      </c>
+    </row>
+    <row r="577" spans="12:12">
+      <c r="L577" t="str">
+        <f t="shared" si="17"/>
+        <v>DDBBCD</v>
+      </c>
+    </row>
+    <row r="578" spans="12:12">
+      <c r="L578" t="str">
+        <f t="shared" si="17"/>
+        <v>BBCBCD</v>
+      </c>
+    </row>
+    <row r="579" spans="12:12">
+      <c r="L579" t="str">
+        <f t="shared" ref="L579:L642" si="18">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>CBCBCD</v>
+      </c>
+    </row>
+    <row r="580" spans="12:12">
+      <c r="L580" t="str">
+        <f t="shared" si="18"/>
+        <v>DBCBCD</v>
+      </c>
+    </row>
+    <row r="581" spans="12:12">
+      <c r="L581" t="str">
+        <f t="shared" si="18"/>
+        <v>BCCBCD</v>
+      </c>
+    </row>
+    <row r="582" spans="12:12">
+      <c r="L582" t="str">
+        <f t="shared" si="18"/>
+        <v>CCCBCD</v>
+      </c>
+    </row>
+    <row r="583" spans="12:12">
+      <c r="L583" t="str">
+        <f t="shared" si="18"/>
+        <v>DCCBCD</v>
+      </c>
+    </row>
+    <row r="584" spans="12:12">
+      <c r="L584" t="str">
+        <f t="shared" si="18"/>
+        <v>BDCBCD</v>
+      </c>
+    </row>
+    <row r="585" spans="12:12">
+      <c r="L585" t="str">
+        <f t="shared" si="18"/>
+        <v>CDCBCD</v>
+      </c>
+    </row>
+    <row r="586" spans="12:12">
+      <c r="L586" t="str">
+        <f t="shared" si="18"/>
+        <v>DDCBCD</v>
+      </c>
+    </row>
+    <row r="587" spans="12:12">
+      <c r="L587" t="str">
+        <f t="shared" si="18"/>
+        <v>BBDBCD</v>
+      </c>
+    </row>
+    <row r="588" spans="12:12">
+      <c r="L588" t="str">
+        <f t="shared" si="18"/>
+        <v>CBDBCD</v>
+      </c>
+    </row>
+    <row r="589" spans="12:12">
+      <c r="L589" t="str">
+        <f t="shared" si="18"/>
+        <v>DBDBCD</v>
+      </c>
+    </row>
+    <row r="590" spans="12:12">
+      <c r="L590" t="str">
+        <f t="shared" si="18"/>
+        <v>BCDBCD</v>
+      </c>
+    </row>
+    <row r="591" spans="12:12">
+      <c r="L591" t="str">
+        <f t="shared" si="18"/>
+        <v>CCDBCD</v>
+      </c>
+    </row>
+    <row r="592" spans="12:12">
+      <c r="L592" t="str">
+        <f t="shared" si="18"/>
+        <v>DCDBCD</v>
+      </c>
+    </row>
+    <row r="593" spans="12:12">
+      <c r="L593" t="str">
+        <f t="shared" si="18"/>
+        <v>BDDBCD</v>
+      </c>
+    </row>
+    <row r="594" spans="12:12">
+      <c r="L594" t="str">
+        <f t="shared" si="18"/>
+        <v>CDDBCD</v>
+      </c>
+    </row>
+    <row r="595" spans="12:12">
+      <c r="L595" t="str">
+        <f t="shared" si="18"/>
+        <v>DDDBCD</v>
+      </c>
+    </row>
+    <row r="596" spans="12:12">
+      <c r="L596" t="str">
+        <f t="shared" si="18"/>
+        <v>BBBCCD</v>
+      </c>
+    </row>
+    <row r="597" spans="12:12">
+      <c r="L597" t="str">
+        <f t="shared" si="18"/>
+        <v>CBBCCD</v>
+      </c>
+    </row>
+    <row r="598" spans="12:12">
+      <c r="L598" t="str">
+        <f t="shared" si="18"/>
+        <v>DBBCCD</v>
+      </c>
+    </row>
+    <row r="599" spans="12:12">
+      <c r="L599" t="str">
+        <f t="shared" si="18"/>
+        <v>BCBCCD</v>
+      </c>
+    </row>
+    <row r="600" spans="12:12">
+      <c r="L600" t="str">
+        <f t="shared" si="18"/>
+        <v>CCBCCD</v>
+      </c>
+    </row>
+    <row r="601" spans="12:12">
+      <c r="L601" t="str">
+        <f t="shared" si="18"/>
+        <v>DCBCCD</v>
+      </c>
+    </row>
+    <row r="602" spans="12:12">
+      <c r="L602" t="str">
+        <f t="shared" si="18"/>
+        <v>BDBCCD</v>
+      </c>
+    </row>
+    <row r="603" spans="12:12">
+      <c r="L603" t="str">
+        <f t="shared" si="18"/>
+        <v>CDBCCD</v>
+      </c>
+    </row>
+    <row r="604" spans="12:12">
+      <c r="L604" t="str">
+        <f t="shared" si="18"/>
+        <v>DDBCCD</v>
+      </c>
+    </row>
+    <row r="605" spans="12:12">
+      <c r="L605" t="str">
+        <f t="shared" si="18"/>
+        <v>BBCCCD</v>
+      </c>
+    </row>
+    <row r="606" spans="12:12">
+      <c r="L606" t="str">
+        <f t="shared" si="18"/>
+        <v>CBCCCD</v>
+      </c>
+    </row>
+    <row r="607" spans="12:12">
+      <c r="L607" t="str">
+        <f t="shared" si="18"/>
+        <v>DBCCCD</v>
+      </c>
+    </row>
+    <row r="608" spans="12:12">
+      <c r="L608" t="str">
+        <f t="shared" si="18"/>
+        <v>BCCCCD</v>
+      </c>
+    </row>
+    <row r="609" spans="12:12">
+      <c r="L609" t="str">
+        <f t="shared" si="18"/>
+        <v>CCCCCD</v>
+      </c>
+    </row>
+    <row r="610" spans="12:12">
+      <c r="L610" t="str">
+        <f t="shared" si="18"/>
+        <v>DCCCCD</v>
+      </c>
+    </row>
+    <row r="611" spans="12:12">
+      <c r="L611" t="str">
+        <f t="shared" si="18"/>
+        <v>BDCCCD</v>
+      </c>
+    </row>
+    <row r="612" spans="12:12">
+      <c r="L612" t="str">
+        <f t="shared" si="18"/>
+        <v>CDCCCD</v>
+      </c>
+    </row>
+    <row r="613" spans="12:12">
+      <c r="L613" t="str">
+        <f t="shared" si="18"/>
+        <v>DDCCCD</v>
+      </c>
+    </row>
+    <row r="614" spans="12:12">
+      <c r="L614" t="str">
+        <f t="shared" si="18"/>
+        <v>BBDCCD</v>
+      </c>
+    </row>
+    <row r="615" spans="12:12">
+      <c r="L615" t="str">
+        <f t="shared" si="18"/>
+        <v>CBDCCD</v>
+      </c>
+    </row>
+    <row r="616" spans="12:12">
+      <c r="L616" t="str">
+        <f t="shared" si="18"/>
+        <v>DBDCCD</v>
+      </c>
+    </row>
+    <row r="617" spans="12:12">
+      <c r="L617" t="str">
+        <f t="shared" si="18"/>
+        <v>BCDCCD</v>
+      </c>
+    </row>
+    <row r="618" spans="12:12">
+      <c r="L618" t="str">
+        <f t="shared" si="18"/>
+        <v>CCDCCD</v>
+      </c>
+    </row>
+    <row r="619" spans="12:12">
+      <c r="L619" t="str">
+        <f t="shared" si="18"/>
+        <v>DCDCCD</v>
+      </c>
+    </row>
+    <row r="620" spans="12:12">
+      <c r="L620" t="str">
+        <f t="shared" si="18"/>
+        <v>BDDCCD</v>
+      </c>
+    </row>
+    <row r="621" spans="12:12">
+      <c r="L621" t="str">
+        <f t="shared" si="18"/>
+        <v>CDDCCD</v>
+      </c>
+    </row>
+    <row r="622" spans="12:12">
+      <c r="L622" t="str">
+        <f t="shared" si="18"/>
+        <v>DDDCCD</v>
+      </c>
+    </row>
+    <row r="623" spans="12:12">
+      <c r="L623" t="str">
+        <f t="shared" si="18"/>
+        <v>BBBDCD</v>
+      </c>
+    </row>
+    <row r="624" spans="12:12">
+      <c r="L624" t="str">
+        <f t="shared" si="18"/>
+        <v>CBBDCD</v>
+      </c>
+    </row>
+    <row r="625" spans="12:12">
+      <c r="L625" t="str">
+        <f t="shared" si="18"/>
+        <v>DBBDCD</v>
+      </c>
+    </row>
+    <row r="626" spans="12:12">
+      <c r="L626" t="str">
+        <f t="shared" si="18"/>
+        <v>BCBDCD</v>
+      </c>
+    </row>
+    <row r="627" spans="12:12">
+      <c r="L627" t="str">
+        <f t="shared" si="18"/>
+        <v>CCBDCD</v>
+      </c>
+    </row>
+    <row r="628" spans="12:12">
+      <c r="L628" t="str">
+        <f t="shared" si="18"/>
+        <v>DCBDCD</v>
+      </c>
+    </row>
+    <row r="629" spans="12:12">
+      <c r="L629" t="str">
+        <f t="shared" si="18"/>
+        <v>BDBDCD</v>
+      </c>
+    </row>
+    <row r="630" spans="12:12">
+      <c r="L630" t="str">
+        <f t="shared" si="18"/>
+        <v>CDBDCD</v>
+      </c>
+    </row>
+    <row r="631" spans="12:12">
+      <c r="L631" t="str">
+        <f t="shared" si="18"/>
+        <v>DDBDCD</v>
+      </c>
+    </row>
+    <row r="632" spans="12:12">
+      <c r="L632" t="str">
+        <f t="shared" si="18"/>
+        <v>BBCDCD</v>
+      </c>
+    </row>
+    <row r="633" spans="12:12">
+      <c r="L633" t="str">
+        <f t="shared" si="18"/>
+        <v>CBCDCD</v>
+      </c>
+    </row>
+    <row r="634" spans="12:12">
+      <c r="L634" t="str">
+        <f t="shared" si="18"/>
+        <v>DBCDCD</v>
+      </c>
+    </row>
+    <row r="635" spans="12:12">
+      <c r="L635" t="str">
+        <f t="shared" si="18"/>
+        <v>BCCDCD</v>
+      </c>
+    </row>
+    <row r="636" spans="12:12">
+      <c r="L636" t="str">
+        <f t="shared" si="18"/>
+        <v>CCCDCD</v>
+      </c>
+    </row>
+    <row r="637" spans="12:12">
+      <c r="L637" t="str">
+        <f t="shared" si="18"/>
+        <v>DCCDCD</v>
+      </c>
+    </row>
+    <row r="638" spans="12:12">
+      <c r="L638" t="str">
+        <f t="shared" si="18"/>
+        <v>BDCDCD</v>
+      </c>
+    </row>
+    <row r="639" spans="12:12">
+      <c r="L639" t="str">
+        <f t="shared" si="18"/>
+        <v>CDCDCD</v>
+      </c>
+    </row>
+    <row r="640" spans="12:12">
+      <c r="L640" t="str">
+        <f t="shared" si="18"/>
+        <v>DDCDCD</v>
+      </c>
+    </row>
+    <row r="641" spans="12:13">
+      <c r="L641" t="str">
+        <f t="shared" si="18"/>
+        <v>BBDDCD</v>
+      </c>
+      <c r="M641" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="642" spans="12:13">
+      <c r="L642" t="str">
+        <f t="shared" si="18"/>
+        <v>CBDDCD</v>
+      </c>
+    </row>
+    <row r="643" spans="12:13">
+      <c r="L643" t="str">
+        <f t="shared" ref="L643:L706" si="19">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>DBDDCD</v>
+      </c>
+    </row>
+    <row r="644" spans="12:13">
+      <c r="L644" t="str">
+        <f t="shared" si="19"/>
+        <v>BCDDCD</v>
+      </c>
+    </row>
+    <row r="645" spans="12:13">
+      <c r="L645" t="str">
+        <f t="shared" si="19"/>
+        <v>CCDDCD</v>
+      </c>
+    </row>
+    <row r="646" spans="12:13">
+      <c r="L646" t="str">
+        <f t="shared" si="19"/>
+        <v>DCDDCD</v>
+      </c>
+    </row>
+    <row r="647" spans="12:13">
+      <c r="L647" t="str">
+        <f t="shared" si="19"/>
+        <v>BDDDCD</v>
+      </c>
+    </row>
+    <row r="648" spans="12:13">
+      <c r="L648" t="str">
+        <f t="shared" si="19"/>
+        <v>CDDDCD</v>
+      </c>
+    </row>
+    <row r="649" spans="12:13">
+      <c r="L649" t="str">
+        <f t="shared" si="19"/>
+        <v>DDDDCD</v>
+      </c>
+    </row>
+    <row r="650" spans="12:13">
+      <c r="L650" t="str">
+        <f t="shared" si="19"/>
+        <v>BBBBDD</v>
+      </c>
+    </row>
+    <row r="651" spans="12:13">
+      <c r="L651" t="str">
+        <f t="shared" si="19"/>
+        <v>CBBBDD</v>
+      </c>
+    </row>
+    <row r="652" spans="12:13">
+      <c r="L652" t="str">
+        <f t="shared" si="19"/>
+        <v>DBBBDD</v>
+      </c>
+    </row>
+    <row r="653" spans="12:13">
+      <c r="L653" t="str">
+        <f t="shared" si="19"/>
+        <v>BCBBDD</v>
+      </c>
+    </row>
+    <row r="654" spans="12:13">
+      <c r="L654" t="str">
+        <f t="shared" si="19"/>
+        <v>CCBBDD</v>
+      </c>
+    </row>
+    <row r="655" spans="12:13">
+      <c r="L655" t="str">
+        <f t="shared" si="19"/>
+        <v>DCBBDD</v>
+      </c>
+    </row>
+    <row r="656" spans="12:13">
+      <c r="L656" t="str">
+        <f t="shared" si="19"/>
+        <v>BDBBDD</v>
+      </c>
+    </row>
+    <row r="657" spans="12:12">
+      <c r="L657" t="str">
+        <f t="shared" si="19"/>
+        <v>CDBBDD</v>
+      </c>
+    </row>
+    <row r="658" spans="12:12">
+      <c r="L658" t="str">
+        <f t="shared" si="19"/>
+        <v>DDBBDD</v>
+      </c>
+    </row>
+    <row r="659" spans="12:12">
+      <c r="L659" t="str">
+        <f t="shared" si="19"/>
+        <v>BBCBDD</v>
+      </c>
+    </row>
+    <row r="660" spans="12:12">
+      <c r="L660" t="str">
+        <f t="shared" si="19"/>
+        <v>CBCBDD</v>
+      </c>
+    </row>
+    <row r="661" spans="12:12">
+      <c r="L661" t="str">
+        <f t="shared" si="19"/>
+        <v>DBCBDD</v>
+      </c>
+    </row>
+    <row r="662" spans="12:12">
+      <c r="L662" t="str">
+        <f t="shared" si="19"/>
+        <v>BCCBDD</v>
+      </c>
+    </row>
+    <row r="663" spans="12:12">
+      <c r="L663" t="str">
+        <f t="shared" si="19"/>
+        <v>CCCBDD</v>
+      </c>
+    </row>
+    <row r="664" spans="12:12">
+      <c r="L664" t="str">
+        <f t="shared" si="19"/>
+        <v>DCCBDD</v>
+      </c>
+    </row>
+    <row r="665" spans="12:12">
+      <c r="L665" t="str">
+        <f t="shared" si="19"/>
+        <v>BDCBDD</v>
+      </c>
+    </row>
+    <row r="666" spans="12:12">
+      <c r="L666" t="str">
+        <f t="shared" si="19"/>
+        <v>CDCBDD</v>
+      </c>
+    </row>
+    <row r="667" spans="12:12">
+      <c r="L667" t="str">
+        <f t="shared" si="19"/>
+        <v>DDCBDD</v>
+      </c>
+    </row>
+    <row r="668" spans="12:12">
+      <c r="L668" t="str">
+        <f t="shared" si="19"/>
+        <v>BBDBDD</v>
+      </c>
+    </row>
+    <row r="669" spans="12:12">
+      <c r="L669" t="str">
+        <f t="shared" si="19"/>
+        <v>CBDBDD</v>
+      </c>
+    </row>
+    <row r="670" spans="12:12">
+      <c r="L670" t="str">
+        <f t="shared" si="19"/>
+        <v>DBDBDD</v>
+      </c>
+    </row>
+    <row r="671" spans="12:12">
+      <c r="L671" t="str">
+        <f t="shared" si="19"/>
+        <v>BCDBDD</v>
+      </c>
+    </row>
+    <row r="672" spans="12:12">
+      <c r="L672" t="str">
+        <f t="shared" si="19"/>
+        <v>CCDBDD</v>
+      </c>
+    </row>
+    <row r="673" spans="12:12">
+      <c r="L673" t="str">
+        <f t="shared" si="19"/>
+        <v>DCDBDD</v>
+      </c>
+    </row>
+    <row r="674" spans="12:12">
+      <c r="L674" t="str">
+        <f t="shared" si="19"/>
+        <v>BDDBDD</v>
+      </c>
+    </row>
+    <row r="675" spans="12:12">
+      <c r="L675" t="str">
+        <f t="shared" si="19"/>
+        <v>CDDBDD</v>
+      </c>
+    </row>
+    <row r="676" spans="12:12">
+      <c r="L676" t="str">
+        <f t="shared" si="19"/>
+        <v>DDDBDD</v>
+      </c>
+    </row>
+    <row r="677" spans="12:12">
+      <c r="L677" t="str">
+        <f t="shared" si="19"/>
+        <v>BBBCDD</v>
+      </c>
+    </row>
+    <row r="678" spans="12:12">
+      <c r="L678" t="str">
+        <f t="shared" si="19"/>
+        <v>CBBCDD</v>
+      </c>
+    </row>
+    <row r="679" spans="12:12">
+      <c r="L679" t="str">
+        <f t="shared" si="19"/>
+        <v>DBBCDD</v>
+      </c>
+    </row>
+    <row r="680" spans="12:12">
+      <c r="L680" t="str">
+        <f t="shared" si="19"/>
+        <v>BCBCDD</v>
+      </c>
+    </row>
+    <row r="681" spans="12:12">
+      <c r="L681" t="str">
+        <f t="shared" si="19"/>
+        <v>CCBCDD</v>
+      </c>
+    </row>
+    <row r="682" spans="12:12">
+      <c r="L682" t="str">
+        <f t="shared" si="19"/>
+        <v>DCBCDD</v>
+      </c>
+    </row>
+    <row r="683" spans="12:12">
+      <c r="L683" t="str">
+        <f t="shared" si="19"/>
+        <v>BDBCDD</v>
+      </c>
+    </row>
+    <row r="684" spans="12:12">
+      <c r="L684" t="str">
+        <f t="shared" si="19"/>
+        <v>CDBCDD</v>
+      </c>
+    </row>
+    <row r="685" spans="12:12">
+      <c r="L685" t="str">
+        <f t="shared" si="19"/>
+        <v>DDBCDD</v>
+      </c>
+    </row>
+    <row r="686" spans="12:12">
+      <c r="L686" t="str">
+        <f t="shared" si="19"/>
+        <v>BBCCDD</v>
+      </c>
+    </row>
+    <row r="687" spans="12:12">
+      <c r="L687" t="str">
+        <f t="shared" si="19"/>
+        <v>CBCCDD</v>
+      </c>
+    </row>
+    <row r="688" spans="12:12">
+      <c r="L688" t="str">
+        <f t="shared" si="19"/>
+        <v>DBCCDD</v>
+      </c>
+    </row>
+    <row r="689" spans="12:12">
+      <c r="L689" t="str">
+        <f t="shared" si="19"/>
+        <v>BCCCDD</v>
+      </c>
+    </row>
+    <row r="690" spans="12:12">
+      <c r="L690" t="str">
+        <f t="shared" si="19"/>
+        <v>CCCCDD</v>
+      </c>
+    </row>
+    <row r="691" spans="12:12">
+      <c r="L691" t="str">
+        <f t="shared" si="19"/>
+        <v>DCCCDD</v>
+      </c>
+    </row>
+    <row r="692" spans="12:12">
+      <c r="L692" t="str">
+        <f t="shared" si="19"/>
+        <v>BDCCDD</v>
+      </c>
+    </row>
+    <row r="693" spans="12:12">
+      <c r="L693" t="str">
+        <f t="shared" si="19"/>
+        <v>CDCCDD</v>
+      </c>
+    </row>
+    <row r="694" spans="12:12">
+      <c r="L694" t="str">
+        <f t="shared" si="19"/>
+        <v>DDCCDD</v>
+      </c>
+    </row>
+    <row r="695" spans="12:12">
+      <c r="L695" t="str">
+        <f t="shared" si="19"/>
+        <v>BBDCDD</v>
+      </c>
+    </row>
+    <row r="696" spans="12:12">
+      <c r="L696" t="str">
+        <f t="shared" si="19"/>
+        <v>CBDCDD</v>
+      </c>
+    </row>
+    <row r="697" spans="12:12">
+      <c r="L697" t="str">
+        <f t="shared" si="19"/>
+        <v>DBDCDD</v>
+      </c>
+    </row>
+    <row r="698" spans="12:12">
+      <c r="L698" t="str">
+        <f t="shared" si="19"/>
+        <v>BCDCDD</v>
+      </c>
+    </row>
+    <row r="699" spans="12:12">
+      <c r="L699" t="str">
+        <f t="shared" si="19"/>
+        <v>CCDCDD</v>
+      </c>
+    </row>
+    <row r="700" spans="12:12">
+      <c r="L700" t="str">
+        <f t="shared" si="19"/>
+        <v>DCDCDD</v>
+      </c>
+    </row>
+    <row r="701" spans="12:12">
+      <c r="L701" t="str">
+        <f t="shared" si="19"/>
+        <v>BDDCDD</v>
+      </c>
+    </row>
+    <row r="702" spans="12:12">
+      <c r="L702" t="str">
+        <f t="shared" si="19"/>
+        <v>CDDCDD</v>
+      </c>
+    </row>
+    <row r="703" spans="12:12">
+      <c r="L703" t="str">
+        <f t="shared" si="19"/>
+        <v>DDDCDD</v>
+      </c>
+    </row>
+    <row r="704" spans="12:12">
+      <c r="L704" t="str">
+        <f t="shared" si="19"/>
+        <v>BBBDDD</v>
+      </c>
+    </row>
+    <row r="705" spans="12:12">
+      <c r="L705" t="str">
+        <f t="shared" si="19"/>
+        <v>CBBDDD</v>
+      </c>
+    </row>
+    <row r="706" spans="12:12">
+      <c r="L706" t="str">
+        <f t="shared" si="19"/>
+        <v>DBBDDD</v>
+      </c>
+    </row>
+    <row r="707" spans="12:12">
+      <c r="L707" t="str">
+        <f t="shared" ref="L707:L735" si="20">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <v>BCBDDD</v>
+      </c>
+    </row>
+    <row r="708" spans="12:12">
+      <c r="L708" t="str">
+        <f t="shared" si="20"/>
+        <v>CCBDDD</v>
+      </c>
+    </row>
+    <row r="709" spans="12:12">
+      <c r="L709" t="str">
+        <f t="shared" si="20"/>
+        <v>DCBDDD</v>
+      </c>
+    </row>
+    <row r="710" spans="12:12">
+      <c r="L710" t="str">
+        <f t="shared" si="20"/>
+        <v>BDBDDD</v>
+      </c>
+    </row>
+    <row r="711" spans="12:12">
+      <c r="L711" t="str">
+        <f t="shared" si="20"/>
+        <v>CDBDDD</v>
+      </c>
+    </row>
+    <row r="712" spans="12:12">
+      <c r="L712" t="str">
+        <f t="shared" si="20"/>
+        <v>DDBDDD</v>
+      </c>
+    </row>
+    <row r="713" spans="12:12">
+      <c r="L713" t="str">
+        <f t="shared" si="20"/>
+        <v>BBCDDD</v>
+      </c>
+    </row>
+    <row r="714" spans="12:12">
+      <c r="L714" t="str">
+        <f t="shared" si="20"/>
+        <v>CBCDDD</v>
+      </c>
+    </row>
+    <row r="715" spans="12:12">
+      <c r="L715" t="str">
+        <f t="shared" si="20"/>
+        <v>DBCDDD</v>
+      </c>
+    </row>
+    <row r="716" spans="12:12">
+      <c r="L716" t="str">
+        <f t="shared" si="20"/>
+        <v>BCCDDD</v>
+      </c>
+    </row>
+    <row r="717" spans="12:12">
+      <c r="L717" t="str">
+        <f t="shared" si="20"/>
+        <v>CCCDDD</v>
+      </c>
+    </row>
+    <row r="718" spans="12:12">
+      <c r="L718" t="str">
+        <f t="shared" si="20"/>
+        <v>DCCDDD</v>
+      </c>
+    </row>
+    <row r="719" spans="12:12">
+      <c r="L719" t="str">
+        <f t="shared" si="20"/>
+        <v>BDCDDD</v>
+      </c>
+    </row>
+    <row r="720" spans="12:12">
+      <c r="L720" t="str">
+        <f t="shared" si="20"/>
+        <v>CDCDDD</v>
+      </c>
+    </row>
+    <row r="721" spans="12:13">
+      <c r="L721" t="str">
+        <f t="shared" si="20"/>
+        <v>DDCDDD</v>
+      </c>
+    </row>
+    <row r="722" spans="12:13">
+      <c r="L722" t="str">
+        <f t="shared" si="20"/>
+        <v>BBDDDD</v>
+      </c>
+    </row>
+    <row r="723" spans="12:13">
+      <c r="L723" t="str">
+        <f t="shared" si="20"/>
+        <v>CBDDDD</v>
+      </c>
+    </row>
+    <row r="724" spans="12:13">
+      <c r="L724" t="str">
+        <f t="shared" si="20"/>
+        <v>DBDDDD</v>
+      </c>
+    </row>
+    <row r="725" spans="12:13">
+      <c r="L725" t="str">
+        <f t="shared" si="20"/>
+        <v>BCDDDD</v>
+      </c>
+    </row>
+    <row r="726" spans="12:13">
+      <c r="L726" t="str">
+        <f t="shared" si="20"/>
+        <v>CCDDDD</v>
+      </c>
+    </row>
+    <row r="727" spans="12:13">
+      <c r="L727" t="str">
+        <f t="shared" si="20"/>
+        <v>DCDDDD</v>
+      </c>
+    </row>
+    <row r="728" spans="12:13">
+      <c r="L728" t="str">
+        <f t="shared" si="20"/>
+        <v>BDDDDD</v>
+      </c>
+    </row>
+    <row r="729" spans="12:13">
+      <c r="L729" t="str">
+        <f t="shared" si="20"/>
+        <v>CDDDDD</v>
+      </c>
+    </row>
+    <row r="730" spans="12:13">
+      <c r="L730" t="str">
+        <f t="shared" si="20"/>
+        <v>DDDDDD</v>
+      </c>
+      <c r="M730" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="M642:M1048576 N1:XFD1048576 M1:M316 M318:M640 A1:L1048576">
+    <cfRule type="cellIs" dxfId="1" priority="0" stopIfTrue="1" operator="equal">
+      <formula>"VOID"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="0" stopIfTrue="1" operator="equal">
+      <formula>"LETHAL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/ideas/creatureFeatures.xlsx
+++ b/ideas/creatureFeatures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25440" windowHeight="14620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25440" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
   <si>
+    <t>visionCapHighLight=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visionCapHighLight=0; visionCapLowLight=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visionCapHighLight=5; defenseSkill-=1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visionCapHighLight=3; visionCapLowLight=3; defenseSkill+=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visionCapHighLight=1; visionCapLowLight=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision one spot around in high intensity light. Enable far way vision in low intensity light.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ageDamage = 2 at birth; when age &gt; lifeExpectancy: for each turn: ageDamage += ceil(ageDamage / 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age does not have any impact on health but sickly creature who cannot reproduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low maximum health. Cannot reproduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth &lt; 25; maxBabies = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates own light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates own super powerful light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify environment -&gt; Turn dark into light one spot around. Looses energy faster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify environment -&gt; Turn dark into light in the full vision field. Looses energy very fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glowy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slower creature but old age has very little impact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loses health very slowly once life expectancy is over. Reduced movement abilities from birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ageDamage = 2; movementCap -= 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A pair of moustaches to sense the air, cumulative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A pair of long moustaches to sense the air far away. Cumulative but too many are an hindrance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some aesthetic characteristic with no impact on fitness, cumulative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some aesthetic characteristic with no impact on fitness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sporadic aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old has a very random impact on creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable far away vision in high intensity light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision a few spots around in high intensity light. More damage if attacked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision a few spots around in high and low intensity light. Less damage when attacked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No impact on fitness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCBCBB</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The longer the gene, the longer the life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length of gene determines life expectancy, after which health decreases at each turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D, DD, DDD, DDDD, DDDDD, DDDDDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loses health very quickly once life expectancy is over</t>
+  </si>
+  <si>
+    <t>Sick when old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ageDamage = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LETHAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very slow aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lethal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBCD, BBBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moustaches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long moustaches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movesenseCap = 1; movesenseProb += 0.1 per pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movesenseCap = 3; movesenseProb += 0.1 per pair; visionCap -= 2 if more than 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular vision in all lights, protection from attacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Vision not affected by night one spot away from creature; energyLoss += 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,119 +376,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ageDamage = 2 at birth; when age &gt; lifeExpectancy: for each turn: ageDamage += ceil(ageDamage / 2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBDDCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No aging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age does not have any impact on health but sickly creature who cannot reproduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low maximum health. Cannot reproduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHealth &lt; 25; maxBabies = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBDDDB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creates own light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LI2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creates own super powerful light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify environment -&gt; Turn dark into light one spot around. Looses energy faster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify environment -&gt; Turn dark into light in the full vision field. Looses energy very fast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glowy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shiny</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slower creature but old age has very little impact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loses health very slowly once life expectancy is over. Reduced movement abilities from birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ageDamage = 2; movementCap -= 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBDDBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A pair of moustaches to sense the air, cumulative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A pair of long moustaches to sense the air far away. Cumulative but too many are an hindrance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Some aesthetic characteristic with no impact on fitness, cumulative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Some aesthetic characteristic with no impact on fitness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sporadic aging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Old has a very random impact on creature</t>
+    <t>Good vision but susceptible to attacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad day vision but terrific night vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Narrative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short hairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long hairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functional description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better for cold weather, slow dow creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulation modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Representation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short hairs on creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long hairs on creature + rustling sounds when moving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Files (art, details…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better for mild to cold weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharp eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best day vision</t>
+  </si>
+  <si>
+    <t>Blind eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eyes that do not work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-functional eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entirely white eyes?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globular eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shuttered eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can sense moving things one spot around. Can have multiple of them for improved sensitivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can sense moving things a few spots around. Can have multiple of them for improved sensitivity. Too many cause diminished vision</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,347 +580,6 @@
   </si>
   <si>
     <t>Pretty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PR1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No impact on fitness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fancy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FA1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCBCBB</t>
-  </si>
-  <si>
-    <t>Lifetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LT1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The longer the gene, the longer the life</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length of gene determines life expectancy, after which health decreases at each turn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D, DD, DDD, DDDD, DDDDD, DDDDDD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fast aging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loses health very quickly once life expectancy is over</t>
-  </si>
-  <si>
-    <t>Sick when old</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ageDamage = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBDDCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LETHAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Very slow aging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lethal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBBB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBDD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBBC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBCD, BBBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EY2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moustaches</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long moustaches</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can sense moving things one spot around. Can have multiple of them for improve sensitivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can sense moving things a few spots around. Can have multiple of them for improve sensitivity. Too many cause diminished vision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movesenseCap = 1; movesenseProb += 0.1 per pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movesenseCap = 3; movesenseProb += 0.1 per pair; visionCap -= 2 if more than 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Regular vision in all lights, protection from attacks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can see all objects, far away, in day light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can see a few spots around, all objects, in day light. More damage if attacked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can see a few spots around, all objects, in all light. Less damage when attacked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visionCap=5; defenseSkill-=1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good vision but susceptible to attacks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red eyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EY5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bad day vision but terrific night vision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visionCap=3; defenseSkill+=1; nightVisionMult = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can see one spot around in day light, all objects, can see all object far away in night light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visionCap=1; nightVisionMutl=8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EX1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Narrative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Short hairs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Example long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EX2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long hairs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functional description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Better for cold weather, slow dow creature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simulation modifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Representation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Short hairs on creature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long hairs on creature + rustling sounds when moving</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Files (art, details…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Better for mild to cold weather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sharp eyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Best day vision</t>
-  </si>
-  <si>
-    <t>visionCap=8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blind eyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EY2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eyes that do not work</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-functional eyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visionCap=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entirely white eyes?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Globular eyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EY3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shuttered eyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EY4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +653,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -663,41 +663,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1035,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1053,429 +1018,428 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="14" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="14" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1491,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P730"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1508,7 +1472,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1529,42 +1493,42 @@
         <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="O1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)))</f>
         <v>BB</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)) )</f>
         <v>BBB</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)), IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)) )</f>
         <v>BBBB</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)) )</f>
@@ -1589,20 +1553,20 @@
     </row>
     <row r="3" spans="1:16">
       <c r="B3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D9" si="0">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)))</f>
         <v>CB</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F36" si="1">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)) )</f>
+        <f t="shared" ref="F3:F27" si="1">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)) )</f>
         <v>CBB</v>
       </c>
       <c r="H3" t="str">
@@ -1620,17 +1584,17 @@
     </row>
     <row r="4" spans="1:16">
       <c r="B4" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>DB</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
@@ -1655,7 +1619,7 @@
         <v>BC</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
@@ -1666,14 +1630,14 @@
         <v>BCBB</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
         <v>BCBBB</v>
       </c>
       <c r="K5" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="4"/>
@@ -1686,7 +1650,7 @@
         <v>CC</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
@@ -1711,7 +1675,7 @@
         <v>DC</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -1736,7 +1700,7 @@
         <v>BD</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -1761,7 +1725,7 @@
         <v>CD</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
@@ -1786,7 +1750,7 @@
         <v>DD</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
@@ -1811,7 +1775,7 @@
         <v>BBC</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="2"/>
@@ -1872,14 +1836,14 @@
         <v>BCCB</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="3"/>
         <v>BCCBB</v>
       </c>
       <c r="K14" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="4"/>
@@ -1982,7 +1946,7 @@
         <v>BBD</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="2"/>
@@ -2043,14 +2007,14 @@
         <v>BCDB</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="3"/>
         <v>BCDBB</v>
       </c>
       <c r="K23" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="4"/>
@@ -2135,7 +2099,7 @@
         <v>DDD</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="2"/>
@@ -2156,7 +2120,7 @@
         <v>BBBC</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="3"/>
@@ -2209,7 +2173,7 @@
         <v>BCBCBB</v>
       </c>
       <c r="M32" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="8:12">
@@ -2288,7 +2252,7 @@
         <v>BBCC</v>
       </c>
       <c r="I38" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="3"/>
@@ -2463,7 +2427,7 @@
         <v>BCDCB</v>
       </c>
       <c r="K50" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="4"/>
@@ -2546,7 +2510,7 @@
         <v>BBBD</v>
       </c>
       <c r="I56" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="3"/>
@@ -2675,7 +2639,7 @@
         <v>BBCD</v>
       </c>
       <c r="I65" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="3"/>
@@ -2804,7 +2768,7 @@
         <v>BBDD</v>
       </c>
       <c r="I74" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="6"/>
@@ -2919,7 +2883,7 @@
         <v>DDDD</v>
       </c>
       <c r="I82" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="6"/>
@@ -4470,7 +4434,7 @@
         <v>BBDDDB</v>
       </c>
       <c r="M236" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="10:13">
@@ -4549,7 +4513,7 @@
         <v>DDDDD</v>
       </c>
       <c r="K244" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="L244" t="str">
         <f t="shared" si="11"/>
@@ -4558,7 +4522,7 @@
     </row>
     <row r="245" spans="10:12">
       <c r="L245" t="str">
-        <f t="shared" ref="L195:L258" si="12">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <f t="shared" ref="L245:L258" si="12">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
         <v>BBBBBC</v>
       </c>
     </row>
@@ -4994,7 +4958,7 @@
         <v>BBDDBC</v>
       </c>
       <c r="M317" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="318" spans="12:13">
@@ -5483,7 +5447,7 @@
         <v>BBDDCC</v>
       </c>
       <c r="M398" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="399" spans="12:13">
@@ -6458,7 +6422,7 @@
         <v>BBDDBD</v>
       </c>
       <c r="M560" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="561" spans="12:12">
@@ -6947,7 +6911,7 @@
         <v>BBDDCD</v>
       </c>
       <c r="M641" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
     </row>
     <row r="642" spans="12:13">
@@ -7342,7 +7306,7 @@
     </row>
     <row r="707" spans="12:12">
       <c r="L707" t="str">
-        <f t="shared" ref="L707:L735" si="20">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
+        <f t="shared" ref="L707:L730" si="20">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
         <v>BCBDDD</v>
       </c>
     </row>
@@ -7484,11 +7448,10 @@
         <v>DDDDDD</v>
       </c>
       <c r="M730" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M642:M1048576 N1:XFD1048576 M1:M316 M318:M640 A1:L1048576">
     <cfRule type="cellIs" dxfId="1" priority="0" stopIfTrue="1" operator="equal">

--- a/ideas/creatureFeatures.xlsx
+++ b/ideas/creatureFeatures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25440" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25440" windowHeight="14620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,566 +20,793 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="199">
+  <si>
+    <t>Example long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long hairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functional description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better for cold weather, slow dow creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulation modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Representation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short hairs on creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long hairs on creature + rustling sounds when moving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Files (art, details…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better for mild to cold weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharp eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best day vision</t>
+  </si>
+  <si>
+    <t>Blind eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eyes that do not work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-functional eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entirely white eyes?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globular eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shuttered eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can sense moving things one spot around. Can have multiple of them for improved sensitivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can sense moving things a few spots around. Can have multiple of them for improved sensitivity. Too many cause diminished vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ageDamage in [5, 50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix the age damage randomly at birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progressive aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creature becomes sicker as it ages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loses more and more health each turn once life expectancy is over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB, BC, BD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pretty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCCDBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCDDBB, BCBDBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCCDBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBBCDB, DCCCDB, DDDCDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCBDBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision a few spots around in high and low intensity light. Less damage when attacked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No impact on fitness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCBCBB</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The longer the gene, the longer the life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length of gene determines life expectancy, after which health decreases at each turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D, DD, DDD, DDDD, DDDDD, DDDDDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loses health very quickly once life expectancy is over</t>
+  </si>
+  <si>
+    <t>Sick when old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ageDamage = 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LETHAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very slow aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lethal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBCD, BBBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moustaches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long moustaches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movesenseCap = 1; movesenseProb += 0.1 per pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movesenseCap = 3; movesenseProb += 0.1 per pair; visionCap -= 2 if more than 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular vision in all lights, protection from attacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision not affected by night one spot away from creature; energyLoss += 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision not affected by night; energyLoss += 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCDBB, BCCBB, BCBBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCDCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blushy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates very low light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Looses very little energy to sustain the light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyLoss += 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCDB, BCCB, BCBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeExpectancy = 15*length of gene; when age &gt; lifeExpectancy: for each turn: health -= ageDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good vision but susceptible to attacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EY5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad day vision but terrific night vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Narrative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short hairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visionCapHighLight=5; defenseSkill-=1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visionCapHighLight=3; visionCapLowLight=3; defenseSkill+=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visionCapHighLight=1; visionCapLowLight=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision one spot around in high intensity light. Enable far way vision in low intensity light.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify environment -&gt; Turn low into high intensity light one spot around. Looses energy faster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify environment -&gt; Turn  low into high intensity light in the full vision field. Looses energy very fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rainbow eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can see all colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ageDamage = 2 at birth; when age &gt; lifeExpectancy: for each turn: ageDamage += ceil(ageDamage / 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age does not have any impact on health but sickly creature who cannot reproduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low maximum health. Cannot reproduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHealth &lt; 25; maxBabies = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates own light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates own super powerful light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glowy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slower creature but old age has very little impact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loses health very slowly once life expectancy is over. Reduced movement abilities from birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ageDamage = 2; movementCap -= 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBDDBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A pair of moustaches to sense the air, cumulative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A pair of long moustaches to sense the air far away. Cumulative but too many are an hindrance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some aesthetic characteristic with no impact on fitness, cumulative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some aesthetic characteristic with no impact on fitness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sporadic aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old has a very random impact on creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable far away vision in high intensity light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision a few spots around in high intensity light. More damage if attacked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorVision = [(3, 5), (-1, -1), (-1, -1)]; Red capped (lower) at 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorVision = [(0, 3), (0, 3), (0, 3)]; all colors capped (upper) at 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision for green and low levels and red and blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorVision = [(0, 1), (0, 2), (0, 5)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCDBB, CCCDBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCCDBB</t>
+  </si>
+  <si>
+    <t>VI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDCDBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision for mid levels of blue and green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorVision = [(-1, -1), (1, 3), (2, 4)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aubergine eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI3</t>
+  </si>
+  <si>
+    <t>VI4</t>
+  </si>
+  <si>
+    <t>VI5</t>
+  </si>
+  <si>
+    <t>VI6</t>
+  </si>
+  <si>
+    <t>Can see blue and green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can see red and some blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision for high levels of red and low levels of blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorVision = [(3, 5), (-1, -1), (0, 2)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can see very high and very low levels of red, blue and green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision for very high and very low levels of red, blue and green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorVision = [(0, 1)U(4,5), (0, 1)U(4,5), (0, 1)U(4,5)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pasture eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VI8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can see green and low levels of red and blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorVision = [(-1, -1), (-1, -1), (0, 5)]; block red and green values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision for all colors. Looses energy faster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorVision = [(0, 5), (0, 5), (0, 5)]; energyLoss += 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ocean eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can only see blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision for blue. Stops all colors.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baby eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can only see lower levels of colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision for all colors but stops high levels of colors.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red blood eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Night eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can only see high levels of red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable vision for high level of red, stops low levels of red.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turquoise eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>visionCapHighLight=8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>visionCapHighLight=0; visionCapLowLight=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visionCapHighLight=5; defenseSkill-=1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visionCapHighLight=3; visionCapLowLight=3; defenseSkill+=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visionCapHighLight=1; visionCapLowLight=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable vision one spot around in high intensity light. Enable far way vision in low intensity light.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ageDamage = 2 at birth; when age &gt; lifeExpectancy: for each turn: ageDamage += ceil(ageDamage / 2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBDDCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No aging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age does not have any impact on health but sickly creature who cannot reproduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low maximum health. Cannot reproduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHealth &lt; 25; maxBabies = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBDDDB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creates own light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LI2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creates own super powerful light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify environment -&gt; Turn dark into light one spot around. Looses energy faster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify environment -&gt; Turn dark into light in the full vision field. Looses energy very fast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glowy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shiny</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slower creature but old age has very little impact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loses health very slowly once life expectancy is over. Reduced movement abilities from birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ageDamage = 2; movementCap -= 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBDDBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A pair of moustaches to sense the air, cumulative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A pair of long moustaches to sense the air far away. Cumulative but too many are an hindrance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Some aesthetic characteristic with no impact on fitness, cumulative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Some aesthetic characteristic with no impact on fitness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sporadic aging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Old has a very random impact on creature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable far away vision in high intensity light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable vision a few spots around in high intensity light. More damage if attacked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable vision a few spots around in high and low intensity light. Less damage when attacked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PR1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No impact on fitness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fancy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FA1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCBCBB</t>
-  </si>
-  <si>
-    <t>Lifetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LT1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The longer the gene, the longer the life</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length of gene determines life expectancy, after which health decreases at each turn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D, DD, DDD, DDDD, DDDDD, DDDDDD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fast aging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loses health very quickly once life expectancy is over</t>
-  </si>
-  <si>
-    <t>Sick when old</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ageDamage = 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBDDCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LETHAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Very slow aging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lethal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBBB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBDD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBBC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBCD, BBBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EY2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moustaches</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long moustaches</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movesenseCap = 1; movesenseProb += 0.1 per pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movesenseCap = 3; movesenseProb += 0.1 per pair; visionCap -= 2 if more than 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Regular vision in all lights, protection from attacks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vision not affected by night one spot away from creature; energyLoss += 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vision not affected by night; energyLoss += 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCDBB, BCCBB, BCBBB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LT2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCDCB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blushy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LI3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creates very low light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Looses very little energy to sustain the light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>energyLoss += 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCDB, BCCB, BCBB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LI3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lifeExpectancy = 15*length of gene; when age &gt; lifeExpectancy: for each turn: health -= ageDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good vision but susceptible to attacks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red eyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EY5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bad day vision but terrific night vision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EX1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Narrative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Short hairs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Example long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EX2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long hairs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functional description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Better for cold weather, slow dow creature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simulation modifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Representation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Short hairs on creature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long hairs on creature + rustling sounds when moving</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Files (art, details…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Better for mild to cold weather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sharp eyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Best day vision</t>
-  </si>
-  <si>
-    <t>Blind eyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EY2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eyes that do not work</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-functional eyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entirely white eyes?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Globular eyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EY3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shuttered eyes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EY4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can sense moving things one spot around. Can have multiple of them for improved sensitivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can sense moving things a few spots around. Can have multiple of them for improved sensitivity. Too many cause diminished vision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ageDamage in [5, 50]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix the age damage randomly at birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBDDBC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Progressive aging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AG4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creature becomes sicker as it ages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loses more and more health each turn once life expectancy is over</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BB, BC, BD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pretty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -998,448 +1225,609 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView view="pageLayout" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="14" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="14" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" t="s">
-        <v>86</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1455,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P730"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="M306" sqref="M306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1472,7 +1860,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1493,42 +1881,42 @@
         <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="O1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)))</f>
         <v>BB</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)) )</f>
         <v>BBB</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)), IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)) )</f>
         <v>BBBB</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)) )</f>
@@ -1548,22 +1936,22 @@
       </c>
       <c r="P2">
         <f>COUNTIF($C$2:$C$4,"*")+O2+COUNTIF($E$2:$E$10,"*")+COUNTIF($G$2:$G$28,"*")+COUNTIF($I$2:$I$82,"*")+COUNTIF($K$2:$K$244,"*")+COUNTIF($M$2:$M$730,"*") - N2 - O2</f>
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D9" si="0">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)))</f>
         <v>CB</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F27" si="1">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)) )</f>
@@ -1584,17 +1972,17 @@
     </row>
     <row r="4" spans="1:16">
       <c r="B4" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>DB</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
@@ -1619,7 +2007,7 @@
         <v>BC</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
@@ -1630,14 +2018,14 @@
         <v>BCBB</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
         <v>BCBBB</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="4"/>
@@ -1650,7 +2038,7 @@
         <v>CC</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
@@ -1675,7 +2063,7 @@
         <v>DC</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -1700,7 +2088,7 @@
         <v>BD</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -1725,7 +2113,7 @@
         <v>CD</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
@@ -1750,7 +2138,7 @@
         <v>DD</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
@@ -1775,7 +2163,7 @@
         <v>BBC</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="2"/>
@@ -1836,14 +2224,14 @@
         <v>BCCB</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="3"/>
         <v>BCCBB</v>
       </c>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="4"/>
@@ -1946,7 +2334,7 @@
         <v>BBD</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="2"/>
@@ -2007,14 +2395,14 @@
         <v>BCDB</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="3"/>
         <v>BCDBB</v>
       </c>
       <c r="K23" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="4"/>
@@ -2099,7 +2487,7 @@
         <v>DDD</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="2"/>
@@ -2120,7 +2508,7 @@
         <v>BBBC</v>
       </c>
       <c r="I29" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="3"/>
@@ -2173,7 +2561,7 @@
         <v>BCBCBB</v>
       </c>
       <c r="M32" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="8:12">
@@ -2252,7 +2640,7 @@
         <v>BBCC</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="3"/>
@@ -2403,7 +2791,7 @@
         <v>CBDCBB</v>
       </c>
     </row>
-    <row r="49" spans="8:12">
+    <row r="49" spans="8:13">
       <c r="H49" t="str">
         <f t="shared" si="2"/>
         <v>DBDC</v>
@@ -2417,7 +2805,7 @@
         <v>DBDCBB</v>
       </c>
     </row>
-    <row r="50" spans="8:12">
+    <row r="50" spans="8:13">
       <c r="H50" t="str">
         <f t="shared" si="2"/>
         <v>BCDC</v>
@@ -2427,14 +2815,14 @@
         <v>BCDCB</v>
       </c>
       <c r="K50" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="4"/>
         <v>BCDCBB</v>
       </c>
     </row>
-    <row r="51" spans="8:12">
+    <row r="51" spans="8:13">
       <c r="H51" t="str">
         <f t="shared" si="2"/>
         <v>CCDC</v>
@@ -2448,7 +2836,7 @@
         <v>CCDCBB</v>
       </c>
     </row>
-    <row r="52" spans="8:12">
+    <row r="52" spans="8:13">
       <c r="H52" t="str">
         <f t="shared" si="2"/>
         <v>DCDC</v>
@@ -2462,7 +2850,7 @@
         <v>DCDCBB</v>
       </c>
     </row>
-    <row r="53" spans="8:12">
+    <row r="53" spans="8:13">
       <c r="H53" t="str">
         <f t="shared" si="2"/>
         <v>BDDC</v>
@@ -2476,7 +2864,7 @@
         <v>BDDCBB</v>
       </c>
     </row>
-    <row r="54" spans="8:12">
+    <row r="54" spans="8:13">
       <c r="H54" t="str">
         <f t="shared" si="2"/>
         <v>CDDC</v>
@@ -2490,7 +2878,7 @@
         <v>CDDCBB</v>
       </c>
     </row>
-    <row r="55" spans="8:12">
+    <row r="55" spans="8:13">
       <c r="H55" t="str">
         <f t="shared" si="2"/>
         <v>DDDC</v>
@@ -2504,13 +2892,13 @@
         <v>DDDCBB</v>
       </c>
     </row>
-    <row r="56" spans="8:12">
+    <row r="56" spans="8:13">
       <c r="H56" t="str">
         <f t="shared" si="2"/>
         <v>BBBD</v>
       </c>
       <c r="I56" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="3"/>
@@ -2521,7 +2909,7 @@
         <v>BBBDBB</v>
       </c>
     </row>
-    <row r="57" spans="8:12">
+    <row r="57" spans="8:13">
       <c r="H57" t="str">
         <f t="shared" si="2"/>
         <v>CBBD</v>
@@ -2535,7 +2923,7 @@
         <v>CBBDBB</v>
       </c>
     </row>
-    <row r="58" spans="8:12">
+    <row r="58" spans="8:13">
       <c r="H58" t="str">
         <f t="shared" si="2"/>
         <v>DBBD</v>
@@ -2549,7 +2937,7 @@
         <v>DBBDBB</v>
       </c>
     </row>
-    <row r="59" spans="8:12">
+    <row r="59" spans="8:13">
       <c r="H59" t="str">
         <f t="shared" si="2"/>
         <v>BCBD</v>
@@ -2562,8 +2950,11 @@
         <f t="shared" si="4"/>
         <v>BCBDBB</v>
       </c>
-    </row>
-    <row r="60" spans="8:12">
+      <c r="M59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="8:13">
       <c r="H60" t="str">
         <f t="shared" si="2"/>
         <v>CCBD</v>
@@ -2577,7 +2968,7 @@
         <v>CCBDBB</v>
       </c>
     </row>
-    <row r="61" spans="8:12">
+    <row r="61" spans="8:13">
       <c r="H61" t="str">
         <f t="shared" si="2"/>
         <v>DCBD</v>
@@ -2591,7 +2982,7 @@
         <v>DCBDBB</v>
       </c>
     </row>
-    <row r="62" spans="8:12">
+    <row r="62" spans="8:13">
       <c r="H62" t="str">
         <f t="shared" si="2"/>
         <v>BDBD</v>
@@ -2605,7 +2996,7 @@
         <v>BDBDBB</v>
       </c>
     </row>
-    <row r="63" spans="8:12">
+    <row r="63" spans="8:13">
       <c r="H63" t="str">
         <f t="shared" si="2"/>
         <v>CDBD</v>
@@ -2619,7 +3010,7 @@
         <v>CDBDBB</v>
       </c>
     </row>
-    <row r="64" spans="8:12">
+    <row r="64" spans="8:13">
       <c r="H64" t="str">
         <f t="shared" si="2"/>
         <v>DDBD</v>
@@ -2633,13 +3024,13 @@
         <v>DDBDBB</v>
       </c>
     </row>
-    <row r="65" spans="8:12">
+    <row r="65" spans="8:13">
       <c r="H65" t="str">
         <f t="shared" si="2"/>
         <v>BBCD</v>
       </c>
       <c r="I65" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="3"/>
@@ -2650,7 +3041,7 @@
         <v>BBCDBB</v>
       </c>
     </row>
-    <row r="66" spans="8:12">
+    <row r="66" spans="8:13">
       <c r="H66" t="str">
         <f t="shared" si="2"/>
         <v>CBCD</v>
@@ -2664,7 +3055,7 @@
         <v>CBCDBB</v>
       </c>
     </row>
-    <row r="67" spans="8:12">
+    <row r="67" spans="8:13">
       <c r="H67" t="str">
         <f t="shared" ref="H67:H82" si="5">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)), IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)) )</f>
         <v>DBCD</v>
@@ -2678,7 +3069,7 @@
         <v>DBCDBB</v>
       </c>
     </row>
-    <row r="68" spans="8:12">
+    <row r="68" spans="8:13">
       <c r="H68" t="str">
         <f t="shared" si="5"/>
         <v>BCCD</v>
@@ -2691,8 +3082,11 @@
         <f t="shared" si="7"/>
         <v>BCCDBB</v>
       </c>
-    </row>
-    <row r="69" spans="8:12">
+      <c r="M68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="8:13">
       <c r="H69" t="str">
         <f t="shared" si="5"/>
         <v>CCCD</v>
@@ -2705,8 +3099,11 @@
         <f t="shared" si="7"/>
         <v>CCCDBB</v>
       </c>
-    </row>
-    <row r="70" spans="8:12">
+      <c r="M69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="8:13">
       <c r="H70" t="str">
         <f t="shared" si="5"/>
         <v>DCCD</v>
@@ -2719,8 +3116,11 @@
         <f t="shared" si="7"/>
         <v>DCCDBB</v>
       </c>
-    </row>
-    <row r="71" spans="8:12">
+      <c r="M70" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="8:13">
       <c r="H71" t="str">
         <f t="shared" si="5"/>
         <v>BDCD</v>
@@ -2734,7 +3134,7 @@
         <v>BDCDBB</v>
       </c>
     </row>
-    <row r="72" spans="8:12">
+    <row r="72" spans="8:13">
       <c r="H72" t="str">
         <f t="shared" si="5"/>
         <v>CDCD</v>
@@ -2747,8 +3147,11 @@
         <f t="shared" si="7"/>
         <v>CDCDBB</v>
       </c>
-    </row>
-    <row r="73" spans="8:12">
+      <c r="M72" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="8:13">
       <c r="H73" t="str">
         <f t="shared" si="5"/>
         <v>DDCD</v>
@@ -2762,13 +3165,13 @@
         <v>DDCDBB</v>
       </c>
     </row>
-    <row r="74" spans="8:12">
+    <row r="74" spans="8:13">
       <c r="H74" t="str">
         <f t="shared" si="5"/>
         <v>BBDD</v>
       </c>
       <c r="I74" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="6"/>
@@ -2779,7 +3182,7 @@
         <v>BBDDBB</v>
       </c>
     </row>
-    <row r="75" spans="8:12">
+    <row r="75" spans="8:13">
       <c r="H75" t="str">
         <f t="shared" si="5"/>
         <v>CBDD</v>
@@ -2793,7 +3196,7 @@
         <v>CBDDBB</v>
       </c>
     </row>
-    <row r="76" spans="8:12">
+    <row r="76" spans="8:13">
       <c r="H76" t="str">
         <f t="shared" si="5"/>
         <v>DBDD</v>
@@ -2807,7 +3210,7 @@
         <v>DBDDBB</v>
       </c>
     </row>
-    <row r="77" spans="8:12">
+    <row r="77" spans="8:13">
       <c r="H77" t="str">
         <f t="shared" si="5"/>
         <v>BCDD</v>
@@ -2820,8 +3223,11 @@
         <f t="shared" si="7"/>
         <v>BCDDBB</v>
       </c>
-    </row>
-    <row r="78" spans="8:12">
+      <c r="M77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="8:13">
       <c r="H78" t="str">
         <f t="shared" si="5"/>
         <v>CCDD</v>
@@ -2835,7 +3241,7 @@
         <v>CCDDBB</v>
       </c>
     </row>
-    <row r="79" spans="8:12">
+    <row r="79" spans="8:13">
       <c r="H79" t="str">
         <f t="shared" si="5"/>
         <v>DCDD</v>
@@ -2849,7 +3255,7 @@
         <v>DCDDBB</v>
       </c>
     </row>
-    <row r="80" spans="8:12">
+    <row r="80" spans="8:13">
       <c r="H80" t="str">
         <f t="shared" si="5"/>
         <v>BDDD</v>
@@ -2883,7 +3289,7 @@
         <v>DDDD</v>
       </c>
       <c r="I82" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="6"/>
@@ -3994,7 +4400,7 @@
         <v>CBBCDB</v>
       </c>
     </row>
-    <row r="193" spans="10:12">
+    <row r="193" spans="10:13">
       <c r="J193" t="str">
         <f t="shared" si="8"/>
         <v>DBBCD</v>
@@ -4003,8 +4409,11 @@
         <f t="shared" si="9"/>
         <v>DBBCDB</v>
       </c>
-    </row>
-    <row r="194" spans="10:12">
+      <c r="M193" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="10:13">
       <c r="J194" t="str">
         <f t="shared" si="8"/>
         <v>BCBCD</v>
@@ -4014,7 +4423,7 @@
         <v>BCBCDB</v>
       </c>
     </row>
-    <row r="195" spans="10:12">
+    <row r="195" spans="10:13">
       <c r="J195" t="str">
         <f t="shared" ref="J195:J244" si="10">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)) )</f>
         <v>CCBCD</v>
@@ -4024,7 +4433,7 @@
         <v>CCBCDB</v>
       </c>
     </row>
-    <row r="196" spans="10:12">
+    <row r="196" spans="10:13">
       <c r="J196" t="str">
         <f t="shared" si="10"/>
         <v>DCBCD</v>
@@ -4034,7 +4443,7 @@
         <v>DCBCDB</v>
       </c>
     </row>
-    <row r="197" spans="10:12">
+    <row r="197" spans="10:13">
       <c r="J197" t="str">
         <f t="shared" si="10"/>
         <v>BDBCD</v>
@@ -4044,7 +4453,7 @@
         <v>BDBCDB</v>
       </c>
     </row>
-    <row r="198" spans="10:12">
+    <row r="198" spans="10:13">
       <c r="J198" t="str">
         <f t="shared" si="10"/>
         <v>CDBCD</v>
@@ -4054,7 +4463,7 @@
         <v>CDBCDB</v>
       </c>
     </row>
-    <row r="199" spans="10:12">
+    <row r="199" spans="10:13">
       <c r="J199" t="str">
         <f t="shared" si="10"/>
         <v>DDBCD</v>
@@ -4064,7 +4473,7 @@
         <v>DDBCDB</v>
       </c>
     </row>
-    <row r="200" spans="10:12">
+    <row r="200" spans="10:13">
       <c r="J200" t="str">
         <f t="shared" si="10"/>
         <v>BBCCD</v>
@@ -4074,7 +4483,7 @@
         <v>BBCCDB</v>
       </c>
     </row>
-    <row r="201" spans="10:12">
+    <row r="201" spans="10:13">
       <c r="J201" t="str">
         <f t="shared" si="10"/>
         <v>CBCCD</v>
@@ -4084,7 +4493,7 @@
         <v>CBCCDB</v>
       </c>
     </row>
-    <row r="202" spans="10:12">
+    <row r="202" spans="10:13">
       <c r="J202" t="str">
         <f t="shared" si="10"/>
         <v>DBCCD</v>
@@ -4094,7 +4503,7 @@
         <v>DBCCDB</v>
       </c>
     </row>
-    <row r="203" spans="10:12">
+    <row r="203" spans="10:13">
       <c r="J203" t="str">
         <f t="shared" si="10"/>
         <v>BCCCD</v>
@@ -4104,7 +4513,7 @@
         <v>BCCCDB</v>
       </c>
     </row>
-    <row r="204" spans="10:12">
+    <row r="204" spans="10:13">
       <c r="J204" t="str">
         <f t="shared" si="10"/>
         <v>CCCCD</v>
@@ -4114,7 +4523,7 @@
         <v>CCCCDB</v>
       </c>
     </row>
-    <row r="205" spans="10:12">
+    <row r="205" spans="10:13">
       <c r="J205" t="str">
         <f t="shared" si="10"/>
         <v>DCCCD</v>
@@ -4123,8 +4532,11 @@
         <f t="shared" si="11"/>
         <v>DCCCDB</v>
       </c>
-    </row>
-    <row r="206" spans="10:12">
+      <c r="M205" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="206" spans="10:13">
       <c r="J206" t="str">
         <f t="shared" si="10"/>
         <v>BDCCD</v>
@@ -4134,7 +4546,7 @@
         <v>BDCCDB</v>
       </c>
     </row>
-    <row r="207" spans="10:12">
+    <row r="207" spans="10:13">
       <c r="J207" t="str">
         <f t="shared" si="10"/>
         <v>CDCCD</v>
@@ -4144,7 +4556,7 @@
         <v>CDCCDB</v>
       </c>
     </row>
-    <row r="208" spans="10:12">
+    <row r="208" spans="10:13">
       <c r="J208" t="str">
         <f t="shared" si="10"/>
         <v>DDCCD</v>
@@ -4154,7 +4566,7 @@
         <v>DDCCDB</v>
       </c>
     </row>
-    <row r="209" spans="10:12">
+    <row r="209" spans="10:13">
       <c r="J209" t="str">
         <f t="shared" si="10"/>
         <v>BBDCD</v>
@@ -4164,7 +4576,7 @@
         <v>BBDCDB</v>
       </c>
     </row>
-    <row r="210" spans="10:12">
+    <row r="210" spans="10:13">
       <c r="J210" t="str">
         <f t="shared" si="10"/>
         <v>CBDCD</v>
@@ -4174,7 +4586,7 @@
         <v>CBDCDB</v>
       </c>
     </row>
-    <row r="211" spans="10:12">
+    <row r="211" spans="10:13">
       <c r="J211" t="str">
         <f t="shared" si="10"/>
         <v>DBDCD</v>
@@ -4184,7 +4596,7 @@
         <v>DBDCDB</v>
       </c>
     </row>
-    <row r="212" spans="10:12">
+    <row r="212" spans="10:13">
       <c r="J212" t="str">
         <f t="shared" si="10"/>
         <v>BCDCD</v>
@@ -4194,7 +4606,7 @@
         <v>BCDCDB</v>
       </c>
     </row>
-    <row r="213" spans="10:12">
+    <row r="213" spans="10:13">
       <c r="J213" t="str">
         <f t="shared" si="10"/>
         <v>CCDCD</v>
@@ -4204,7 +4616,7 @@
         <v>CCDCDB</v>
       </c>
     </row>
-    <row r="214" spans="10:12">
+    <row r="214" spans="10:13">
       <c r="J214" t="str">
         <f t="shared" si="10"/>
         <v>DCDCD</v>
@@ -4214,7 +4626,7 @@
         <v>DCDCDB</v>
       </c>
     </row>
-    <row r="215" spans="10:12">
+    <row r="215" spans="10:13">
       <c r="J215" t="str">
         <f t="shared" si="10"/>
         <v>BDDCD</v>
@@ -4224,7 +4636,7 @@
         <v>BDDCDB</v>
       </c>
     </row>
-    <row r="216" spans="10:12">
+    <row r="216" spans="10:13">
       <c r="J216" t="str">
         <f t="shared" si="10"/>
         <v>CDDCD</v>
@@ -4234,7 +4646,7 @@
         <v>CDDCDB</v>
       </c>
     </row>
-    <row r="217" spans="10:12">
+    <row r="217" spans="10:13">
       <c r="J217" t="str">
         <f t="shared" si="10"/>
         <v>DDDCD</v>
@@ -4243,8 +4655,11 @@
         <f t="shared" si="11"/>
         <v>DDDCDB</v>
       </c>
-    </row>
-    <row r="218" spans="10:12">
+      <c r="M217" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="218" spans="10:13">
       <c r="J218" t="str">
         <f t="shared" si="10"/>
         <v>BBBDD</v>
@@ -4254,7 +4669,7 @@
         <v>BBBDDB</v>
       </c>
     </row>
-    <row r="219" spans="10:12">
+    <row r="219" spans="10:13">
       <c r="J219" t="str">
         <f t="shared" si="10"/>
         <v>CBBDD</v>
@@ -4264,7 +4679,7 @@
         <v>CBBDDB</v>
       </c>
     </row>
-    <row r="220" spans="10:12">
+    <row r="220" spans="10:13">
       <c r="J220" t="str">
         <f t="shared" si="10"/>
         <v>DBBDD</v>
@@ -4274,7 +4689,7 @@
         <v>DBBDDB</v>
       </c>
     </row>
-    <row r="221" spans="10:12">
+    <row r="221" spans="10:13">
       <c r="J221" t="str">
         <f t="shared" si="10"/>
         <v>BCBDD</v>
@@ -4284,7 +4699,7 @@
         <v>BCBDDB</v>
       </c>
     </row>
-    <row r="222" spans="10:12">
+    <row r="222" spans="10:13">
       <c r="J222" t="str">
         <f t="shared" si="10"/>
         <v>CCBDD</v>
@@ -4294,7 +4709,7 @@
         <v>CCBDDB</v>
       </c>
     </row>
-    <row r="223" spans="10:12">
+    <row r="223" spans="10:13">
       <c r="J223" t="str">
         <f t="shared" si="10"/>
         <v>DCBDD</v>
@@ -4304,7 +4719,7 @@
         <v>DCBDDB</v>
       </c>
     </row>
-    <row r="224" spans="10:12">
+    <row r="224" spans="10:13">
       <c r="J224" t="str">
         <f t="shared" si="10"/>
         <v>BDBDD</v>
@@ -4434,7 +4849,7 @@
         <v>BBDDDB</v>
       </c>
       <c r="M236" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
     </row>
     <row r="237" spans="10:13">
@@ -4513,7 +4928,7 @@
         <v>DDDDD</v>
       </c>
       <c r="K244" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="L244" t="str">
         <f t="shared" si="11"/>
@@ -4784,100 +5199,103 @@
         <v>CDCCBC</v>
       </c>
     </row>
-    <row r="289" spans="12:12">
+    <row r="289" spans="12:13">
       <c r="L289" t="str">
         <f t="shared" si="13"/>
         <v>DDCCBC</v>
       </c>
     </row>
-    <row r="290" spans="12:12">
+    <row r="290" spans="12:13">
       <c r="L290" t="str">
         <f t="shared" si="13"/>
         <v>BBDCBC</v>
       </c>
     </row>
-    <row r="291" spans="12:12">
+    <row r="291" spans="12:13">
       <c r="L291" t="str">
         <f t="shared" si="13"/>
         <v>CBDCBC</v>
       </c>
     </row>
-    <row r="292" spans="12:12">
+    <row r="292" spans="12:13">
       <c r="L292" t="str">
         <f t="shared" si="13"/>
         <v>DBDCBC</v>
       </c>
     </row>
-    <row r="293" spans="12:12">
+    <row r="293" spans="12:13">
       <c r="L293" t="str">
         <f t="shared" si="13"/>
         <v>BCDCBC</v>
       </c>
     </row>
-    <row r="294" spans="12:12">
+    <row r="294" spans="12:13">
       <c r="L294" t="str">
         <f t="shared" si="13"/>
         <v>CCDCBC</v>
       </c>
     </row>
-    <row r="295" spans="12:12">
+    <row r="295" spans="12:13">
       <c r="L295" t="str">
         <f t="shared" si="13"/>
         <v>DCDCBC</v>
       </c>
     </row>
-    <row r="296" spans="12:12">
+    <row r="296" spans="12:13">
       <c r="L296" t="str">
         <f t="shared" si="13"/>
         <v>BDDCBC</v>
       </c>
     </row>
-    <row r="297" spans="12:12">
+    <row r="297" spans="12:13">
       <c r="L297" t="str">
         <f t="shared" si="13"/>
         <v>CDDCBC</v>
       </c>
     </row>
-    <row r="298" spans="12:12">
+    <row r="298" spans="12:13">
       <c r="L298" t="str">
         <f t="shared" si="13"/>
         <v>DDDCBC</v>
       </c>
     </row>
-    <row r="299" spans="12:12">
+    <row r="299" spans="12:13">
       <c r="L299" t="str">
         <f t="shared" si="13"/>
         <v>BBBDBC</v>
       </c>
     </row>
-    <row r="300" spans="12:12">
+    <row r="300" spans="12:13">
       <c r="L300" t="str">
         <f t="shared" si="13"/>
         <v>CBBDBC</v>
       </c>
     </row>
-    <row r="301" spans="12:12">
+    <row r="301" spans="12:13">
       <c r="L301" t="str">
         <f t="shared" si="13"/>
         <v>DBBDBC</v>
       </c>
     </row>
-    <row r="302" spans="12:12">
+    <row r="302" spans="12:13">
       <c r="L302" t="str">
         <f t="shared" si="13"/>
         <v>BCBDBC</v>
       </c>
     </row>
-    <row r="303" spans="12:12">
+    <row r="303" spans="12:13">
       <c r="L303" t="str">
         <f t="shared" si="13"/>
         <v>CCBDBC</v>
       </c>
     </row>
-    <row r="304" spans="12:12">
+    <row r="304" spans="12:13">
       <c r="L304" t="str">
         <f t="shared" si="13"/>
         <v>DCBDBC</v>
+      </c>
+      <c r="M304" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="305" spans="12:13">
@@ -4921,12 +5339,18 @@
         <f t="shared" si="13"/>
         <v>BCCDBC</v>
       </c>
+      <c r="M311" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="312" spans="12:13">
       <c r="L312" t="str">
         <f t="shared" si="13"/>
         <v>CCCDBC</v>
       </c>
+      <c r="M312" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="313" spans="12:13">
       <c r="L313" t="str">
@@ -4958,7 +5382,7 @@
         <v>BBDDBC</v>
       </c>
       <c r="M317" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="318" spans="12:13">
@@ -5447,7 +5871,7 @@
         <v>BBDDCC</v>
       </c>
       <c r="M398" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="399" spans="12:13">
@@ -6422,7 +6846,7 @@
         <v>BBDDBD</v>
       </c>
       <c r="M560" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
     </row>
     <row r="561" spans="12:12">
@@ -6911,7 +7335,7 @@
         <v>BBDDCD</v>
       </c>
       <c r="M641" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="642" spans="12:13">
@@ -7448,10 +7872,11 @@
         <v>DDDDDD</v>
       </c>
       <c r="M730" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M642:M1048576 N1:XFD1048576 M1:M316 M318:M640 A1:L1048576">
     <cfRule type="cellIs" dxfId="1" priority="0" stopIfTrue="1" operator="equal">

--- a/ideas/creatureFeatures.xlsx
+++ b/ideas/creatureFeatures.xlsx
@@ -20,7 +20,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="234">
+  <si>
+    <t>Enable vision for green in high intensity light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorVision += [(0, 0), (-100, 100), (0, 0)] in high intensity light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDCBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDDBC, DDDBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDDCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBDDBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBBBBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stops high level of blue in high intensity light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorVision blue capped (upper) at 3 in high intensity light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Night lids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extend lower cap for all colors in low intensity light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorVision += [(-1, 0), (-1, 0) (-1, 0)] in low intensity light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stripped lids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mix up the visible colors during the day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implify low level colors during the night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift values for each color vision to the right (values for blue become for red, etc) in high intensity light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorVision = [(tuple3), (tuple1), (tuple2)] in high intensity light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marron lids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stops blue light in the night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stops all blue in low intensity light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorVision += [(0, 0), (0, 0), (-100, -100)] in low intensity light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultragreen lids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boosts green vision in the day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Example long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +366,14 @@
   </si>
   <si>
     <t>VI8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day blue lids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shutters high levels of blue during the day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1225,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1245,585 +1385,685 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="14" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="14" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" t="s">
-        <v>60</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" t="s">
         <v>127</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" t="s">
         <v>128</v>
       </c>
-      <c r="F30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+      <c r="F44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
         <v>135</v>
       </c>
-      <c r="B38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="D45" t="s">
         <v>136</v>
       </c>
-      <c r="B39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" t="s">
-        <v>103</v>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1843,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P730"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="M306" sqref="M306"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="K257" sqref="K257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1860,7 +2100,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1881,42 +2121,42 @@
         <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="O1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="P1" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)))</f>
         <v>BB</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)) )</f>
         <v>BBB</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)), IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)) )</f>
         <v>BBBB</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)) )</f>
@@ -1936,22 +2176,22 @@
       </c>
       <c r="P2">
         <f>COUNTIF($C$2:$C$4,"*")+O2+COUNTIF($E$2:$E$10,"*")+COUNTIF($G$2:$G$28,"*")+COUNTIF($I$2:$I$82,"*")+COUNTIF($K$2:$K$244,"*")+COUNTIF($M$2:$M$730,"*") - N2 - O2</f>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D9" si="0">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)))</f>
         <v>CB</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F27" si="1">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)) )</f>
@@ -1972,17 +2212,17 @@
     </row>
     <row r="4" spans="1:16">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>DB</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
@@ -2007,7 +2247,7 @@
         <v>BC</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
@@ -2018,14 +2258,14 @@
         <v>BCBB</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
         <v>BCBBB</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="4"/>
@@ -2038,7 +2278,7 @@
         <v>CC</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
@@ -2063,7 +2303,7 @@
         <v>DC</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -2088,7 +2328,7 @@
         <v>BD</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -2113,7 +2353,7 @@
         <v>CD</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
@@ -2138,7 +2378,7 @@
         <v>DD</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
@@ -2163,7 +2403,7 @@
         <v>BBC</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="2"/>
@@ -2224,14 +2464,14 @@
         <v>BCCB</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="3"/>
         <v>BCCBB</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="4"/>
@@ -2334,7 +2574,7 @@
         <v>BBD</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="2"/>
@@ -2395,14 +2635,14 @@
         <v>BCDB</v>
       </c>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="3"/>
         <v>BCDBB</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="4"/>
@@ -2487,7 +2727,7 @@
         <v>DDD</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="2"/>
@@ -2508,7 +2748,7 @@
         <v>BBBC</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="3"/>
@@ -2561,7 +2801,7 @@
         <v>BCBCBB</v>
       </c>
       <c r="M32" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="8:12">
@@ -2640,7 +2880,7 @@
         <v>BBCC</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="3"/>
@@ -2815,7 +3055,7 @@
         <v>BCDCB</v>
       </c>
       <c r="K50" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="4"/>
@@ -2859,6 +3099,9 @@
         <f t="shared" si="3"/>
         <v>BDDCB</v>
       </c>
+      <c r="K53" t="s">
+        <v>7</v>
+      </c>
       <c r="L53" t="str">
         <f t="shared" si="4"/>
         <v>BDDCBB</v>
@@ -2898,7 +3141,7 @@
         <v>BBBD</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="3"/>
@@ -2951,7 +3194,7 @@
         <v>BCBDBB</v>
       </c>
       <c r="M59" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="8:13">
@@ -3030,7 +3273,7 @@
         <v>BBCD</v>
       </c>
       <c r="I65" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="3"/>
@@ -3083,7 +3326,7 @@
         <v>BCCDBB</v>
       </c>
       <c r="M68" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="8:13">
@@ -3100,7 +3343,7 @@
         <v>CCCDBB</v>
       </c>
       <c r="M69" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="8:13">
@@ -3117,7 +3360,7 @@
         <v>DCCDBB</v>
       </c>
       <c r="M70" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="8:13">
@@ -3148,7 +3391,7 @@
         <v>CDCDBB</v>
       </c>
       <c r="M72" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="8:13">
@@ -3171,7 +3414,7 @@
         <v>BBDD</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="6"/>
@@ -3224,7 +3467,7 @@
         <v>BCDDBB</v>
       </c>
       <c r="M77" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="8:13">
@@ -3289,7 +3532,7 @@
         <v>DDDD</v>
       </c>
       <c r="I82" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="6"/>
@@ -3465,6 +3708,9 @@
         <f t="shared" si="6"/>
         <v>CDCBC</v>
       </c>
+      <c r="K99" t="s">
+        <v>2</v>
+      </c>
       <c r="L99" t="str">
         <f t="shared" si="7"/>
         <v>CDCBCB</v>
@@ -3555,6 +3801,9 @@
         <f t="shared" si="6"/>
         <v>CDDBC</v>
       </c>
+      <c r="K108" t="s">
+        <v>4</v>
+      </c>
       <c r="L108" t="str">
         <f t="shared" si="7"/>
         <v>CDDBCB</v>
@@ -3565,6 +3814,9 @@
         <f t="shared" si="6"/>
         <v>DDDBC</v>
       </c>
+      <c r="K109" t="s">
+        <v>4</v>
+      </c>
       <c r="L109" t="str">
         <f t="shared" si="7"/>
         <v>DDDBCB</v>
@@ -4410,7 +4662,7 @@
         <v>DBBCDB</v>
       </c>
       <c r="M193" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="194" spans="10:13">
@@ -4533,7 +4785,7 @@
         <v>DCCCDB</v>
       </c>
       <c r="M205" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="206" spans="10:13">
@@ -4656,7 +4908,7 @@
         <v>DDDCDB</v>
       </c>
       <c r="M217" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="218" spans="10:13">
@@ -4849,7 +5101,7 @@
         <v>BBDDDB</v>
       </c>
       <c r="M236" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
     </row>
     <row r="237" spans="10:13">
@@ -4892,7 +5144,7 @@
         <v>CCDDDB</v>
       </c>
     </row>
-    <row r="241" spans="10:12">
+    <row r="241" spans="10:13">
       <c r="J241" t="str">
         <f t="shared" si="10"/>
         <v>DCDDD</v>
@@ -4902,7 +5154,7 @@
         <v>DCDDDB</v>
       </c>
     </row>
-    <row r="242" spans="10:12">
+    <row r="242" spans="10:13">
       <c r="J242" t="str">
         <f t="shared" si="10"/>
         <v>BDDDD</v>
@@ -4912,7 +5164,7 @@
         <v>BDDDDB</v>
       </c>
     </row>
-    <row r="243" spans="10:12">
+    <row r="243" spans="10:13">
       <c r="J243" t="str">
         <f t="shared" si="10"/>
         <v>CDDDD</v>
@@ -4922,86 +5174,89 @@
         <v>CDDDDB</v>
       </c>
     </row>
-    <row r="244" spans="10:12">
+    <row r="244" spans="10:13">
       <c r="J244" t="str">
         <f t="shared" si="10"/>
         <v>DDDDD</v>
       </c>
       <c r="K244" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="L244" t="str">
         <f t="shared" si="11"/>
         <v>DDDDDB</v>
       </c>
     </row>
-    <row r="245" spans="10:12">
+    <row r="245" spans="10:13">
       <c r="L245" t="str">
         <f t="shared" ref="L245:L258" si="12">CONCATENATE(IF(MOD(ROW() - 2,3) = 0, $B$2, IF(MOD(ROW() - 2, 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,3),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,3), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,9),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,9), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,27), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,81),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,81), 3) = 1, $B$3, $B$4)),IF(MOD(QUOTIENT(ROW() - 2,243),3) = 0, $B$2, IF(MOD(QUOTIENT(ROW() - 2,243), 3) = 1, $B$3, $B$4)))</f>
         <v>BBBBBC</v>
       </c>
     </row>
-    <row r="246" spans="10:12">
+    <row r="246" spans="10:13">
       <c r="L246" t="str">
         <f t="shared" si="12"/>
         <v>CBBBBC</v>
       </c>
-    </row>
-    <row r="247" spans="10:12">
+      <c r="M246" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="10:13">
       <c r="L247" t="str">
         <f t="shared" si="12"/>
         <v>DBBBBC</v>
       </c>
     </row>
-    <row r="248" spans="10:12">
+    <row r="248" spans="10:13">
       <c r="L248" t="str">
         <f t="shared" si="12"/>
         <v>BCBBBC</v>
       </c>
     </row>
-    <row r="249" spans="10:12">
+    <row r="249" spans="10:13">
       <c r="L249" t="str">
         <f t="shared" si="12"/>
         <v>CCBBBC</v>
       </c>
     </row>
-    <row r="250" spans="10:12">
+    <row r="250" spans="10:13">
       <c r="L250" t="str">
         <f t="shared" si="12"/>
         <v>DCBBBC</v>
       </c>
     </row>
-    <row r="251" spans="10:12">
+    <row r="251" spans="10:13">
       <c r="L251" t="str">
         <f t="shared" si="12"/>
         <v>BDBBBC</v>
       </c>
     </row>
-    <row r="252" spans="10:12">
+    <row r="252" spans="10:13">
       <c r="L252" t="str">
         <f t="shared" si="12"/>
         <v>CDBBBC</v>
       </c>
     </row>
-    <row r="253" spans="10:12">
+    <row r="253" spans="10:13">
       <c r="L253" t="str">
         <f t="shared" si="12"/>
         <v>DDBBBC</v>
       </c>
     </row>
-    <row r="254" spans="10:12">
+    <row r="254" spans="10:13">
       <c r="L254" t="str">
         <f t="shared" si="12"/>
         <v>BBCBBC</v>
       </c>
     </row>
-    <row r="255" spans="10:12">
+    <row r="255" spans="10:13">
       <c r="L255" t="str">
         <f t="shared" si="12"/>
         <v>CBCBBC</v>
       </c>
     </row>
-    <row r="256" spans="10:12">
+    <row r="256" spans="10:13">
       <c r="L256" t="str">
         <f t="shared" si="12"/>
         <v>DBCBBC</v>
@@ -5295,7 +5550,7 @@
         <v>DCBDBC</v>
       </c>
       <c r="M304" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="305" spans="12:13">
@@ -5340,7 +5595,7 @@
         <v>BCCDBC</v>
       </c>
       <c r="M311" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="312" spans="12:13">
@@ -5349,7 +5604,7 @@
         <v>CCCDBC</v>
       </c>
       <c r="M312" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="313" spans="12:13">
@@ -5382,7 +5637,7 @@
         <v>BBDDBC</v>
       </c>
       <c r="M317" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
     </row>
     <row r="318" spans="12:13">
@@ -5390,6 +5645,9 @@
         <f t="shared" si="13"/>
         <v>CBDDBC</v>
       </c>
+      <c r="M318" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="319" spans="12:13">
       <c r="L319" t="str">
@@ -5871,7 +6129,7 @@
         <v>BBDDCC</v>
       </c>
       <c r="M398" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
     </row>
     <row r="399" spans="12:13">
@@ -6846,7 +7104,7 @@
         <v>BBDDBD</v>
       </c>
       <c r="M560" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
     </row>
     <row r="561" spans="12:12">
@@ -7335,7 +7593,7 @@
         <v>BBDDCD</v>
       </c>
       <c r="M641" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="642" spans="12:13">
@@ -7872,13 +8130,13 @@
         <v>DDDDDD</v>
       </c>
       <c r="M730" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M642:M1048576 N1:XFD1048576 M1:M316 M318:M640 A1:L1048576">
+  <conditionalFormatting sqref="M642:M1048576 N1:XFD1048576 A1:L1048576 M318:M640 M1:M316">
     <cfRule type="cellIs" dxfId="1" priority="0" stopIfTrue="1" operator="equal">
       <formula>"VOID"</formula>
     </cfRule>
